--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D96F0-7DC3-459C-91C9-01525926DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8EA36-EF06-4872-A856-BF38DCF96604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="675" windowWidth="20745" windowHeight="14490" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="11010" yWindow="4860" windowWidth="18645" windowHeight="9315" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
     <sheet name="Apparel" sheetId="4" r:id="rId2"/>
     <sheet name="Retail" sheetId="2" r:id="rId3"/>
-    <sheet name="Consumer" sheetId="3" r:id="rId4"/>
+    <sheet name="Restaurants" sheetId="5" r:id="rId4"/>
+    <sheet name="Consumer" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -119,6 +120,18 @@
   </si>
   <si>
     <t>COST</t>
+  </si>
+  <si>
+    <t>McDonalds</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
   </si>
 </sst>
 </file>
@@ -587,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -652,6 +665,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="B2:E3"/>
   <sheetViews>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8EA36-EF06-4872-A856-BF38DCF96604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE6C618-453E-45B6-A01D-B35ECA7B4785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="4860" windowWidth="18645" windowHeight="9315" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-20700" yWindow="5925" windowWidth="17475" windowHeight="12690" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -132,6 +132,120 @@
   </si>
   <si>
     <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Estee Lauder</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>Mondelez</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>Altria Group</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Unilever</t>
+  </si>
+  <si>
+    <t>Hindustan Unilever</t>
+  </si>
+  <si>
+    <t>HUVR IN</t>
+  </si>
+  <si>
+    <t>EssilorLuxottica</t>
+  </si>
+  <si>
+    <t>EL FP</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>Colgate-Palmolive</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Walmart de mexico</t>
+  </si>
+  <si>
+    <t>WALMEX</t>
+  </si>
+  <si>
+    <t>Reckitt Benckiser</t>
+  </si>
+  <si>
+    <t>RKT LN</t>
+  </si>
+  <si>
+    <t>Keurig Dr. Pepper</t>
+  </si>
+  <si>
+    <t>KDP</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>MNST</t>
+  </si>
+  <si>
+    <t>L'Oreal</t>
+  </si>
+  <si>
+    <t>OR FP</t>
+  </si>
+  <si>
+    <t>Philip Morris</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Lowe's</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>ULVR LN</t>
+  </si>
+  <si>
+    <t>Anheuser-Busch</t>
+  </si>
+  <si>
+    <t>ABI BB</t>
+  </si>
+  <si>
+    <t>Christian Dior</t>
+  </si>
+  <si>
+    <t>CDI FP</t>
+  </si>
+  <si>
+    <t>Lululemon</t>
+  </si>
+  <si>
+    <t>LULU</t>
+  </si>
+  <si>
+    <t>Chipotle</t>
+  </si>
+  <si>
+    <t>CMG</t>
   </si>
 </sst>
 </file>
@@ -482,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -543,6 +657,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -550,13 +696,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -591,6 +737,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -598,13 +776,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -659,6 +837,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -666,13 +860,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,6 +904,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -717,13 +919,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -753,6 +955,70 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE6C618-453E-45B6-A01D-B35ECA7B4785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC75AF4-7800-4615-AEB1-1F2949B94B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20700" yWindow="5925" windowWidth="17475" windowHeight="12690" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="53235" yWindow="1740" windowWidth="20310" windowHeight="17790" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
     <sheet name="Apparel" sheetId="4" r:id="rId2"/>
     <sheet name="Retail" sheetId="2" r:id="rId3"/>
     <sheet name="Restaurants" sheetId="5" r:id="rId4"/>
-    <sheet name="Consumer" sheetId="3" r:id="rId5"/>
+    <sheet name="NonDurable" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Unilever</t>
   </si>
   <si>
-    <t>Hindustan Unilever</t>
-  </si>
-  <si>
-    <t>HUVR IN</t>
-  </si>
-  <si>
     <t>EssilorLuxottica</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>CL</t>
   </si>
   <si>
-    <t>Walmart de mexico</t>
-  </si>
-  <si>
     <t>WALMEX</t>
   </si>
   <si>
@@ -246,6 +237,156 @@
   </si>
   <si>
     <t>CMG</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>Walmart de Mexico</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>RMS FP</t>
+  </si>
+  <si>
+    <t>Wuliangye Yibi</t>
+  </si>
+  <si>
+    <t>000858 CH</t>
+  </si>
+  <si>
+    <t>Diageo</t>
+  </si>
+  <si>
+    <t>JD.COM</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>British American Tobacco</t>
+  </si>
+  <si>
+    <t>BATS LN</t>
+  </si>
+  <si>
+    <t>Inditex</t>
+  </si>
+  <si>
+    <t>ITX SM</t>
+  </si>
+  <si>
+    <t>TJX</t>
+  </si>
+  <si>
+    <t>Nongfu Spring</t>
+  </si>
+  <si>
+    <t>9633 HK</t>
+  </si>
+  <si>
+    <t>Kering</t>
+  </si>
+  <si>
+    <t>KER FP</t>
+  </si>
+  <si>
+    <t>China Tourism</t>
+  </si>
+  <si>
+    <t>601888 CH</t>
+  </si>
+  <si>
+    <t>Fast Retailing</t>
+  </si>
+  <si>
+    <t>9983 JP</t>
+  </si>
+  <si>
+    <t>CIE Financiere Richemont</t>
+  </si>
+  <si>
+    <t>CFR SW</t>
+  </si>
+  <si>
+    <t>Foshan Haitian</t>
+  </si>
+  <si>
+    <t>603288 CH</t>
+  </si>
+  <si>
+    <t>Dollar General</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>Heineken</t>
+  </si>
+  <si>
+    <t>HEIA NA</t>
+  </si>
+  <si>
+    <t>Shanxi Xinghuacun Fen Wire</t>
+  </si>
+  <si>
+    <t>600809 CH</t>
+  </si>
+  <si>
+    <t>Luzhou Laojiao</t>
+  </si>
+  <si>
+    <t>000568 CH</t>
+  </si>
+  <si>
+    <t>Muyuan Foods</t>
+  </si>
+  <si>
+    <t>002714 CH</t>
+  </si>
+  <si>
+    <t>Pernod Ricard</t>
+  </si>
+  <si>
+    <t>RI FP</t>
+  </si>
+  <si>
+    <t>Constellation Brands</t>
+  </si>
+  <si>
+    <t>STZ</t>
+  </si>
+  <si>
+    <t>Kraft Heinz</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>Hershey</t>
+  </si>
+  <si>
+    <t>HSY</t>
+  </si>
+  <si>
+    <t>O'Reilly Automotive</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>General Mills</t>
+  </si>
+  <si>
+    <t>GIS</t>
   </si>
 </sst>
 </file>
@@ -596,22 +737,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -625,7 +767,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -633,7 +778,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -641,7 +789,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -649,7 +800,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -657,36 +811,177 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -696,18 +991,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -721,7 +1020,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -729,7 +1031,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -737,36 +1042,89 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -776,22 +1134,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -805,7 +1163,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -813,7 +1174,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -821,7 +1185,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -829,28 +1196,125 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -860,21 +1324,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -888,7 +1353,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -896,7 +1364,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -904,12 +1375,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -919,21 +1390,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -947,7 +1419,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -955,68 +1430,103 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
+      <c r="C12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC75AF4-7800-4615-AEB1-1F2949B94B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5C3343-8AB4-493A-96D3-694C314A3760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53235" yWindow="1740" windowWidth="20310" windowHeight="17790" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="51540" yWindow="7380" windowWidth="22155" windowHeight="13350" activeTab="4" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
     <sheet name="Apparel" sheetId="4" r:id="rId2"/>
     <sheet name="Retail" sheetId="2" r:id="rId3"/>
     <sheet name="Restaurants" sheetId="5" r:id="rId4"/>
-    <sheet name="NonDurable" sheetId="3" r:id="rId5"/>
+    <sheet name="Leisure" sheetId="6" r:id="rId5"/>
+    <sheet name="NonDurable" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -387,6 +388,111 @@
   </si>
   <si>
     <t>GIS</t>
+  </si>
+  <si>
+    <t>Autozone</t>
+  </si>
+  <si>
+    <t>AZO</t>
+  </si>
+  <si>
+    <t>Ambev</t>
+  </si>
+  <si>
+    <t>ABEV3 BZ</t>
+  </si>
+  <si>
+    <t>ATD CN</t>
+  </si>
+  <si>
+    <t>Alimentation Couche-Tard</t>
+  </si>
+  <si>
+    <t>Archer-Daniels</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Yihai Kerry</t>
+  </si>
+  <si>
+    <t>300999 CH</t>
+  </si>
+  <si>
+    <t>Jiangsu Yanghe Brewery</t>
+  </si>
+  <si>
+    <t>002304 CH</t>
+  </si>
+  <si>
+    <t>Budweiser Brewing APAC</t>
+  </si>
+  <si>
+    <t>1876 HK</t>
+  </si>
+  <si>
+    <t>Dollar Tree</t>
+  </si>
+  <si>
+    <t>DLTR</t>
+  </si>
+  <si>
+    <t>Danone</t>
+  </si>
+  <si>
+    <t>BN FP</t>
+  </si>
+  <si>
+    <t>Seven &amp; I</t>
+  </si>
+  <si>
+    <t>3382 JP</t>
+  </si>
+  <si>
+    <t>Kroger</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Japan Tobacco</t>
+  </si>
+  <si>
+    <t>2914 JP</t>
+  </si>
+  <si>
+    <t>Brown-Forman</t>
+  </si>
+  <si>
+    <t>BF/B</t>
+  </si>
+  <si>
+    <t>Yum Brands</t>
+  </si>
+  <si>
+    <t>YUM</t>
+  </si>
+  <si>
+    <t>Hilton</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Avenue Supermarts</t>
+  </si>
+  <si>
+    <t>DMART IN</t>
+  </si>
+  <si>
+    <t>Anta Sports Products</t>
+  </si>
+  <si>
+    <t>2020 HK</t>
   </si>
 </sst>
 </file>
@@ -737,13 +843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -982,6 +1088,83 @@
       </c>
       <c r="C22" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1180,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1120,6 +1303,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
       <c r="B12" t="s">
         <v>62</v>
       </c>
@@ -1134,19 +1320,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,6 +1501,72 @@
       </c>
       <c r="C16" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1324,13 +1576,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1376,11 +1628,25 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1389,14 +1655,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B3AE1-93C7-4A6B-A7E2-F7A2ABF7DB44}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1529,6 +1831,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5C3343-8AB4-493A-96D3-694C314A3760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AC2683-3D47-4981-B2C0-3BB5998757D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51540" yWindow="7380" windowWidth="22155" windowHeight="13350" activeTab="4" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="52845" yWindow="135" windowWidth="24495" windowHeight="20445" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -493,6 +493,78 @@
   </si>
   <si>
     <t>2020 HK</t>
+  </si>
+  <si>
+    <t>Woolworths</t>
+  </si>
+  <si>
+    <t>WOW AU</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>ADS GR</t>
+  </si>
+  <si>
+    <t>Givaudan</t>
+  </si>
+  <si>
+    <t>GIVN SW</t>
+  </si>
+  <si>
+    <t>Loblaws</t>
+  </si>
+  <si>
+    <t>L CN</t>
+  </si>
+  <si>
+    <t>Tyson Foods</t>
+  </si>
+  <si>
+    <t>TSN</t>
+  </si>
+  <si>
+    <t>International Flavor</t>
+  </si>
+  <si>
+    <t>IFF</t>
+  </si>
+  <si>
+    <t>Ahold</t>
+  </si>
+  <si>
+    <t>AD NA</t>
+  </si>
+  <si>
+    <t>Ross Stores</t>
+  </si>
+  <si>
+    <t>ROST</t>
+  </si>
+  <si>
+    <t>Las Vegas Sands</t>
+  </si>
+  <si>
+    <t>LVS</t>
+  </si>
+  <si>
+    <t>Hormel Foods</t>
+  </si>
+  <si>
+    <t>HRL</t>
+  </si>
+  <si>
+    <t>Galaxy Entertainment</t>
+  </si>
+  <si>
+    <t>27 HK</t>
+  </si>
+  <si>
+    <t>Beiersdorf</t>
+  </si>
+  <si>
+    <t>BEI GR</t>
   </si>
 </sst>
 </file>
@@ -843,13 +915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,6 +1239,50 @@
         <v>141</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1174,13 +1290,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1313,6 +1429,17 @@
         <v>63</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1320,13 +1447,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1567,6 +1694,50 @@
       </c>
       <c r="C22" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1753,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1656,33 +1827,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B3AE1-93C7-4A6B-A7E2-F7A2ABF7DB44}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>149</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1692,13 +1912,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1842,6 +2062,17 @@
         <v>139</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AC2683-3D47-4981-B2C0-3BB5998757D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17E171E-A3F9-4330-8FD1-2E1BC8F421AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52845" yWindow="135" windowWidth="24495" windowHeight="20445" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="74910" yWindow="2700" windowWidth="27720" windowHeight="16485" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -565,6 +565,12 @@
   </si>
   <si>
     <t>BEI GR</t>
+  </si>
+  <si>
+    <t>Kellogg</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -915,13 +921,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1281,6 +1287,17 @@
       </c>
       <c r="C33" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17E171E-A3F9-4330-8FD1-2E1BC8F421AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B8DE4-8044-41BF-8ABB-2E93EE695FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74910" yWindow="2700" windowWidth="27720" windowHeight="16485" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-27510" yWindow="2295" windowWidth="27315" windowHeight="18315" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
   <si>
     <t>Name</t>
   </si>
@@ -571,6 +571,30 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>TTAN IN</t>
+  </si>
+  <si>
+    <t>Titan Co</t>
+  </si>
+  <si>
+    <t>Lindt &amp; Sprungli</t>
+  </si>
+  <si>
+    <t>LISN SW</t>
+  </si>
+  <si>
+    <t>Rockwell Automation</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>Restaurant Brands</t>
+  </si>
+  <si>
+    <t>QSR CN</t>
   </si>
 </sst>
 </file>
@@ -921,13 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1300,6 +1324,28 @@
         <v>176</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1307,13 +1353,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1455,6 +1501,17 @@
       </c>
       <c r="C13" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1764,13 +1821,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1835,6 +1892,17 @@
       </c>
       <c r="C6" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B8DE4-8044-41BF-8ABB-2E93EE695FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917311DA-73F7-47F8-9ADD-E19B9438BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27510" yWindow="2295" windowWidth="27315" windowHeight="18315" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-25290" yWindow="1110" windowWidth="24870" windowHeight="17595" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="Leisure" sheetId="6" r:id="rId5"/>
     <sheet name="NonDurable" sheetId="3" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="195">
   <si>
     <t>Name</t>
   </si>
@@ -595,16 +599,53 @@
   </si>
   <si>
     <t>QSR CN</t>
+  </si>
+  <si>
+    <t>Gamestop</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>Q322</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -626,13 +667,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -646,6 +698,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>304.529721</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>908.9</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>41</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>1048.536826</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>705.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>5325.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,22 +1635,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1549,8 +1665,23 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1561,7 +1692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1572,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1583,7 +1714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1594,7 +1725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1605,7 +1736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1616,7 +1747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1627,7 +1758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1638,7 +1769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1649,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1660,7 +1791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1671,7 +1802,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1682,7 +1813,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1693,7 +1824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1704,7 +1835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1715,7 +1846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1726,7 +1857,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1737,7 +1868,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1748,7 +1879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1759,7 +1890,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1770,7 +1901,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1781,7 +1912,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1792,7 +1923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1803,7 +1934,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1814,7 +1945,77 @@
         <v>166</v>
       </c>
     </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2">
+        <f>+D27*H27</f>
+        <v>8388.2946080000002</v>
+      </c>
+      <c r="F27" s="2">
+        <f>+[2]Main!$N$5-[2]Main!$N$6</f>
+        <v>-4619.5</v>
+      </c>
+      <c r="G27" s="2">
+        <f>+E27-F27</f>
+        <v>13007.794608</v>
+      </c>
+      <c r="H27" s="2">
+        <f>+[2]Main!$N$3</f>
+        <v>1048.536826</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" s="4">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28">
+        <v>25.12</v>
+      </c>
+      <c r="E28" s="2">
+        <f>+D28*H28</f>
+        <v>7649.78659152</v>
+      </c>
+      <c r="F28" s="2">
+        <f>+[1]Main!$M$5-[1]Main!$M$6</f>
+        <v>867.9</v>
+      </c>
+      <c r="G28" s="2">
+        <f>+E28-F28</f>
+        <v>6781.8865915200004</v>
+      </c>
+      <c r="H28" s="2">
+        <f>+[1]Main!$M$3</f>
+        <v>304.529721</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J28" s="4">
+        <v>44887</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1823,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917311DA-73F7-47F8-9ADD-E19B9438BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C096B0D-E38D-4BAA-80FC-6916B93B1F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="1110" windowWidth="24870" windowHeight="17595" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="18015" yWindow="1170" windowWidth="33330" windowHeight="20340" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -629,6 +629,54 @@
   </si>
   <si>
     <t>Q322</t>
+  </si>
+  <si>
+    <t>Church &amp; Dwight</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>Wens Foodstuff Group</t>
+  </si>
+  <si>
+    <t>300498 CH</t>
+  </si>
+  <si>
+    <t>Tesco</t>
+  </si>
+  <si>
+    <t>TSCO LN</t>
+  </si>
+  <si>
+    <t>Tractor Supply</t>
+  </si>
+  <si>
+    <t>TSCO US</t>
+  </si>
+  <si>
+    <t>Nestle India</t>
+  </si>
+  <si>
+    <t>NEST IN</t>
+  </si>
+  <si>
+    <t>Coca-Cola European Partners</t>
+  </si>
+  <si>
+    <t>CCEP</t>
+  </si>
+  <si>
+    <t>Li Ning</t>
+  </si>
+  <si>
+    <t>2331 HK</t>
+  </si>
+  <si>
+    <t>McCormick</t>
+  </si>
+  <si>
+    <t>MKC</t>
   </si>
 </sst>
 </file>
@@ -710,22 +758,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>304.529721</v>
+          <cell r="N3">
+            <v>1048.536826</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>908.9</v>
+          <cell r="N5">
+            <v>705.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>41</v>
+          <cell r="N6">
+            <v>5325.3</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -741,18 +789,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>1048.536826</v>
+          <cell r="M3">
+            <v>304.529721</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>705.8</v>
+          <cell r="M5">
+            <v>908.9</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>5325.3</v>
+          <cell r="M6">
+            <v>41</v>
           </cell>
         </row>
       </sheetData>
@@ -1059,19 +1107,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:E36"/>
+  <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1458,6 +1506,50 @@
       </c>
       <c r="C36" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1467,13 +1559,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:C14"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1628,6 +1720,17 @@
         <v>177</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1635,13 +1738,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1946,75 +2049,97 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D29" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="2">
-        <f>+D27*H27</f>
+      <c r="E29" s="2">
+        <f>+D29*H29</f>
         <v>8388.2946080000002</v>
       </c>
-      <c r="F27" s="2">
-        <f>+[2]Main!$N$5-[2]Main!$N$6</f>
+      <c r="F29" s="2">
+        <f>+[1]Main!$N$5-[1]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
-      <c r="G27" s="2">
-        <f>+E27-F27</f>
+      <c r="G29" s="2">
+        <f>+E29-F29</f>
         <v>13007.794608</v>
       </c>
-      <c r="H27" s="2">
-        <f>+[2]Main!$N$3</f>
+      <c r="H29" s="2">
+        <f>+[1]Main!$N$3</f>
         <v>1048.536826</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J29" s="4">
         <v>44887</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>186</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>25.12</v>
       </c>
-      <c r="E28" s="2">
-        <f>+D28*H28</f>
+      <c r="E30" s="2">
+        <f>+D30*H30</f>
         <v>7649.78659152</v>
       </c>
-      <c r="F28" s="2">
-        <f>+[1]Main!$M$5-[1]Main!$M$6</f>
+      <c r="F30" s="2">
+        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
         <v>867.9</v>
       </c>
-      <c r="G28" s="2">
-        <f>+E28-F28</f>
+      <c r="G30" s="2">
+        <f>+E30-F30</f>
         <v>6781.8865915200004</v>
       </c>
-      <c r="H28" s="2">
-        <f>+[1]Main!$M$3</f>
+      <c r="H30" s="2">
+        <f>+[2]Main!$M$3</f>
         <v>304.529721</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J30" s="4">
         <v>44887</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
-    <hyperlink ref="B27" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2198,13 +2323,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2359,6 +2484,22 @@
         <v>174</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C096B0D-E38D-4BAA-80FC-6916B93B1F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF8DD1-AB7D-4B10-A6D3-2D505C1C5FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18015" yWindow="1170" windowWidth="33330" windowHeight="20340" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-33000" yWindow="1815" windowWidth="28200" windowHeight="18270" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -736,7 +736,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{676DECC6-249D-409C-B851-732AEB516A44}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -749,7 +751,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -780,8 +782,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -804,7 +809,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1099,7 +1104,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1109,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1740,11 +1745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF8DD1-AB7D-4B10-A6D3-2D505C1C5FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ADAF6F-5B64-4CC5-9E96-62A82A9D633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33000" yWindow="1815" windowWidth="28200" windowHeight="18270" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1104,7 +1104,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1118,7 +1118,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1745,11 +1745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2154,11 +2154,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2334,7 +2334,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ADAF6F-5B64-4CC5-9E96-62A82A9D633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221ADC76-5751-4C87-98A6-2B77C9A9922E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -620,9 +620,6 @@
   </si>
   <si>
     <t>Last</t>
-  </si>
-  <si>
-    <t>Q222</t>
   </si>
   <si>
     <t>AMC</t>
@@ -795,17 +792,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>304.529721</v>
+            <v>304.57807000000003</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>908.9</v>
+            <v>1042.0999999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>41</v>
+            <v>38.700000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -1518,10 +1515,10 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" t="s">
         <v>197</v>
-      </c>
-      <c r="C37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,10 +1526,10 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" t="s">
         <v>203</v>
-      </c>
-      <c r="C38" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1540,10 +1537,10 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
         <v>205</v>
-      </c>
-      <c r="C39" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,10 +1548,10 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" t="s">
         <v>209</v>
-      </c>
-      <c r="C40" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1727,10 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
         <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1745,11 +1742,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2058,10 +2055,10 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
         <v>199</v>
-      </c>
-      <c r="C27" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2069,18 +2066,18 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
         <v>201</v>
-      </c>
-      <c r="C28" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="5">
         <v>8</v>
@@ -2102,7 +2099,7 @@
         <v>1048.536826</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J29" s="4">
         <v>44887</v>
@@ -2115,30 +2112,30 @@
       <c r="C30" t="s">
         <v>186</v>
       </c>
-      <c r="D30">
-        <v>25.12</v>
+      <c r="D30" s="5">
+        <v>16.600000000000001</v>
       </c>
       <c r="E30" s="2">
         <f>+D30*H30</f>
-        <v>7649.78659152</v>
+        <v>5055.9959620000009</v>
       </c>
       <c r="F30" s="2">
         <f>+[2]Main!$M$5-[2]Main!$M$6</f>
-        <v>867.9</v>
+        <v>1003.3999999999999</v>
       </c>
       <c r="G30" s="2">
         <f>+E30-F30</f>
-        <v>6781.8865915200004</v>
+        <v>4052.5959620000012</v>
       </c>
       <c r="H30" s="2">
         <f>+[2]Main!$M$3</f>
-        <v>304.529721</v>
+        <v>304.57807000000003</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J30" s="4">
-        <v>44887</v>
+        <v>45004</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2494,10 +2491,10 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
         <v>195</v>
-      </c>
-      <c r="C15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221ADC76-5751-4C87-98A6-2B77C9A9922E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2F14F-B040-41B3-B96A-D1649433B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="24825" yWindow="2250" windowWidth="25410" windowHeight="18450" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>MKC</t>
+  </si>
+  <si>
+    <t>DGE LN</t>
   </si>
 </sst>
 </file>
@@ -1111,11 +1114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1211,6 +1214,9 @@
       </c>
       <c r="B9" t="s">
         <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1567,7 +1573,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1742,11 +1748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2155,7 +2161,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2331,7 +2337,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2F14F-B040-41B3-B96A-D1649433B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820485A2-95BF-F34F-B5B5-3E4394CAF4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24825" yWindow="2250" windowWidth="25410" windowHeight="18450" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="160" yWindow="-19220" windowWidth="20440" windowHeight="14400" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -790,6 +790,7 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -800,25 +801,26 @@
         </row>
         <row r="5">
           <cell r="M5">
-            <v>1042.0999999999999</v>
+            <v>1082</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38.700000000000003</v>
+            <v>25.700000000000003</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -856,7 +858,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -962,7 +964,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1104,7 +1106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1114,21 +1116,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1230,7 +1232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1263,7 +1265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1362,7 +1364,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1428,7 +1430,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1450,7 +1452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1461,7 +1463,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1472,7 +1474,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1494,7 +1496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1538,7 +1540,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1576,13 +1578,13 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1662,7 +1664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1695,7 +1697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1752,18 +1754,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="3"/>
+    <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1814,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1902,7 +1904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1924,7 +1926,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2023,7 +2025,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2034,7 +2036,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2045,7 +2047,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>192</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>185</v>
       </c>
@@ -2127,11 +2129,11 @@
       </c>
       <c r="F30" s="2">
         <f>+[2]Main!$M$5-[2]Main!$M$6</f>
-        <v>1003.3999999999999</v>
+        <v>1056.3</v>
       </c>
       <c r="G30" s="2">
         <f>+E30-F30</f>
-        <v>4052.5959620000012</v>
+        <v>3999.6959620000007</v>
       </c>
       <c r="H30" s="2">
         <f>+[2]Main!$M$3</f>
@@ -2157,20 +2159,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2255,18 +2257,18 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2291,7 +2293,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2337,16 +2339,16 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>66</v>
       </c>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820485A2-95BF-F34F-B5B5-3E4394CAF4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5E55A-041B-4413-93D9-6E9EB18B9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="-19220" windowWidth="20440" windowHeight="14400" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -677,6 +677,15 @@
   </si>
   <si>
     <t>DGE LN</t>
+  </si>
+  <si>
+    <t>Capri</t>
+  </si>
+  <si>
+    <t>CPRI</t>
+  </si>
+  <si>
+    <t>NPV</t>
   </si>
 </sst>
 </file>
@@ -1123,14 +1132,14 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1342,7 +1351,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1452,7 +1461,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1496,7 +1505,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1507,7 +1516,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1569,22 +1578,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1597,8 +1606,26 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1609,7 +1636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1620,7 +1647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1631,7 +1658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1642,7 +1669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1653,7 +1680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1664,7 +1691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1675,7 +1702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1713,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1697,7 +1724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1708,7 +1735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1719,7 +1746,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1730,7 +1757,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1739,6 +1766,17 @@
       </c>
       <c r="C15" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="5">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1757,15 +1795,15 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="3"/>
-    <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1832,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1805,7 +1843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1816,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1827,7 +1865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1838,7 +1876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1849,7 +1887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1860,7 +1898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1871,7 +1909,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1882,7 +1920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1893,7 +1931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1904,7 +1942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1915,7 +1953,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1926,7 +1964,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1937,7 +1975,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1948,7 +1986,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1959,7 +1997,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1970,7 +2008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1981,7 +2019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1992,7 +2030,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2003,7 +2041,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2014,7 +2052,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2025,7 +2063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2036,7 +2074,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2047,7 +2085,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2058,7 +2096,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2069,7 +2107,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2080,7 +2118,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>192</v>
       </c>
@@ -2113,7 +2151,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>185</v>
       </c>
@@ -2159,20 +2197,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +2224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2197,7 +2235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2208,7 +2246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2219,7 +2257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2230,7 +2268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2257,18 +2295,18 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2293,7 +2331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2304,7 +2342,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2315,7 +2353,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2342,13 +2380,13 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2373,7 +2411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2384,7 +2422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2395,7 +2433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2406,7 +2444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2417,7 +2455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2439,7 +2477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2450,7 +2488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2461,7 +2499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2472,7 +2510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2483,7 +2521,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2494,7 +2532,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2505,7 +2543,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5E55A-041B-4413-93D9-6E9EB18B9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F66ECCC-D5C4-45D3-9214-F7D325496220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-38265" yWindow="795" windowWidth="26715" windowHeight="17085" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -739,6 +739,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -805,17 +811,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>304.57807000000003</v>
+            <v>426.509592</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>1082</v>
+            <v>4193.1000000000004</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>25.700000000000003</v>
+            <v>23.4</v>
           </cell>
         </row>
       </sheetData>
@@ -1125,11 +1131,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1580,11 +1586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1788,11 +1794,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2163,19 +2169,19 @@
       </c>
       <c r="E30" s="2">
         <f>+D30*H30</f>
-        <v>5055.9959620000009</v>
+        <v>7080.0592272000004</v>
       </c>
       <c r="F30" s="2">
         <f>+[2]Main!$M$5-[2]Main!$M$6</f>
-        <v>1056.3</v>
+        <v>4169.7000000000007</v>
       </c>
       <c r="G30" s="2">
         <f>+E30-F30</f>
-        <v>3999.6959620000007</v>
+        <v>2910.3592271999996</v>
       </c>
       <c r="H30" s="2">
         <f>+[2]Main!$M$3</f>
-        <v>304.57807000000003</v>
+        <v>426.509592</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>193</v>
@@ -2292,7 +2298,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2377,13 +2383,15 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2393,10 +2401,10 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2410,6 +2418,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" s="6">
+        <v>172.31</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2432,6 +2443,9 @@
       <c r="C5" t="s">
         <v>54</v>
       </c>
+      <c r="D5" s="6">
+        <v>119.72</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2465,6 +2479,9 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
+      <c r="D8" s="7">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2476,6 +2493,9 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
+      <c r="D9" s="6">
+        <v>50.14</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2487,6 +2507,9 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
+      <c r="D10" s="6">
+        <v>102.37</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2541,6 +2564,9 @@
       </c>
       <c r="C15" t="s">
         <v>195</v>
+      </c>
+      <c r="D15" s="6">
+        <v>102.04</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F66ECCC-D5C4-45D3-9214-F7D325496220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD410B0E-EE72-4718-AF12-53E74B76073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38265" yWindow="795" windowWidth="26715" windowHeight="17085" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-51510" yWindow="2685" windowWidth="23520" windowHeight="17955" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="216">
   <si>
     <t>Name</t>
   </si>
@@ -686,6 +689,12 @@
   </si>
   <si>
     <t>NPV</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
   </si>
 </sst>
 </file>
@@ -731,7 +740,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,6 +751,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -768,6 +779,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -776,7 +790,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="N3">
-            <v>1048.536826</v>
+            <v>153</v>
           </cell>
         </row>
         <row r="5">
@@ -827,6 +841,108 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>991.61418600000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>4264</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>42831</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>10406.627415000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>85074</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>57634</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2449.375</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="O5">
+            <v>1029873</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6">
+            <v>207937</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1781,7 +1897,7 @@
       <c r="C16" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>40</v>
       </c>
     </row>
@@ -1794,19 +1910,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="5"/>
+    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="5"/>
+    <col min="7" max="7" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1816,25 +1937,25 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1842,12 +1963,34 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="6">
+        <v>167.9</v>
+      </c>
+      <c r="E3" s="7">
+        <f>+D3*H3</f>
+        <v>1747272.7429785002</v>
+      </c>
+      <c r="F3" s="7">
+        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <v>27440</v>
+      </c>
+      <c r="G3" s="7">
+        <f>+E3-F3</f>
+        <v>1719832.7429785002</v>
+      </c>
+      <c r="H3" s="7">
+        <f>+[4]Main!$K$3</f>
+        <v>10406.627415000001</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1859,28 +2002,81 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="6">
+        <v>81.56</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" s="6">
+        <v>397.5</v>
+      </c>
+      <c r="E5" s="7">
+        <f>+D5*H5</f>
+        <v>394166.638935</v>
+      </c>
+      <c r="F5" s="7">
+        <f>+[3]Main!$L$5-[3]Main!$L$6</f>
+        <v>-38567</v>
+      </c>
+      <c r="G5" s="7">
+        <f>+E5-F5</f>
+        <v>432733.638935</v>
+      </c>
+      <c r="H5" s="7">
+        <f>+[3]Main!$L$3</f>
+        <v>991.61418600000002</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45560</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
       </c>
+      <c r="D6" s="6">
+        <v>95.63</v>
+      </c>
+      <c r="E6" s="7">
+        <f>+D6*H6</f>
+        <v>234233.73124999998</v>
+      </c>
+      <c r="F6" s="7">
+        <f>([5]Main!$O$5-[5]Main!$O$6)/7</f>
+        <v>117419.42857142857</v>
+      </c>
+      <c r="G6" s="7">
+        <f>+E6-F6</f>
+        <v>116814.30267857142</v>
+      </c>
+      <c r="H6" s="7">
+        <f>+[5]Main!$L$3</f>
+        <v>2449.375</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45559</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1891,6 +2087,9 @@
       </c>
       <c r="C7" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" s="6">
+        <v>907.81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2131,29 +2330,29 @@
       <c r="C29" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="5">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="6">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E29" s="7">
         <f>+D29*H29</f>
-        <v>8388.2946080000002</v>
-      </c>
-      <c r="F29" s="2">
+        <v>671.67</v>
+      </c>
+      <c r="F29" s="7">
         <f>+[1]Main!$N$5-[1]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="7">
         <f>+E29-F29</f>
-        <v>13007.794608</v>
-      </c>
-      <c r="H29" s="2">
+        <v>5291.17</v>
+      </c>
+      <c r="H29" s="7">
         <f>+[1]Main!$N$3</f>
-        <v>1048.536826</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>44887</v>
       </c>
     </row>
@@ -2164,29 +2363,29 @@
       <c r="C30" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="7">
         <f>+D30*H30</f>
         <v>7080.0592272000004</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="7">
         <f>+[2]Main!$M$5-[2]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="7">
         <f>+E30-F30</f>
         <v>2910.3592271999996</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="7">
         <f>+[2]Main!$M$3</f>
         <v>426.509592</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>45004</v>
       </c>
     </row>
@@ -2194,6 +2393,9 @@
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
     <hyperlink ref="B29" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{70796680-7A60-48C5-8294-D4A38C34154F}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{4FBC40F9-AC62-4AE5-B25A-9685F7345B9F}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{C30A6629-83A9-4919-885A-7B35F39EA1FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2391,7 +2593,7 @@
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="6"/>
+    <col min="4" max="5" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2401,10 +2603,10 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2418,7 +2620,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>172.31</v>
       </c>
     </row>
@@ -2443,7 +2645,7 @@
       <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>119.72</v>
       </c>
     </row>
@@ -2479,7 +2681,7 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>85.5</v>
       </c>
     </row>
@@ -2493,7 +2695,7 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>50.14</v>
       </c>
     </row>
@@ -2507,7 +2709,7 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>102.37</v>
       </c>
     </row>
@@ -2565,7 +2767,7 @@
       <c r="C15" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>102.04</v>
       </c>
     </row>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD410B0E-EE72-4718-AF12-53E74B76073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432F94A4-2491-45F7-915D-6BB11AB0058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51510" yWindow="2685" windowWidth="23520" windowHeight="17955" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-38595" yWindow="2235" windowWidth="29955" windowHeight="17820" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="218">
   <si>
     <t>Name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -695,6 +692,15 @@
   </si>
   <si>
     <t>Q124</t>
+  </si>
+  <si>
+    <t>Oatly</t>
+  </si>
+  <si>
+    <t>OTLY</t>
+  </si>
+  <si>
+    <t>S/O</t>
   </si>
 </sst>
 </file>
@@ -789,6 +795,114 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="K3">
+            <v>10406.627415000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>85074</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>57634</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="BO33">
+            <v>0.51665847665847664</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>991.61418600000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>4264</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>42831</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2449.375</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="O5">
+            <v>1029873</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6">
+            <v>207937</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="N3">
             <v>153</v>
           </cell>
@@ -810,7 +924,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -841,108 +955,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>991.61418600000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>4264</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>42831</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>10406.627415000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>85074</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>57634</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>2449.375</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="O5">
-            <v>1029873</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="O6">
-            <v>207937</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1245,13 +1257,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:E40"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1273,7 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1272,12 +1284,27 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1286,412 +1313,426 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
       <c r="C9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
         <v>104</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
         <v>106</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
         <v>114</v>
-      </c>
-      <c r="C22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
         <v>122</v>
-      </c>
-      <c r="C24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
         <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
         <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
         <v>128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
         <v>132</v>
-      </c>
-      <c r="C28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
         <v>140</v>
-      </c>
-      <c r="C29" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
         <v>155</v>
-      </c>
-      <c r="C30" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
         <v>159</v>
-      </c>
-      <c r="C31" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
         <v>161</v>
       </c>
-      <c r="C32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
         <v>169</v>
       </c>
-      <c r="C33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
         <v>175</v>
       </c>
-      <c r="C34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s">
         <v>179</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>181</v>
       </c>
-      <c r="C36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" t="s">
         <v>196</v>
       </c>
-      <c r="C37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s">
         <v>202</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>204</v>
       </c>
-      <c r="C39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
         <v>208</v>
       </c>
-      <c r="C40" t="s">
-        <v>209</v>
-      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1726,176 +1767,176 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" t="s">
         <v>187</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>188</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>189</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>190</v>
       </c>
-      <c r="J2" t="s">
-        <v>191</v>
-      </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
         <v>153</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" t="s">
         <v>206</v>
-      </c>
-      <c r="C15" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
         <v>211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>212</v>
       </c>
       <c r="D16" s="4">
         <v>40</v>
@@ -1910,11 +1951,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1941,33 +1982,33 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6">
         <v>167.9</v>
@@ -1977,7 +2018,7 @@
         <v>1747272.7429785002</v>
       </c>
       <c r="F3" s="7">
-        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
         <v>27440</v>
       </c>
       <c r="G3" s="7">
@@ -1985,22 +2026,22 @@
         <v>1719832.7429785002</v>
       </c>
       <c r="H3" s="7">
-        <f>+[4]Main!$K$3</f>
+        <f>+[1]Main!$K$3</f>
         <v>10406.627415000001</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="6">
         <v>81.56</v>
@@ -2008,13 +2049,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="6">
         <v>397.5</v>
@@ -2024,7 +2065,7 @@
         <v>394166.638935</v>
       </c>
       <c r="F5" s="7">
-        <f>+[3]Main!$L$5-[3]Main!$L$6</f>
+        <f>+[2]Main!$L$5-[2]Main!$L$6</f>
         <v>-38567</v>
       </c>
       <c r="G5" s="7">
@@ -2032,11 +2073,11 @@
         <v>432733.638935</v>
       </c>
       <c r="H5" s="7">
-        <f>+[3]Main!$L$3</f>
+        <f>+[2]Main!$L$3</f>
         <v>991.61418600000002</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J5" s="3">
         <v>45560</v>
@@ -2044,13 +2085,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
       </c>
       <c r="D6" s="6">
         <v>95.63</v>
@@ -2060,7 +2101,7 @@
         <v>234233.73124999998</v>
       </c>
       <c r="F6" s="7">
-        <f>([5]Main!$O$5-[5]Main!$O$6)/7</f>
+        <f>([3]Main!$O$5-[3]Main!$O$6)/7</f>
         <v>117419.42857142857</v>
       </c>
       <c r="G6" s="7">
@@ -2068,11 +2109,11 @@
         <v>116814.30267857142</v>
       </c>
       <c r="H6" s="7">
-        <f>+[5]Main!$L$3</f>
+        <f>+[3]Main!$L$3</f>
         <v>2449.375</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" s="3">
         <v>45559</v>
@@ -2080,13 +2121,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="6">
         <v>907.81</v>
@@ -2094,241 +2135,241 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
         <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
         <v>112</v>
-      </c>
-      <c r="C16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
         <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
         <v>130</v>
-      </c>
-      <c r="C19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
         <v>134</v>
-      </c>
-      <c r="C20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
         <v>136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
         <v>147</v>
-      </c>
-      <c r="C22" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
         <v>151</v>
-      </c>
-      <c r="C23" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
         <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
         <v>163</v>
-      </c>
-      <c r="C25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
         <v>165</v>
-      </c>
-      <c r="C26" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
         <v>198</v>
-      </c>
-      <c r="C27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
         <v>200</v>
-      </c>
-      <c r="C28" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="6">
         <v>4.3899999999999997</v>
@@ -2338,7 +2379,7 @@
         <v>671.67</v>
       </c>
       <c r="F29" s="7">
-        <f>+[1]Main!$N$5-[1]Main!$N$6</f>
+        <f>+[4]Main!$N$5-[4]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G29" s="7">
@@ -2346,11 +2387,11 @@
         <v>5291.17</v>
       </c>
       <c r="H29" s="7">
-        <f>+[1]Main!$N$3</f>
+        <f>+[4]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J29" s="3">
         <v>44887</v>
@@ -2358,10 +2399,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s">
         <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>186</v>
       </c>
       <c r="D30" s="6">
         <v>16.600000000000001</v>
@@ -2371,7 +2412,7 @@
         <v>7080.0592272000004</v>
       </c>
       <c r="F30" s="7">
-        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
+        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
       <c r="G30" s="7">
@@ -2379,11 +2420,11 @@
         <v>2910.3592271999996</v>
       </c>
       <c r="H30" s="7">
-        <f>+[2]Main!$M$3</f>
+        <f>+[5]Main!$M$3</f>
         <v>426.509592</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J30" s="3">
         <v>45004</v>
@@ -2429,62 +2470,62 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
         <v>142</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
         <v>183</v>
-      </c>
-      <c r="C7" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2552,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2525,51 +2566,51 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2607,18 +2648,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="5">
         <v>172.31</v>
@@ -2626,24 +2667,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
       </c>
       <c r="D5" s="5">
         <v>119.72</v>
@@ -2651,35 +2692,35 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="6">
         <v>85.5</v>
@@ -2687,13 +2728,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>50.14</v>
@@ -2701,13 +2742,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="5">
         <v>102.37</v>
@@ -2715,57 +2756,57 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
         <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
         <v>138</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
         <v>194</v>
-      </c>
-      <c r="C15" t="s">
-        <v>195</v>
       </c>
       <c r="D15" s="5">
         <v>102.04</v>
@@ -2773,7 +2814,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432F94A4-2491-45F7-915D-6BB11AB0058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B5FAB-CE27-4260-923C-507206815F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38595" yWindow="2235" windowWidth="29955" windowHeight="17820" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-23910" yWindow="735" windowWidth="24480" windowHeight="19665" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -701,6 +702,12 @@
   </si>
   <si>
     <t>S/O</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>CELH</t>
   </si>
 </sst>
 </file>
@@ -743,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -760,6 +767,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -955,6 +965,40 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>233.34437700000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>903.21</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1257,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1271,6 +1315,9 @@
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1280,25 +1327,25 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1632,7 +1679,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1643,7 +1690,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1654,7 +1701,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1665,7 +1712,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1676,7 +1723,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1687,7 +1734,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1698,7 +1745,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1709,7 +1756,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1720,21 +1767,58 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="6">
+        <v>33</v>
+      </c>
+      <c r="E41" s="7">
+        <f>+D41*H41</f>
+        <v>7700.3644410000006</v>
+      </c>
+      <c r="F41" s="7">
+        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
+        <v>903.21</v>
+      </c>
+      <c r="G41" s="7">
+        <f>+E41-F41</f>
+        <v>6797.1544410000006</v>
+      </c>
+      <c r="H41" s="7">
+        <f>+[6]Main!$K$3</f>
+        <v>233.34437700000001</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="8">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D42" s="6">
         <v>0.85</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B42" r:id="rId1" xr:uid="{9FC43ADA-8F9A-4466-B4D9-4A3810ADE6EF}"/>
+    <hyperlink ref="B41" r:id="rId2" xr:uid="{290D9583-44B1-409A-BB10-37786A14D5D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B5FAB-CE27-4260-923C-507206815F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55362967-E591-4160-B639-373EBFB7FD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23910" yWindow="735" windowWidth="24480" windowHeight="19665" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-36420" yWindow="2190" windowWidth="32550" windowHeight="17250" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="228">
   <si>
     <t>Name</t>
   </si>
@@ -708,13 +709,40 @@
   </si>
   <si>
     <t>CELH</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>e.l.f. Beauty</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -725,6 +753,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -750,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -770,6 +804,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -806,6 +851,40 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
+            <v>233.34437700000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>903.21</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
             <v>10406.627415000001</v>
           </cell>
         </row>
@@ -820,19 +899,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="BO33">
-            <v>0.51665847665847664</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -866,7 +939,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -900,7 +973,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -934,7 +1007,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -970,7 +1043,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -984,21 +1057,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>233.34437700000001</v>
+            <v>58.551000000000002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>903.21</v>
+            <v>109.03400000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>0</v>
+            <v>262.17200000000003</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1303,11 +1376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1782,7 +1855,7 @@
         <v>7700.3644410000006</v>
       </c>
       <c r="F41" s="7">
-        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
+        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
         <v>903.21</v>
       </c>
       <c r="G41" s="7">
@@ -1790,7 +1863,7 @@
         <v>6797.1544410000006</v>
       </c>
       <c r="H41" s="7">
-        <f>+[6]Main!$K$3</f>
+        <f>+[1]Main!$K$3</f>
         <v>233.34437700000001</v>
       </c>
       <c r="I41" s="8" t="s">
@@ -1831,7 +1904,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2036,10 +2109,10 @@
   <dimension ref="A2:J30"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2175,7 @@
         <v>1747272.7429785002</v>
       </c>
       <c r="F3" s="7">
-        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>27440</v>
       </c>
       <c r="G3" s="7">
@@ -2110,7 +2183,7 @@
         <v>1719832.7429785002</v>
       </c>
       <c r="H3" s="7">
-        <f>+[1]Main!$K$3</f>
+        <f>+[2]Main!$K$3</f>
         <v>10406.627415000001</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2149,7 +2222,7 @@
         <v>394166.638935</v>
       </c>
       <c r="F5" s="7">
-        <f>+[2]Main!$L$5-[2]Main!$L$6</f>
+        <f>+[3]Main!$L$5-[3]Main!$L$6</f>
         <v>-38567</v>
       </c>
       <c r="G5" s="7">
@@ -2157,7 +2230,7 @@
         <v>432733.638935</v>
       </c>
       <c r="H5" s="7">
-        <f>+[2]Main!$L$3</f>
+        <f>+[3]Main!$L$3</f>
         <v>991.61418600000002</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2185,7 +2258,7 @@
         <v>234233.73124999998</v>
       </c>
       <c r="F6" s="7">
-        <f>([3]Main!$O$5-[3]Main!$O$6)/7</f>
+        <f>([4]Main!$O$5-[4]Main!$O$6)/7</f>
         <v>117419.42857142857</v>
       </c>
       <c r="G6" s="7">
@@ -2193,7 +2266,7 @@
         <v>116814.30267857142</v>
       </c>
       <c r="H6" s="7">
-        <f>+[3]Main!$L$3</f>
+        <f>+[4]Main!$L$3</f>
         <v>2449.375</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2456,29 +2529,29 @@
         <v>191</v>
       </c>
       <c r="D29" s="6">
-        <v>4.3899999999999997</v>
+        <v>4.18</v>
       </c>
       <c r="E29" s="7">
         <f>+D29*H29</f>
-        <v>671.67</v>
+        <v>639.54</v>
       </c>
       <c r="F29" s="7">
-        <f>+[4]Main!$N$5-[4]Main!$N$6</f>
+        <f>+[5]Main!$N$5-[5]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G29" s="7">
         <f>+E29-F29</f>
-        <v>5291.17</v>
+        <v>5259.04</v>
       </c>
       <c r="H29" s="7">
-        <f>+[4]Main!$N$3</f>
+        <f>+[5]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J29" s="3">
-        <v>44887</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2496,7 +2569,7 @@
         <v>7080.0592272000004</v>
       </c>
       <c r="F30" s="7">
-        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
+        <f>+[6]Main!$M$5-[6]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
       <c r="G30" s="7">
@@ -2504,7 +2577,7 @@
         <v>2910.3592271999996</v>
       </c>
       <c r="H30" s="7">
-        <f>+[5]Main!$M$3</f>
+        <f>+[6]Main!$M$3</f>
         <v>426.509592</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -2704,13 +2777,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:AC16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2719,23 +2792,96 @@
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.85546875" style="5"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>2023</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2024</v>
+      </c>
+      <c r="S2" s="11">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="11">
+        <v>2026</v>
+      </c>
+      <c r="U2" s="11">
+        <v>2027</v>
+      </c>
+      <c r="V2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="W2" s="11">
+        <v>2023</v>
+      </c>
+      <c r="X2" s="11">
+        <v>2024</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>2025</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>2026</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>2027</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2749,18 +2895,21 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="13">
+        <v>393.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +2923,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2785,7 +2934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2796,7 +2945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2810,7 +2959,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2824,7 +2973,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2838,7 +2987,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2849,7 +2998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2860,7 +3009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2871,7 +3020,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2882,7 +3031,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2896,12 +3045,47 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="5">
+        <v>109.43</v>
+      </c>
+      <c r="E16" s="7">
+        <f>+D16*I16</f>
+        <v>6407.2359300000007</v>
+      </c>
+      <c r="F16" s="12">
+        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
+        <v>-153.13800000000003</v>
+      </c>
+      <c r="G16" s="12">
+        <f>+E16-F16</f>
+        <v>6560.3739300000007</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="7">
+        <f>+[7]Main!$K$3</f>
+        <v>58.551000000000002</v>
+      </c>
+      <c r="J16" s="8">
+        <v>45576</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{489ED1A3-D908-4C0E-AB16-E996DF3BF813}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55362967-E591-4160-B639-373EBFB7FD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E30170-2048-4A03-A0FD-C3AD49AF4CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36420" yWindow="2190" windowWidth="32550" windowHeight="17250" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-25980" yWindow="735" windowWidth="22905" windowHeight="19395" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,10 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -733,6 +737,24 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Cava Group</t>
+  </si>
+  <si>
+    <t>CAVA</t>
+  </si>
+  <si>
+    <t>Ulta Beauty</t>
+  </si>
+  <si>
+    <t>ULTA</t>
+  </si>
+  <si>
+    <t>Dutch Bros.</t>
+  </si>
+  <si>
+    <t>BROS</t>
   </si>
 </sst>
 </file>
@@ -784,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -817,6 +839,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -862,6 +885,74 @@
         <row r="6">
           <cell r="K6">
             <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>58.551000000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>109.03400000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>262.17200000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>118.961421</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>260.92200000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>228.96600000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1057,21 +1148,89 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>58.551000000000002</v>
+            <v>114.320581</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>109.03400000000001</v>
+            <v>343.74799999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>262.17200000000003</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>537.02103899999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>15946.7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>7298</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>47.114727000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>414</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2106,13 +2265,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:J30"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2587,6 +2746,39 @@
         <v>45004</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="6">
+        <v>34</v>
+      </c>
+      <c r="E32" s="7">
+        <f>+D32*H32</f>
+        <v>4044.688314</v>
+      </c>
+      <c r="F32" s="7">
+        <f>+[11]Main!$J$5-[11]Main!$J$6</f>
+        <v>31.956000000000017</v>
+      </c>
+      <c r="G32" s="7">
+        <f>+E32-F32</f>
+        <v>4012.7323139999999</v>
+      </c>
+      <c r="H32" s="7">
+        <f>+[11]Main!$J$3</f>
+        <v>118.961421</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="3">
+        <v>45579</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
@@ -2594,6 +2786,7 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{70796680-7A60-48C5-8294-D4A38C34154F}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{4FBC40F9-AC62-4AE5-B25A-9685F7345B9F}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{C30A6629-83A9-4919-885A-7B35F39EA1FA}"/>
+    <hyperlink ref="B32" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2601,7 +2794,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:AC8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -2613,24 +2806,99 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" style="5"/>
+    <col min="10" max="10" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>2023</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2024</v>
+      </c>
+      <c r="S2" s="11">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="11">
+        <v>2026</v>
+      </c>
+      <c r="U2" s="11">
+        <v>2027</v>
+      </c>
+      <c r="V2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="W2" s="11">
+        <v>2023</v>
+      </c>
+      <c r="X2" s="11">
+        <v>2024</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>2025</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>2026</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>2027</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2641,7 +2909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2652,7 +2920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2663,7 +2931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2674,7 +2942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2685,7 +2953,43 @@
         <v>183</v>
       </c>
     </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="5">
+        <v>133.47</v>
+      </c>
+      <c r="E8" s="7">
+        <f>+D8*I8</f>
+        <v>15258.36794607</v>
+      </c>
+      <c r="F8" s="7">
+        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
+        <v>343.74799999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <f>+E8-F8</f>
+        <v>14914.619946070001</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="7">
+        <f>+[7]Main!$K$3</f>
+        <v>114.320581</v>
+      </c>
+      <c r="J8" s="8">
+        <v>45578</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{709F67B1-5ADF-4777-9C20-22D9DE4FA40A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2777,13 +3081,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="A2:AC16"/>
+  <dimension ref="A2:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2908,6 +3212,28 @@
       <c r="D4" s="13">
         <v>393.9</v>
       </c>
+      <c r="E4" s="7">
+        <f>+D4*I4*1.1</f>
+        <v>232685.84598831</v>
+      </c>
+      <c r="F4" s="12">
+        <f>[8]Main!$K$5-[8]Main!$K$6</f>
+        <v>8648.7000000000007</v>
+      </c>
+      <c r="G4" s="12">
+        <f>+E4-F4</f>
+        <v>224037.14598830999</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="12">
+        <f>+[8]Main!$K$3</f>
+        <v>537.02103899999997</v>
+      </c>
+      <c r="J4" s="14">
+        <v>45578</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2924,14 +3250,36 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+      <c r="B6" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>231</v>
+      </c>
+      <c r="D6" s="6">
+        <v>369</v>
+      </c>
+      <c r="E6" s="7">
+        <f>+D6*I6</f>
+        <v>17385.334263000001</v>
+      </c>
+      <c r="F6" s="12">
+        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
+        <v>414</v>
+      </c>
+      <c r="G6" s="12">
+        <f>+E6-F6</f>
+        <v>16971.334263000001</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="12">
+        <f>+[9]Main!$L$3</f>
+        <v>47.114727000000002</v>
+      </c>
+      <c r="J6" s="8">
+        <v>45579</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2939,10 +3287,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -2950,13 +3298,10 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6">
-        <v>85.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2964,13 +3309,13 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5">
-        <v>50.14</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="6">
+        <v>85.5</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2978,13 +3323,13 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5">
-        <v>102.37</v>
+        <v>50.14</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -2992,10 +3337,13 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="5">
+        <v>102.37</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -3003,10 +3351,10 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -3014,10 +3362,10 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -3025,10 +3373,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -3036,55 +3384,67 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="5">
-        <v>102.04</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="5">
+        <v>102.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>109.43</v>
       </c>
-      <c r="E16" s="7">
-        <f>+D16*I16</f>
+      <c r="E17" s="7">
+        <f>+D17*I17</f>
         <v>6407.2359300000007</v>
       </c>
-      <c r="F16" s="12">
-        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
+      <c r="F17" s="12">
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
-      <c r="G16" s="12">
-        <f>+E16-F16</f>
+      <c r="G17" s="12">
+        <f>+E17-F17</f>
         <v>6560.3739300000007</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="7">
-        <f>+[7]Main!$K$3</f>
+      <c r="I17" s="7">
+        <f>+[10]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="8">
         <v>45576</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{489ED1A3-D908-4C0E-AB16-E996DF3BF813}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{1C284ED8-057E-42EA-A5BB-FD8D43F13B80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E30170-2048-4A03-A0FD-C3AD49AF4CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7A450A-80F6-D248-848F-FC1EEFC80EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25980" yWindow="735" windowWidth="22905" windowHeight="19395" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-30200" yWindow="-18640" windowWidth="27980" windowHeight="15640" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -806,13 +806,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -907,22 +904,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>58.551000000000002</v>
+          <cell r="L3">
+            <v>47.114727000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>109.03400000000001</v>
+          <cell r="L5">
+            <v>414</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>262.17200000000003</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -941,18 +938,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
+          <cell r="K3">
+            <v>58.551000000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
+          <cell r="K5">
+            <v>109.03400000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
+          <cell r="K6">
+            <v>262.17200000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -1147,6 +1144,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="J3">
+            <v>118.961421</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>260.92200000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>228.96600000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="K3">
             <v>114.320581</v>
           </cell>
@@ -1168,7 +1199,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1193,40 +1224,6 @@
         <row r="6">
           <cell r="K6">
             <v>7298</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>47.114727000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>414</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1542,46 +1539,46 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="5"/>
-    <col min="9" max="9" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" style="4"/>
+    <col min="9" max="9" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1603,7 +1600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1614,7 +1611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1625,7 +1622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1636,7 +1633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1647,7 +1644,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1669,7 +1666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1680,7 +1677,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1702,7 +1699,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1713,7 +1710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1768,7 +1765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1823,7 +1820,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1845,7 +1842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1856,7 +1853,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1900,7 +1897,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1911,7 +1908,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1922,7 +1919,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1933,7 +1930,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1944,7 +1941,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1966,7 +1963,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1977,7 +1974,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1988,7 +1985,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1999,52 +1996,52 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C41" t="s">
         <v>219</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>33</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <f>+D41*H41</f>
         <v>7700.3644410000006</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
         <v>903.21</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <f>+E41-F41</f>
         <v>6797.1544410000006</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <f>+[1]Main!$K$3</f>
         <v>233.34437700000001</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="7">
         <v>45575</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C42" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>0.85</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2066,13 +2063,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2101,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2115,7 +2112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2126,7 +2123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2137,7 +2134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2148,7 +2145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2159,7 +2156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2192,7 +2189,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2203,7 +2200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2236,7 +2233,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2247,14 +2244,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2268,55 +2265,55 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="5"/>
-    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="5"/>
-    <col min="7" max="7" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="5"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="4"/>
+    <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="4"/>
+    <col min="9" max="9" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>188</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2326,22 +2323,22 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>167.9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>+D3*H3</f>
         <v>1747272.7429785002</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>27440</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>+E3-F3</f>
         <v>1719832.7429785002</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>+[2]Main!$K$3</f>
         <v>10406.627415000001</v>
       </c>
@@ -2349,7 +2346,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2359,97 +2356,103 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>81.56</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="6">
+        <v>656100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
+        <v>895</v>
+      </c>
+      <c r="E5" s="6">
+        <v>397000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="5">
         <v>397.5</v>
       </c>
-      <c r="E5" s="7">
-        <f>+D5*H5</f>
+      <c r="E6" s="6">
+        <f>+D6*H6</f>
         <v>394166.638935</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="6">
         <f>+[3]Main!$L$5-[3]Main!$L$6</f>
         <v>-38567</v>
       </c>
-      <c r="G5" s="7">
-        <f>+E5-F5</f>
+      <c r="G6" s="6">
+        <f>+E6-F6</f>
         <v>432733.638935</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H6" s="6">
         <f>+[3]Main!$L$3</f>
         <v>991.61418600000002</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="7">
         <v>45560</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="5">
         <v>95.63</v>
       </c>
-      <c r="E6" s="7">
-        <f>+D6*H6</f>
+      <c r="E7" s="6">
+        <f>+D7*H7</f>
         <v>234233.73124999998</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="6">
         <f>([4]Main!$O$5-[4]Main!$O$6)/7</f>
         <v>117419.42857142857</v>
       </c>
-      <c r="G6" s="7">
-        <f>+E6-F6</f>
+      <c r="G7" s="6">
+        <f>+E7-F7</f>
         <v>116814.30267857142</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="6">
         <f>+[4]Main!$L$3</f>
         <v>2449.375</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="7">
         <v>45559</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6">
-        <v>907.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2459,334 +2462,398 @@
       <c r="C8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="4">
+        <v>286.43</v>
+      </c>
+      <c r="E8" s="6">
+        <v>163900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4">
+        <v>117.15</v>
+      </c>
+      <c r="E9" s="6">
+        <v>132400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>160.62</v>
+      </c>
+      <c r="E10" s="6">
+        <v>74300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="4">
+        <v>40.78</v>
+      </c>
+      <c r="E11" s="6">
+        <v>64300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="D12" s="4">
+        <v>81.36</v>
+      </c>
+      <c r="E12" s="6">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
+        <v>231</v>
+      </c>
+      <c r="D13" s="5">
+        <v>378.9</v>
+      </c>
+      <c r="E13" s="6">
+        <f>+D13*H13</f>
+        <v>17851.770060300001</v>
+      </c>
+      <c r="F13" s="11">
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>414</v>
+      </c>
+      <c r="G13" s="11">
+        <f>+E13-F13</f>
+        <v>17437.770060300001</v>
+      </c>
+      <c r="H13" s="11">
+        <f>+[10]Main!$L$3</f>
+        <v>47.114727000000002</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="D14" s="5">
         <v>4.18</v>
       </c>
-      <c r="E29" s="7">
-        <f>+D29*H29</f>
+      <c r="E14" s="6">
+        <f>+D14*H14</f>
         <v>639.54</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F14" s="6">
         <f>+[5]Main!$N$5-[5]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
-      <c r="G29" s="7">
-        <f>+E29-F29</f>
+      <c r="G14" s="6">
+        <f>+E14-F14</f>
         <v>5259.04</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H14" s="6">
         <f>+[5]Main!$N$3</f>
         <v>153</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J14" s="7">
         <v>45576</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="5">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6">
+        <f>+D15*H15</f>
+        <v>4044.688314</v>
+      </c>
+      <c r="F15" s="6">
+        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
+        <v>31.956000000000017</v>
+      </c>
+      <c r="G15" s="6">
+        <f>+E15-F15</f>
+        <v>4012.7323139999999</v>
+      </c>
+      <c r="H15" s="6">
+        <f>+[7]Main!$J$3</f>
+        <v>118.961421</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C16" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D16" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="E30" s="7">
-        <f>+D30*H30</f>
+      <c r="E16" s="6">
+        <f>+D16*H16</f>
         <v>7080.0592272000004</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F16" s="6">
         <f>+[6]Main!$M$5-[6]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
-      <c r="G30" s="7">
-        <f>+E30-F30</f>
+      <c r="G16" s="6">
+        <f>+E16-F16</f>
         <v>2910.3592271999996</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H16" s="6">
         <f>+[6]Main!$M$3</f>
         <v>426.509592</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J16" s="7">
         <v>45004</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>232</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="6">
-        <v>34</v>
-      </c>
-      <c r="E32" s="7">
-        <f>+D32*H32</f>
-        <v>4044.688314</v>
-      </c>
-      <c r="F32" s="7">
-        <f>+[11]Main!$J$5-[11]Main!$J$6</f>
-        <v>31.956000000000017</v>
-      </c>
-      <c r="G32" s="7">
-        <f>+E32-F32</f>
-        <v>4012.7323139999999</v>
-      </c>
-      <c r="H32" s="7">
-        <f>+[11]Main!$J$3</f>
-        <v>118.961421</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="3">
-        <v>45579</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
-    <hyperlink ref="B29" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{70796680-7A60-48C5-8294-D4A38C34154F}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{4FBC40F9-AC62-4AE5-B25A-9685F7345B9F}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{C30A6629-83A9-4919-885A-7B35F39EA1FA}"/>
-    <hyperlink ref="B32" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{4FBC40F9-AC62-4AE5-B25A-9685F7345B9F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C30A6629-83A9-4919-885A-7B35F39EA1FA}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{1C284ED8-057E-42EA-A5BB-FD8D43F13B80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2803,102 +2870,102 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.85546875" style="5"/>
-    <col min="10" max="10" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.83203125" style="4"/>
+    <col min="10" max="10" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>2022</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>2023</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="10">
         <v>2024</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>2025</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="10">
         <v>2026</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="10">
         <v>2027</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="10">
         <v>2022</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="10">
         <v>2023</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="10">
         <v>2024</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="10">
         <v>2025</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="10">
         <v>2026</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="10">
         <v>2027</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2909,7 +2976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2920,7 +2987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2931,7 +2998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2942,7 +3009,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2953,36 +3020,36 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>133.47</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f>+D8*I8</f>
         <v>15258.36794607</v>
       </c>
-      <c r="F8" s="7">
-        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
+      <c r="F8" s="6">
+        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>+E8-F8</f>
         <v>14914.619946070001</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="7">
-        <f>+[7]Main!$K$3</f>
+      <c r="I8" s="6">
+        <f>+[8]Main!$K$3</f>
         <v>114.320581</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>45578</v>
       </c>
     </row>
@@ -3005,18 +3072,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +3097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3041,7 +3108,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3052,7 +3119,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3063,7 +3130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3087,105 +3154,105 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="5"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="4"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>2022</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>2023</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="10">
         <v>2024</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>2025</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="10">
         <v>2026</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="10">
         <v>2027</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="10">
         <v>2022</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="10">
         <v>2023</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="10">
         <v>2024</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="10">
         <v>2025</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="10">
         <v>2026</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="10">
         <v>2027</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3195,11 +3262,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3209,33 +3276,33 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>393.9</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>+D4*I4*1.1</f>
         <v>232685.84598831</v>
       </c>
-      <c r="F4" s="12">
-        <f>[8]Main!$K$5-[8]Main!$K$6</f>
+      <c r="F4" s="11">
+        <f>[9]Main!$K$5-[9]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>+E4-F4</f>
         <v>224037.14598830999</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I4" s="12">
-        <f>+[8]Main!$K$3</f>
+      <c r="I4" s="11">
+        <f>+[9]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3245,44 +3312,11 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>119.72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="6">
-        <v>369</v>
-      </c>
-      <c r="E6" s="7">
-        <f>+D6*I6</f>
-        <v>17385.334263000001</v>
-      </c>
-      <c r="F6" s="12">
-        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
-        <v>414</v>
-      </c>
-      <c r="G6" s="12">
-        <f>+E6-F6</f>
-        <v>16971.334263000001</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="12">
-        <f>+[9]Main!$L$3</f>
-        <v>47.114727000000002</v>
-      </c>
-      <c r="J6" s="8">
-        <v>45579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3293,7 +3327,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -3304,7 +3338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3314,11 +3348,11 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3328,11 +3362,11 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3342,11 +3376,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3357,7 +3391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3368,7 +3402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3379,7 +3413,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3390,7 +3424,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3400,11 +3434,11 @@
       <c r="C16" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>102.04</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3414,29 +3448,29 @@
       <c r="C17" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>109.43</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f>+D17*I17</f>
         <v>6407.2359300000007</v>
       </c>
-      <c r="F17" s="12">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+      <c r="F17" s="11">
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f>+E17-F17</f>
         <v>6560.3739300000007</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I17" s="7">
-        <f>+[10]Main!$K$3</f>
+      <c r="I17" s="6">
+        <f>+[11]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>45576</v>
       </c>
     </row>
@@ -3444,7 +3478,6 @@
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{489ED1A3-D908-4C0E-AB16-E996DF3BF813}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{1C284ED8-057E-42EA-A5BB-FD8D43F13B80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7A450A-80F6-D248-848F-FC1EEFC80EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B04AB62-C3C9-4F43-B118-09F2FB03D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30200" yWindow="-18640" windowWidth="27980" windowHeight="15640" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="10910" yWindow="4020" windowWidth="26500" windowHeight="15380" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -904,22 +904,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>47.114727000000002</v>
+          <cell r="K3">
+            <v>537.02103899999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>414</v>
+          <cell r="K5">
+            <v>15946.7</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="K6">
+            <v>7298</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -987,7 +987,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="BO33">
+            <v>0.51665847665847664</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1074,6 +1080,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="L3">
+            <v>47.114727000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>414</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="N3">
             <v>153</v>
           </cell>
@@ -1095,7 +1135,41 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>118.961421</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>260.92200000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>228.96600000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1131,41 +1205,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1190,40 +1230,6 @@
         <row r="6">
           <cell r="K6">
             <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>537.02103899999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>15946.7</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>7298</v>
           </cell>
         </row>
       </sheetData>
@@ -1539,17 +1545,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="4"/>
-    <col min="9" max="9" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1655,7 +1661,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>218</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
@@ -2063,13 +2069,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -2268,23 +2274,23 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="4"/>
-    <col min="5" max="5" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="4"/>
-    <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="4"/>
-    <col min="9" max="9" width="9.1640625" style="2"/>
-    <col min="10" max="10" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="4"/>
+    <col min="5" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="4"/>
+    <col min="7" max="7" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>230</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>17851.770060300001</v>
       </c>
       <c r="F13" s="11">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>+[5]Main!$L$5-[5]Main!$L$6</f>
         <v>414</v>
       </c>
       <c r="G13" s="11">
@@ -2560,7 +2566,7 @@
         <v>17437.770060300001</v>
       </c>
       <c r="H13" s="11">
-        <f>+[10]Main!$L$3</f>
+        <f>+[5]Main!$L$3</f>
         <v>47.114727000000002</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -2570,7 +2576,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>639.54</v>
       </c>
       <c r="F14" s="6">
-        <f>+[5]Main!$N$5-[5]Main!$N$6</f>
+        <f>+[6]Main!$N$5-[6]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G14" s="6">
@@ -2593,7 +2599,7 @@
         <v>5259.04</v>
       </c>
       <c r="H14" s="6">
-        <f>+[5]Main!$N$3</f>
+        <f>+[6]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2603,7 +2609,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>232</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>184</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>7080.0592272000004</v>
       </c>
       <c r="F16" s="6">
-        <f>+[6]Main!$M$5-[6]Main!$M$6</f>
+        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
       <c r="G16" s="6">
@@ -2659,7 +2665,7 @@
         <v>2910.3592271999996</v>
       </c>
       <c r="H16" s="6">
-        <f>+[6]Main!$M$3</f>
+        <f>+[8]Main!$M$3</f>
         <v>426.509592</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2669,7 +2675,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2870,16 +2876,16 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.83203125" style="4"/>
-    <col min="10" max="10" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>15258.36794607</v>
       </c>
       <c r="F8" s="6">
-        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
+        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3046,7 +3052,7 @@
         <v>213</v>
       </c>
       <c r="I8" s="6">
-        <f>+[8]Main!$K$3</f>
+        <f>+[9]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
@@ -3072,18 +3078,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3157,16 +3163,16 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="4"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>232685.84598831</v>
       </c>
       <c r="F4" s="11">
-        <f>[9]Main!$K$5-[9]Main!$K$6</f>
+        <f>[10]Main!$K$5-[10]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
       <c r="G4" s="11">
@@ -3295,14 +3301,14 @@
         <v>213</v>
       </c>
       <c r="I4" s="11">
-        <f>+[9]Main!$K$3</f>
+        <f>+[10]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
       <c r="J4" s="13">
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3402,7 +3408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3424,7 +3430,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B04AB62-C3C9-4F43-B118-09F2FB03D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6B064-4EA7-4245-9E7F-5CAD08C9CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10910" yWindow="4020" windowWidth="26500" windowHeight="15380" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-40890" yWindow="4365" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -973,17 +973,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10406.627415000001</v>
+            <v>10708</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>85074</v>
+            <v>89092</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>57634</v>
+            <v>54889</v>
           </cell>
         </row>
       </sheetData>
@@ -1095,7 +1095,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1163,7 +1163,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1545,17 +1545,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>218</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
@@ -2062,52 +2062,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2128,8 +2128,11 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>81.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -2270,27 +2273,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="4"/>
-    <col min="5" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="4"/>
-    <col min="7" max="7" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2334,25 +2337,25 @@
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>1747272.7429785002</v>
+        <v>1797873.2</v>
       </c>
       <c r="F3" s="6">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
-        <v>27440</v>
+        <v>34203</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>1719832.7429785002</v>
+        <v>1763670.2</v>
       </c>
       <c r="H3" s="6">
         <f>+[2]Main!$K$3</f>
-        <v>10406.627415000001</v>
+        <v>10708</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>230</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>232</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>184</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2876,16 +2879,16 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3078,18 +3081,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3163,16 +3166,16 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3272,7 +3275,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6B064-4EA7-4245-9E7F-5CAD08C9CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E818DEC-95D1-4AF8-BA15-B2691B3F6614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40890" yWindow="4365" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-46275" yWindow="510" windowWidth="24495" windowHeight="17175" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -905,6 +906,40 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
+            <v>114.320581</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>343.74799999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
             <v>537.02103899999997</v>
           </cell>
         </row>
@@ -925,7 +960,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -987,13 +1022,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="BO33">
-            <v>0.51665847665847664</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1218,18 +1247,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>114.320581</v>
+          <cell r="M3">
+            <v>717.34324700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>343.74799999999999</v>
+          <cell r="M5">
+            <v>3668</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>38524</v>
           </cell>
         </row>
       </sheetData>
@@ -2066,7 +2095,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2151,7 @@
       <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
@@ -2261,10 +2290,13 @@
         <v>211</v>
       </c>
       <c r="D16" s="3">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{33F17381-BAA7-4FF0-80BE-F4E8EBB9EC8D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2876,7 +2908,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2978,11 +3010,36 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
+      </c>
+      <c r="D3" s="5">
+        <v>294</v>
+      </c>
+      <c r="E3" s="6">
+        <f>+D3*I3</f>
+        <v>210898.91461800001</v>
+      </c>
+      <c r="F3" s="6">
+        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
+        <v>-34856</v>
+      </c>
+      <c r="G3" s="6">
+        <f>+E3-F3</f>
+        <v>245754.91461800001</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="6">
+        <f>+[9]Main!$M$3</f>
+        <v>717.34324700000002</v>
+      </c>
+      <c r="J3" s="7">
+        <v>45588</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -3044,7 +3101,7 @@
         <v>15258.36794607</v>
       </c>
       <c r="F8" s="6">
-        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3055,7 +3112,7 @@
         <v>213</v>
       </c>
       <c r="I8" s="6">
-        <f>+[9]Main!$K$3</f>
+        <f>+[10]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
@@ -3065,6 +3122,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{709F67B1-5ADF-4777-9C20-22D9DE4FA40A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9F85A96E-0777-4A43-AD47-4380F63681E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3293,7 +3351,7 @@
         <v>232685.84598831</v>
       </c>
       <c r="F4" s="11">
-        <f>[10]Main!$K$5-[10]Main!$K$6</f>
+        <f>[11]Main!$K$5-[11]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
       <c r="G4" s="11">
@@ -3304,7 +3362,7 @@
         <v>213</v>
       </c>
       <c r="I4" s="11">
-        <f>+[10]Main!$K$3</f>
+        <f>+[11]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
       <c r="J4" s="13">
@@ -3465,7 +3523,7 @@
         <v>6407.2359300000007</v>
       </c>
       <c r="F17" s="11">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
       <c r="G17" s="11">
@@ -3476,7 +3534,7 @@
         <v>213</v>
       </c>
       <c r="I17" s="6">
-        <f>+[11]Main!$K$3</f>
+        <f>+[12]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
       <c r="J17" s="7">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E818DEC-95D1-4AF8-BA15-B2691B3F6614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA0BF3-59F0-4C0F-BF4B-988A1D11A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46275" yWindow="510" windowWidth="24495" windowHeight="17175" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-26820" yWindow="780" windowWidth="26220" windowHeight="14910" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2091,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2904,11 +2904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:AC8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3094,11 +3094,11 @@
         <v>229</v>
       </c>
       <c r="D8" s="4">
-        <v>133.47</v>
+        <v>145.24</v>
       </c>
       <c r="E8" s="6">
         <f>+D8*I8</f>
-        <v>15258.36794607</v>
+        <v>16603.921184440002</v>
       </c>
       <c r="F8" s="6">
         <f>+[10]Main!$K$5-[10]Main!$K$6</f>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G8" s="6">
         <f>+E8-F8</f>
-        <v>14914.619946070001</v>
+        <v>16260.173184440002</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>213</v>
@@ -3116,7 +3116,7 @@
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
-        <v>45578</v>
+        <v>45608</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA0BF3-59F0-4C0F-BF4B-988A1D11A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60060BAB-B418-46B8-B3D0-FCBD76A4571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26820" yWindow="780" windowWidth="26220" windowHeight="14910" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="237">
   <si>
     <t>Name</t>
   </si>
@@ -756,6 +757,15 @@
   </si>
   <si>
     <t>BROS</t>
+  </si>
+  <si>
+    <t>Macy's</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -920,7 +930,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -994,6 +1004,40 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>277.37341600000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>1908</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>2999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1022,7 +1066,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="BO33">
+            <v>0.51665847665847664</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2303,13 +2353,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:J32"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2613,288 +2663,322 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4.18</v>
+        <v>235</v>
+      </c>
+      <c r="D14" s="4">
+        <v>16.829999999999998</v>
       </c>
       <c r="E14" s="6">
         <f>+D14*H14</f>
+        <v>4668.1945912800002</v>
+      </c>
+      <c r="F14" s="6">
+        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
+        <v>-1091</v>
+      </c>
+      <c r="G14" s="6">
+        <f>+E14-F14</f>
+        <v>5759.1945912800002</v>
+      </c>
+      <c r="H14" s="6">
+        <f>+[13]Main!$K$3</f>
+        <v>277.37341600000002</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" s="7">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4.18</v>
+      </c>
+      <c r="E15" s="6">
+        <f>+D15*H15</f>
         <v>639.54</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <f>+[6]Main!$N$5-[6]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
-      <c r="G14" s="6">
-        <f>+E14-F14</f>
+      <c r="G15" s="6">
+        <f>+E15-F15</f>
         <v>5259.04</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="6">
         <f>+[6]Main!$N$3</f>
         <v>153</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="7">
         <v>45576</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>34</v>
       </c>
-      <c r="E15" s="6">
-        <f>+D15*H15</f>
+      <c r="E16" s="6">
+        <f>+D16*H16</f>
         <v>4044.688314</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <f>+[7]Main!$J$5-[7]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
-      <c r="G15" s="6">
-        <f>+E15-F15</f>
+      <c r="G16" s="6">
+        <f>+E16-F16</f>
         <v>4012.7323139999999</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <f>+[7]Main!$J$3</f>
         <v>118.961421</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J16" s="7">
         <v>45579</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="E16" s="6">
-        <f>+D16*H16</f>
+      <c r="E17" s="6">
+        <f>+D17*H17</f>
         <v>7080.0592272000004</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <f>+[8]Main!$M$5-[8]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
-      <c r="G16" s="6">
-        <f>+E16-F16</f>
+      <c r="G17" s="6">
+        <f>+E17-F17</f>
         <v>2910.3592271999996</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="6">
         <f>+[8]Main!$M$3</f>
         <v>426.509592</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J17" s="7">
         <v>45004</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>111</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>120</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
         <v>133</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
         <v>146</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>150</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
         <v>156</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
         <v>162</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>164</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>197</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>199</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{70796680-7A60-48C5-8294-D4A38C34154F}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{4FBC40F9-AC62-4AE5-B25A-9685F7345B9F}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{C30A6629-83A9-4919-885A-7B35F39EA1FA}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
     <hyperlink ref="B13" r:id="rId7" xr:uid="{1C284ED8-057E-42EA-A5BB-FD8D43F13B80}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{5707036D-1FF0-49A9-9821-5088FE622C37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2904,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60060BAB-B418-46B8-B3D0-FCBD76A4571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B69D25-EE7F-4114-9590-D6FC8000507A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-51300" yWindow="30" windowWidth="29130" windowHeight="19785" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="249">
   <si>
     <t>Name</t>
   </si>
@@ -766,6 +766,42 @@
   </si>
   <si>
     <t>Q324</t>
+  </si>
+  <si>
+    <t>Sweetgreen</t>
+  </si>
+  <si>
+    <t>Dutch Bros</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Wingstop</t>
+  </si>
+  <si>
+    <t>Shake Shack</t>
+  </si>
+  <si>
+    <t>SHAK</t>
+  </si>
+  <si>
+    <t>Texas Roadhouse</t>
+  </si>
+  <si>
+    <t>WING</t>
+  </si>
+  <si>
+    <t>Cheesecake Factory</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>DPZ</t>
+  </si>
+  <si>
+    <t>Domino's</t>
   </si>
 </sst>
 </file>
@@ -896,7 +932,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -915,18 +951,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>114.320581</v>
+          <cell r="M3">
+            <v>717.34324700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>343.74799999999999</v>
+          <cell r="M5">
+            <v>3668</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>38524</v>
           </cell>
         </row>
       </sheetData>
@@ -950,17 +986,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>537.02103899999997</v>
+            <v>114.320581</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>15946.7</v>
+            <v>343.74799999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -984,17 +1020,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>58.551000000000002</v>
+            <v>537.02103899999997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>109.03400000000001</v>
+            <v>15946.7</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>262.17200000000003</v>
+            <v>7298</v>
           </cell>
         </row>
       </sheetData>
@@ -1018,17 +1054,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>277.37341600000002</v>
+            <v>58.551000000000002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>1908</v>
+            <v>109.03400000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>2999</v>
+            <v>262.17200000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -1066,13 +1102,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="BO33">
-            <v>0.51665847665847664</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1106,7 +1136,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1193,18 +1223,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>153</v>
+          <cell r="K3">
+            <v>277.37341600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>705.8</v>
+          <cell r="K5">
+            <v>1908</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>5325.3</v>
+          <cell r="K6">
+            <v>2999</v>
           </cell>
         </row>
       </sheetData>
@@ -1227,18 +1257,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
+          <cell r="N3">
+            <v>153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
+          <cell r="N5">
+            <v>705.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
+          <cell r="N6">
+            <v>5325.3</v>
           </cell>
         </row>
       </sheetData>
@@ -1257,28 +1287,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>426.509592</v>
+          <cell r="J3">
+            <v>118.961421</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>4193.1000000000004</v>
+          <cell r="J5">
+            <v>260.92200000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>23.4</v>
+          <cell r="J6">
+            <v>228.96600000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1293,26 +1321,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>717.34324700000002</v>
+            <v>426.509592</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3668</v>
+            <v>4193.1000000000004</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38524</v>
+            <v>23.4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1617,11 +1647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2145,7 +2175,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2355,11 +2385,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2676,7 +2706,7 @@
         <v>4668.1945912800002</v>
       </c>
       <c r="F14" s="6">
-        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
+        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
         <v>-1091</v>
       </c>
       <c r="G14" s="6">
@@ -2684,7 +2714,7 @@
         <v>5759.1945912800002</v>
       </c>
       <c r="H14" s="6">
-        <f>+[13]Main!$K$3</f>
+        <f>+[6]Main!$K$3</f>
         <v>277.37341600000002</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2709,7 +2739,7 @@
         <v>639.54</v>
       </c>
       <c r="F15" s="6">
-        <f>+[6]Main!$N$5-[6]Main!$N$6</f>
+        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G15" s="6">
@@ -2717,7 +2747,7 @@
         <v>5259.04</v>
       </c>
       <c r="H15" s="6">
-        <f>+[6]Main!$N$3</f>
+        <f>+[7]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2742,7 +2772,7 @@
         <v>4044.688314</v>
       </c>
       <c r="F16" s="6">
-        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
+        <f>+[8]Main!$J$5-[8]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
       <c r="G16" s="6">
@@ -2750,7 +2780,7 @@
         <v>4012.7323139999999</v>
       </c>
       <c r="H16" s="6">
-        <f>+[7]Main!$J$3</f>
+        <f>+[8]Main!$J$3</f>
         <v>118.961421</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2775,7 +2805,7 @@
         <v>7080.0592272000004</v>
       </c>
       <c r="F17" s="6">
-        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
+        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
       <c r="G17" s="6">
@@ -2783,7 +2813,7 @@
         <v>2910.3592271999996</v>
       </c>
       <c r="H17" s="6">
-        <f>+[8]Main!$M$3</f>
+        <f>+[9]Main!$M$3</f>
         <v>426.509592</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -2986,13 +3016,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="A2:AC8"/>
+  <dimension ref="A2:AC15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3108,7 +3138,7 @@
         <v>210898.91461800001</v>
       </c>
       <c r="F3" s="6">
-        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
+        <f>+[10]Main!$M$5-[10]Main!$M$6</f>
         <v>-34856</v>
       </c>
       <c r="G3" s="6">
@@ -3119,7 +3149,7 @@
         <v>213</v>
       </c>
       <c r="I3" s="6">
-        <f>+[9]Main!$M$3</f>
+        <f>+[10]Main!$M$3</f>
         <v>717.34324700000002</v>
       </c>
       <c r="J3" s="7">
@@ -3185,7 +3215,7 @@
         <v>16603.921184440002</v>
       </c>
       <c r="F8" s="6">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3196,17 +3226,77 @@
         <v>213</v>
       </c>
       <c r="I8" s="6">
-        <f>+[10]Main!$K$3</f>
+        <f>+[11]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
         <v>45608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="5">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="5">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{709F67B1-5ADF-4777-9C20-22D9DE4FA40A}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9F85A96E-0777-4A43-AD47-4380F63681E5}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{0814656D-DE6E-4336-87E3-4D76921C4419}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3216,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B3AE1-93C7-4A6B-A7E2-F7A2ABF7DB44}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3301,11 +3391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:J6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3435,7 +3525,7 @@
         <v>232685.84598831</v>
       </c>
       <c r="F4" s="11">
-        <f>[11]Main!$K$5-[11]Main!$K$6</f>
+        <f>[12]Main!$K$5-[12]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
       <c r="G4" s="11">
@@ -3446,7 +3536,7 @@
         <v>213</v>
       </c>
       <c r="I4" s="11">
-        <f>+[11]Main!$K$3</f>
+        <f>+[12]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
       <c r="J4" s="13">
@@ -3607,7 +3697,7 @@
         <v>6407.2359300000007</v>
       </c>
       <c r="F17" s="11">
-        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
+        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
       <c r="G17" s="11">
@@ -3618,7 +3708,7 @@
         <v>213</v>
       </c>
       <c r="I17" s="6">
-        <f>+[12]Main!$K$3</f>
+        <f>+[13]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
       <c r="J17" s="7">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B69D25-EE7F-4114-9590-D6FC8000507A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EAB93D-AD6F-4017-999B-8FAE9A0B8E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51300" yWindow="30" windowWidth="29130" windowHeight="19785" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="17180" yWindow="3390" windowWidth="21210" windowHeight="15660" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="251">
   <si>
     <t>Name</t>
   </si>
@@ -802,6 +802,12 @@
   </si>
   <si>
     <t>Domino's</t>
+  </si>
+  <si>
+    <t>PTLO</t>
+  </si>
+  <si>
+    <t>Portillo's</t>
   </si>
 </sst>
 </file>
@@ -1654,17 +1660,17 @@
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1924,7 +1930,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>218</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
@@ -2178,13 +2184,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>81.31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -2392,20 +2398,20 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="4"/>
+    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="4"/>
+    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>230</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>234</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>191</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>232</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>184</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -3016,25 +3022,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="A2:AC15"/>
+  <dimension ref="A2:AC16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>237</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>238</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>240</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>241</v>
       </c>
@@ -3271,12 +3277,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -3284,12 +3290,23 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>248</v>
       </c>
       <c r="C15" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3313,18 +3330,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3338,7 +3355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3360,7 +3377,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3371,7 +3388,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3391,23 +3408,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3493,7 +3510,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3507,7 +3524,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3543,7 +3560,7 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3557,7 +3574,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -3579,7 +3596,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3593,7 +3610,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3607,7 +3624,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3621,7 +3638,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3632,7 +3649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3643,7 +3660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3654,7 +3671,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3665,7 +3682,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3679,7 +3696,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EAB93D-AD6F-4017-999B-8FAE9A0B8E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B5F28-B942-40FF-9BD8-AA8AE9603640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="3390" windowWidth="21210" windowHeight="15660" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-26400" yWindow="1470" windowWidth="25080" windowHeight="18540" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -808,6 +808,12 @@
   </si>
   <si>
     <t>Portillo's</t>
+  </si>
+  <si>
+    <t>Carvana</t>
+  </si>
+  <si>
+    <t>CVNA</t>
   </si>
 </sst>
 </file>
@@ -938,7 +944,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1142,7 +1148,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1660,17 +1666,17 @@
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>218</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
@@ -2184,13 +2190,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>81.31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2357,7 +2363,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -2389,29 +2395,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="4"/>
-    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="4"/>
-    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>230</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>234</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>191</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>232</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>184</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2884,7 +2890,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -3003,6 +3009,17 @@
       </c>
       <c r="C33" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="5">
+        <v>201.73</v>
       </c>
     </row>
   </sheetData>
@@ -3015,6 +3032,7 @@
     <hyperlink ref="B16" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
     <hyperlink ref="B13" r:id="rId7" xr:uid="{1C284ED8-057E-42EA-A5BB-FD8D43F13B80}"/>
     <hyperlink ref="B14" r:id="rId8" xr:uid="{5707036D-1FF0-49A9-9821-5088FE622C37}"/>
+    <hyperlink ref="B34" r:id="rId9" xr:uid="{C191C04B-CCC4-48CD-9394-3327B6BAFDD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3024,23 +3042,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3144,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3162,7 +3180,7 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3173,7 +3191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3195,7 +3213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3206,7 +3224,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>237</v>
       </c>
@@ -3250,7 +3268,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>238</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>240</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>241</v>
       </c>
@@ -3277,12 +3295,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -3290,7 +3308,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>248</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>250</v>
       </c>
@@ -3330,18 +3348,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3355,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3366,7 +3384,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3377,7 +3395,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3388,7 +3406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3415,16 +3433,16 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3510,7 +3528,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3560,7 +3578,7 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3574,7 +3592,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3585,7 +3603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -3596,7 +3614,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3624,7 +3642,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3638,7 +3656,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3649,7 +3667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3660,7 +3678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3671,7 +3689,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3682,7 +3700,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3696,7 +3714,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B5F28-B942-40FF-9BD8-AA8AE9603640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08034CC3-68D8-44E0-B94F-969EC9601323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26400" yWindow="1470" windowWidth="25080" windowHeight="18540" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-26805" yWindow="1890" windowWidth="22410" windowHeight="14220" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,8 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -929,18 +931,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>233.34437700000001</v>
+          <cell r="M3">
+            <v>983</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>903.21</v>
+          <cell r="M5">
+            <v>2632.127</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>748.84199999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -959,26 +961,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>717.34324700000002</v>
+            <v>426.509592</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3668</v>
+            <v>4193.1000000000004</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38524</v>
+            <v>23.4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -997,18 +1001,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>114.320581</v>
+          <cell r="M3">
+            <v>717.34324700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>343.74799999999999</v>
+          <cell r="M5">
+            <v>3668</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>38524</v>
           </cell>
         </row>
       </sheetData>
@@ -1032,17 +1036,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>537.02103899999997</v>
+            <v>114.320581</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>15946.7</v>
+            <v>343.74799999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1066,6 +1070,40 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
+            <v>537.02103899999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>15946.7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>7298</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
             <v>58.551000000000002</v>
           </cell>
         </row>
@@ -1081,6 +1119,40 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>1529.9716080000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>10675</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>8933</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1100,17 +1172,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10708</v>
+            <v>235.031452</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>89092</v>
+            <v>904</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>54889</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1133,18 +1205,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>991.61418600000002</v>
+          <cell r="K3">
+            <v>10515.011007999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4264</v>
+          <cell r="K5">
+            <v>88051</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>42831</v>
+          <cell r="K6">
+            <v>54890</v>
           </cell>
         </row>
       </sheetData>
@@ -1168,17 +1240,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2449.375</v>
+            <v>991.61418600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>1029873</v>
+          <cell r="L5">
+            <v>4264</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>207937</v>
+          <cell r="L6">
+            <v>42831</v>
           </cell>
         </row>
       </sheetData>
@@ -1202,17 +1274,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>47.114727000000002</v>
+            <v>2449.375</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>414</v>
+          <cell r="O5">
+            <v>1029873</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="O6">
+            <v>207937</v>
           </cell>
         </row>
       </sheetData>
@@ -1235,18 +1307,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.37341600000002</v>
+          <cell r="L3">
+            <v>47.114727000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1908</v>
+          <cell r="L5">
+            <v>414</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>2999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1269,18 +1341,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>153</v>
+          <cell r="K3">
+            <v>277.37341600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>705.8</v>
+          <cell r="K5">
+            <v>1908</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>5325.3</v>
+          <cell r="K6">
+            <v>2999</v>
           </cell>
         </row>
       </sheetData>
@@ -1303,18 +1375,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
+          <cell r="N3">
+            <v>153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
+          <cell r="N5">
+            <v>705.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
+          <cell r="N6">
+            <v>5325.3</v>
           </cell>
         </row>
       </sheetData>
@@ -1333,28 +1405,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>426.509592</v>
+          <cell r="J3">
+            <v>118.961421</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>4193.1000000000004</v>
+          <cell r="J5">
+            <v>260.92200000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>23.4</v>
+          <cell r="J6">
+            <v>228.96600000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1663,7 +1733,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1852,11 +1922,36 @@
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
+      </c>
+      <c r="D16" s="4">
+        <v>46.71</v>
+      </c>
+      <c r="E16" s="6">
+        <f>+D16*H16</f>
+        <v>45915.93</v>
+      </c>
+      <c r="F16" s="6">
+        <f>[1]Main!$M$5-[1]Main!$M$6</f>
+        <v>1883.2849999999999</v>
+      </c>
+      <c r="G16" s="6">
+        <f>+E16-F16</f>
+        <v>44032.645000000004</v>
+      </c>
+      <c r="H16" s="4">
+        <f>[1]Main!$M$3</f>
+        <v>983</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" s="7">
+        <v>45698</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2131,29 +2226,29 @@
         <v>219</v>
       </c>
       <c r="D41" s="5">
-        <v>33</v>
+        <v>22.56</v>
       </c>
       <c r="E41" s="6">
         <f>+D41*H41</f>
-        <v>7700.3644410000006</v>
+        <v>5302.3095571200001</v>
       </c>
       <c r="F41" s="6">
-        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>903.21</v>
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>904</v>
       </c>
       <c r="G41" s="6">
         <f>+E41-F41</f>
-        <v>6797.1544410000006</v>
+        <v>4398.3095571200001</v>
       </c>
       <c r="H41" s="6">
-        <f>+[1]Main!$K$3</f>
-        <v>233.34437700000001</v>
+        <f>+[2]Main!$K$3</f>
+        <v>235.031452</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="J41" s="7">
-        <v>45575</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2174,6 +2269,7 @@
   <hyperlinks>
     <hyperlink ref="B42" r:id="rId1" xr:uid="{9FC43ADA-8F9A-4466-B4D9-4A3810ADE6EF}"/>
     <hyperlink ref="B41" r:id="rId2" xr:uid="{290D9583-44B1-409A-BB10-37786A14D5D8}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{6C7452E6-6CF0-4BC9-B0B6-5AB70E0EB896}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2183,17 +2279,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2250,7 +2347,29 @@
         <v>16</v>
       </c>
       <c r="D4" s="3">
-        <v>81.31</v>
+        <v>70.72</v>
+      </c>
+      <c r="E4" s="11">
+        <f>+D4*H4</f>
+        <v>108199.59211776</v>
+      </c>
+      <c r="F4" s="11">
+        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+        <v>1742</v>
+      </c>
+      <c r="G4" s="11">
+        <f>+E4-F4</f>
+        <v>106457.59211776</v>
+      </c>
+      <c r="H4" s="11">
+        <f>+[15]Main!$L$3</f>
+        <v>1529.9716080000001</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="7">
+        <v>45698</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2339,6 +2458,12 @@
       </c>
       <c r="C12" t="s">
         <v>62</v>
+      </c>
+      <c r="D12">
+        <v>399.66</v>
+      </c>
+      <c r="E12" s="11">
+        <v>46600</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2397,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
@@ -2461,19 +2586,19 @@
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>1797873.2</v>
+        <v>1765470.3482432</v>
       </c>
       <c r="F3" s="6">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
-        <v>34203</v>
+        <f>+[3]Main!$K$5-[3]Main!$K$6</f>
+        <v>33161</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>1763670.2</v>
+        <v>1732309.3482432</v>
       </c>
       <c r="H3" s="6">
-        <f>+[2]Main!$K$3</f>
-        <v>10708</v>
+        <f>+[3]Main!$K$3</f>
+        <v>10515.011007999999</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>214</v>
@@ -2531,7 +2656,7 @@
         <v>394166.638935</v>
       </c>
       <c r="F6" s="6">
-        <f>+[3]Main!$L$5-[3]Main!$L$6</f>
+        <f>+[4]Main!$L$5-[4]Main!$L$6</f>
         <v>-38567</v>
       </c>
       <c r="G6" s="6">
@@ -2539,7 +2664,7 @@
         <v>432733.638935</v>
       </c>
       <c r="H6" s="6">
-        <f>+[3]Main!$L$3</f>
+        <f>+[4]Main!$L$3</f>
         <v>991.61418600000002</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2567,7 +2692,7 @@
         <v>234233.73124999998</v>
       </c>
       <c r="F7" s="6">
-        <f>([4]Main!$O$5-[4]Main!$O$6)/7</f>
+        <f>([5]Main!$O$5-[5]Main!$O$6)/7</f>
         <v>117419.42857142857</v>
       </c>
       <c r="G7" s="6">
@@ -2575,7 +2700,7 @@
         <v>116814.30267857142</v>
       </c>
       <c r="H7" s="6">
-        <f>+[4]Main!$L$3</f>
+        <f>+[5]Main!$L$3</f>
         <v>2449.375</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2685,7 +2810,7 @@
         <v>17851.770060300001</v>
       </c>
       <c r="F13" s="11">
-        <f>+[5]Main!$L$5-[5]Main!$L$6</f>
+        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
         <v>414</v>
       </c>
       <c r="G13" s="11">
@@ -2693,7 +2818,7 @@
         <v>17437.770060300001</v>
       </c>
       <c r="H13" s="11">
-        <f>+[5]Main!$L$3</f>
+        <f>+[6]Main!$L$3</f>
         <v>47.114727000000002</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -2718,7 +2843,7 @@
         <v>4668.1945912800002</v>
       </c>
       <c r="F14" s="6">
-        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
+        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
         <v>-1091</v>
       </c>
       <c r="G14" s="6">
@@ -2726,7 +2851,7 @@
         <v>5759.1945912800002</v>
       </c>
       <c r="H14" s="6">
-        <f>+[6]Main!$K$3</f>
+        <f>+[7]Main!$K$3</f>
         <v>277.37341600000002</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2751,7 +2876,7 @@
         <v>639.54</v>
       </c>
       <c r="F15" s="6">
-        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
+        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G15" s="6">
@@ -2759,7 +2884,7 @@
         <v>5259.04</v>
       </c>
       <c r="H15" s="6">
-        <f>+[7]Main!$N$3</f>
+        <f>+[8]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2784,7 +2909,7 @@
         <v>4044.688314</v>
       </c>
       <c r="F16" s="6">
-        <f>+[8]Main!$J$5-[8]Main!$J$6</f>
+        <f>+[9]Main!$J$5-[9]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
       <c r="G16" s="6">
@@ -2792,7 +2917,7 @@
         <v>4012.7323139999999</v>
       </c>
       <c r="H16" s="6">
-        <f>+[8]Main!$J$3</f>
+        <f>+[9]Main!$J$3</f>
         <v>118.961421</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2817,7 +2942,7 @@
         <v>7080.0592272000004</v>
       </c>
       <c r="F17" s="6">
-        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
+        <f>+[10]Main!$M$5-[10]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
       <c r="G17" s="6">
@@ -2825,7 +2950,7 @@
         <v>2910.3592271999996</v>
       </c>
       <c r="H17" s="6">
-        <f>+[9]Main!$M$3</f>
+        <f>+[10]Main!$M$3</f>
         <v>426.509592</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -3162,7 +3287,7 @@
         <v>210898.91461800001</v>
       </c>
       <c r="F3" s="6">
-        <f>+[10]Main!$M$5-[10]Main!$M$6</f>
+        <f>+[11]Main!$M$5-[11]Main!$M$6</f>
         <v>-34856</v>
       </c>
       <c r="G3" s="6">
@@ -3173,7 +3298,7 @@
         <v>213</v>
       </c>
       <c r="I3" s="6">
-        <f>+[10]Main!$M$3</f>
+        <f>+[11]Main!$M$3</f>
         <v>717.34324700000002</v>
       </c>
       <c r="J3" s="7">
@@ -3239,7 +3364,7 @@
         <v>16603.921184440002</v>
       </c>
       <c r="F8" s="6">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3250,7 +3375,7 @@
         <v>213</v>
       </c>
       <c r="I8" s="6">
-        <f>+[11]Main!$K$3</f>
+        <f>+[12]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
@@ -3560,7 +3685,7 @@
         <v>232685.84598831</v>
       </c>
       <c r="F4" s="11">
-        <f>[12]Main!$K$5-[12]Main!$K$6</f>
+        <f>[13]Main!$K$5-[13]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
       <c r="G4" s="11">
@@ -3571,7 +3696,7 @@
         <v>213</v>
       </c>
       <c r="I4" s="11">
-        <f>+[12]Main!$K$3</f>
+        <f>+[13]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
       <c r="J4" s="13">
@@ -3732,7 +3857,7 @@
         <v>6407.2359300000007</v>
       </c>
       <c r="F17" s="11">
-        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
+        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
       <c r="G17" s="11">
@@ -3743,7 +3868,7 @@
         <v>213</v>
       </c>
       <c r="I17" s="6">
-        <f>+[13]Main!$K$3</f>
+        <f>+[14]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
       <c r="J17" s="7">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08034CC3-68D8-44E0-B94F-969EC9601323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F974277-B534-4013-AC99-1A9DD5054703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26805" yWindow="1890" windowWidth="22410" windowHeight="14220" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -816,6 +816,12 @@
   </si>
   <si>
     <t>CVNA</t>
+  </si>
+  <si>
+    <t>Haleon</t>
+  </si>
+  <si>
+    <t>HLN LN</t>
   </si>
 </sst>
 </file>
@@ -846,12 +852,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -867,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -898,6 +910,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -961,28 +974,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>426.509592</v>
+          <cell r="J3">
+            <v>118.961421</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>4193.1000000000004</v>
+          <cell r="J5">
+            <v>260.92200000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>23.4</v>
+          <cell r="J6">
+            <v>228.96600000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -997,26 +1008,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>717.34324700000002</v>
+            <v>426.509592</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3668</v>
+            <v>4193.1000000000004</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38524</v>
+            <v>23.4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1035,18 +1048,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>114.320581</v>
+          <cell r="M3">
+            <v>717.34324700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>343.74799999999999</v>
+          <cell r="M5">
+            <v>3668</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>38524</v>
           </cell>
         </row>
       </sheetData>
@@ -1070,17 +1083,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>537.02103899999997</v>
+            <v>114.320581</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>15946.7</v>
+            <v>343.74799999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1104,17 +1117,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>58.551000000000002</v>
+            <v>537.02103899999997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>109.03400000000001</v>
+            <v>15946.7</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>262.17200000000003</v>
+            <v>7298</v>
           </cell>
         </row>
       </sheetData>
@@ -1137,22 +1150,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>1529.9716080000001</v>
+          <cell r="K3">
+            <v>58.551000000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>10675</v>
+          <cell r="K5">
+            <v>109.03400000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>8933</v>
+          <cell r="K6">
+            <v>262.17200000000003</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1205,22 +1218,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>10515.011007999999</v>
+          <cell r="L3">
+            <v>1529.9716080000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>88051</v>
+          <cell r="L5">
+            <v>10675</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>54890</v>
+          <cell r="L6">
+            <v>8933</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1239,18 +1252,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>991.61418600000002</v>
+          <cell r="K3">
+            <v>10515.011007999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4264</v>
+          <cell r="K5">
+            <v>88051</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>42831</v>
+          <cell r="K6">
+            <v>54890</v>
           </cell>
         </row>
       </sheetData>
@@ -1274,17 +1287,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2449.375</v>
+            <v>991.61418600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>1029873</v>
+          <cell r="L5">
+            <v>4264</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>207937</v>
+          <cell r="L6">
+            <v>42831</v>
           </cell>
         </row>
       </sheetData>
@@ -1308,17 +1321,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>47.114727000000002</v>
+            <v>2449.375</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>414</v>
+          <cell r="O5">
+            <v>1029873</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="O6">
+            <v>207937</v>
           </cell>
         </row>
       </sheetData>
@@ -1341,18 +1354,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.37341600000002</v>
+          <cell r="L3">
+            <v>47.114727000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1908</v>
+          <cell r="L5">
+            <v>414</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>2999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1375,18 +1388,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>153</v>
+          <cell r="K3">
+            <v>277.37341600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>705.8</v>
+          <cell r="K5">
+            <v>1908</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>5325.3</v>
+          <cell r="K6">
+            <v>2999</v>
           </cell>
         </row>
       </sheetData>
@@ -1409,18 +1422,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
+          <cell r="N3">
+            <v>153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
+          <cell r="N5">
+            <v>705.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
+          <cell r="N6">
+            <v>5325.3</v>
           </cell>
         </row>
       </sheetData>
@@ -1733,20 +1746,20 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1775,8 +1788,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -1786,8 +1799,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B4" t="s">
@@ -1797,8 +1810,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
@@ -1808,8 +1821,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
@@ -1819,8 +1832,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B7" t="s">
@@ -1830,7 +1843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1841,8 +1854,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
@@ -1852,8 +1865,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B10" t="s">
@@ -1863,7 +1876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1874,7 +1887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1885,7 +1898,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1896,8 +1909,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B14" t="s">
@@ -1907,7 +1920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1918,8 +1931,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1954,7 +1967,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1965,7 +1978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1976,7 +1989,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1987,7 +2000,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2009,7 +2022,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2020,7 +2033,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2031,7 +2044,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2042,7 +2055,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2053,7 +2066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2064,7 +2077,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2075,8 +2088,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B28" t="s">
@@ -2086,7 +2099,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2097,7 +2110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2119,7 +2132,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2130,7 +2143,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2141,7 +2154,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2152,7 +2165,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2163,7 +2176,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2174,7 +2187,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2196,7 +2209,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2207,7 +2220,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2218,7 +2231,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>218</v>
       </c>
@@ -2251,7 +2264,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
@@ -2283,17 +2296,17 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2325,8 +2338,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -2336,8 +2349,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2354,7 +2367,7 @@
         <v>108199.59211776</v>
       </c>
       <c r="F4" s="11">
-        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+        <f>+[3]Main!$L$5-[3]Main!$L$6</f>
         <v>1742</v>
       </c>
       <c r="G4" s="11">
@@ -2362,7 +2375,7 @@
         <v>106457.59211776</v>
       </c>
       <c r="H4" s="11">
-        <f>+[15]Main!$L$3</f>
+        <f>+[3]Main!$L$3</f>
         <v>1529.9716080000001</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -2372,8 +2385,8 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
@@ -2383,8 +2396,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
@@ -2394,8 +2407,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B7" t="s">
@@ -2405,8 +2418,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
@@ -2416,8 +2429,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
@@ -2427,8 +2440,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B10" t="s">
@@ -2438,8 +2451,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
@@ -2449,8 +2462,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
@@ -2466,8 +2479,8 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
@@ -2477,7 +2490,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2488,7 +2501,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2499,7 +2512,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -2522,27 +2535,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="4"/>
+    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="4"/>
+    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2571,8 +2584,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2589,7 +2602,7 @@
         <v>1765470.3482432</v>
       </c>
       <c r="F3" s="6">
-        <f>+[3]Main!$K$5-[3]Main!$K$6</f>
+        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
         <v>33161</v>
       </c>
       <c r="G3" s="6">
@@ -2597,15 +2610,15 @@
         <v>1732309.3482432</v>
       </c>
       <c r="H3" s="6">
-        <f>+[3]Main!$K$3</f>
+        <f>+[4]Main!$K$3</f>
         <v>10515.011007999999</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B4" t="s">
@@ -2621,8 +2634,8 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
@@ -2638,8 +2651,8 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2656,7 +2669,7 @@
         <v>394166.638935</v>
       </c>
       <c r="F6" s="6">
-        <f>+[4]Main!$L$5-[4]Main!$L$6</f>
+        <f>+[5]Main!$L$5-[5]Main!$L$6</f>
         <v>-38567</v>
       </c>
       <c r="G6" s="6">
@@ -2664,7 +2677,7 @@
         <v>432733.638935</v>
       </c>
       <c r="H6" s="6">
-        <f>+[4]Main!$L$3</f>
+        <f>+[5]Main!$L$3</f>
         <v>991.61418600000002</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2674,8 +2687,8 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2692,7 +2705,7 @@
         <v>234233.73124999998</v>
       </c>
       <c r="F7" s="6">
-        <f>([5]Main!$O$5-[5]Main!$O$6)/7</f>
+        <f>([6]Main!$O$5-[6]Main!$O$6)/7</f>
         <v>117419.42857142857</v>
       </c>
       <c r="G7" s="6">
@@ -2700,7 +2713,7 @@
         <v>116814.30267857142</v>
       </c>
       <c r="H7" s="6">
-        <f>+[5]Main!$L$3</f>
+        <f>+[6]Main!$L$3</f>
         <v>2449.375</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2710,8 +2723,8 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
@@ -2727,8 +2740,8 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
@@ -2744,8 +2757,8 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B10" t="s">
@@ -2761,8 +2774,8 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
@@ -2778,7 +2791,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2795,7 +2808,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>230</v>
       </c>
@@ -2810,7 +2823,7 @@
         <v>17851.770060300001</v>
       </c>
       <c r="F13" s="11">
-        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
+        <f>+[7]Main!$L$5-[7]Main!$L$6</f>
         <v>414</v>
       </c>
       <c r="G13" s="11">
@@ -2818,7 +2831,7 @@
         <v>17437.770060300001</v>
       </c>
       <c r="H13" s="11">
-        <f>+[6]Main!$L$3</f>
+        <f>+[7]Main!$L$3</f>
         <v>47.114727000000002</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -2828,7 +2841,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>234</v>
       </c>
@@ -2843,7 +2856,7 @@
         <v>4668.1945912800002</v>
       </c>
       <c r="F14" s="6">
-        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
+        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>-1091</v>
       </c>
       <c r="G14" s="6">
@@ -2851,7 +2864,7 @@
         <v>5759.1945912800002</v>
       </c>
       <c r="H14" s="6">
-        <f>+[7]Main!$K$3</f>
+        <f>+[8]Main!$K$3</f>
         <v>277.37341600000002</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2861,7 +2874,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>191</v>
       </c>
@@ -2876,7 +2889,7 @@
         <v>639.54</v>
       </c>
       <c r="F15" s="6">
-        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
+        <f>+[9]Main!$N$5-[9]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G15" s="6">
@@ -2884,7 +2897,7 @@
         <v>5259.04</v>
       </c>
       <c r="H15" s="6">
-        <f>+[8]Main!$N$3</f>
+        <f>+[9]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2894,7 +2907,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>232</v>
       </c>
@@ -2909,7 +2922,7 @@
         <v>4044.688314</v>
       </c>
       <c r="F16" s="6">
-        <f>+[9]Main!$J$5-[9]Main!$J$6</f>
+        <f>+[10]Main!$J$5-[10]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
       <c r="G16" s="6">
@@ -2917,7 +2930,7 @@
         <v>4012.7323139999999</v>
       </c>
       <c r="H16" s="6">
-        <f>+[9]Main!$J$3</f>
+        <f>+[10]Main!$J$3</f>
         <v>118.961421</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2927,7 +2940,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>184</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>7080.0592272000004</v>
       </c>
       <c r="F17" s="6">
-        <f>+[10]Main!$M$5-[10]Main!$M$6</f>
+        <f>+[11]Main!$M$5-[11]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
       <c r="G17" s="6">
@@ -2950,7 +2963,7 @@
         <v>2910.3592271999996</v>
       </c>
       <c r="H17" s="6">
-        <f>+[10]Main!$M$3</f>
+        <f>+[11]Main!$M$3</f>
         <v>426.509592</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -2960,7 +2973,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2971,7 +2984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +2995,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B20" t="s">
@@ -2993,8 +3006,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
@@ -3004,7 +3017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3015,8 +3028,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B23" t="s">
@@ -3026,7 +3039,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -3037,7 +3050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3048,7 +3061,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3059,7 +3072,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -3070,7 +3083,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3103,8 +3116,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B31" t="s">
@@ -3114,7 +3127,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3125,7 +3138,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -3136,7 +3149,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>251</v>
       </c>
@@ -3171,19 +3184,19 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3269,8 +3282,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3287,7 +3300,7 @@
         <v>210898.91461800001</v>
       </c>
       <c r="F3" s="6">
-        <f>+[11]Main!$M$5-[11]Main!$M$6</f>
+        <f>+[12]Main!$M$5-[12]Main!$M$6</f>
         <v>-34856</v>
       </c>
       <c r="G3" s="6">
@@ -3298,15 +3311,15 @@
         <v>213</v>
       </c>
       <c r="I3" s="6">
-        <f>+[11]Main!$M$3</f>
+        <f>+[12]Main!$M$3</f>
         <v>717.34324700000002</v>
       </c>
       <c r="J3" s="7">
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B4" t="s">
@@ -3316,8 +3329,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
@@ -3327,8 +3340,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
@@ -3338,7 +3351,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3349,7 +3362,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3364,7 +3377,7 @@
         <v>16603.921184440002</v>
       </c>
       <c r="F8" s="6">
-        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
+        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3375,14 +3388,14 @@
         <v>213</v>
       </c>
       <c r="I8" s="6">
-        <f>+[12]Main!$K$3</f>
+        <f>+[13]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>237</v>
       </c>
@@ -3393,7 +3406,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>238</v>
       </c>
@@ -3404,7 +3417,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>240</v>
       </c>
@@ -3412,7 +3425,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>241</v>
       </c>
@@ -3420,12 +3433,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -3433,7 +3446,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>248</v>
       </c>
@@ -3441,7 +3454,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>250</v>
       </c>
@@ -3470,21 +3483,21 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3498,8 +3511,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -3509,7 +3522,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3520,7 +3533,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3549,25 +3562,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="A2:AC17"/>
+  <dimension ref="A2:AC18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3653,8 +3666,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -3667,8 +3680,8 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3685,7 +3698,7 @@
         <v>232685.84598831</v>
       </c>
       <c r="F4" s="11">
-        <f>[13]Main!$K$5-[13]Main!$K$6</f>
+        <f>[14]Main!$K$5-[14]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
       <c r="G4" s="11">
@@ -3696,15 +3709,15 @@
         <v>213</v>
       </c>
       <c r="I4" s="11">
-        <f>+[13]Main!$K$3</f>
+        <f>+[14]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
       <c r="J4" s="13">
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
@@ -3717,8 +3730,8 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B7" t="s">
@@ -3728,7 +3741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -3739,7 +3752,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3753,8 +3766,8 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B10" t="s">
@@ -3767,8 +3780,8 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
@@ -3781,7 +3794,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3792,8 +3805,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
@@ -3803,8 +3816,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B14" t="s">
@@ -3814,7 +3827,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3825,59 +3838,70 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
         <v>193</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>102.04</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>109.43</v>
       </c>
-      <c r="E17" s="6">
-        <f>+D17*I17</f>
+      <c r="E18" s="6">
+        <f>+D18*I18</f>
         <v>6407.2359300000007</v>
       </c>
-      <c r="F17" s="11">
-        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
+      <c r="F18" s="11">
+        <f>+[15]Main!$K$5-[15]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
-      <c r="G17" s="11">
-        <f>+E17-F17</f>
+      <c r="G18" s="11">
+        <f>+E18-F18</f>
         <v>6560.3739300000007</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I17" s="6">
-        <f>+[14]Main!$K$3</f>
+      <c r="I18" s="6">
+        <f>+[15]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J18" s="7">
         <v>45576</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{489ED1A3-D908-4C0E-AB16-E996DF3BF813}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F974277-B534-4013-AC99-1A9DD5054703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC6CEA2-61CA-423A-843C-CD38E7275FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -2292,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3564,11 +3564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3742,7 +3742,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC6CEA2-61CA-423A-843C-CD38E7275FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D59E349-5CAE-4411-89C4-5AD56E9E090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="259">
   <si>
     <t>Name</t>
   </si>
@@ -822,6 +822,18 @@
   </si>
   <si>
     <t>HLN LN</t>
+  </si>
+  <si>
+    <t>Royal Caribbean Cruises</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>Copart</t>
+  </si>
+  <si>
+    <t>CPRT</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1245,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1746,20 +1758,20 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -1799,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -1843,8 +1855,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
@@ -1854,7 +1866,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -1876,7 +1888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2000,7 +2012,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2011,7 +2023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2033,7 +2045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2055,7 +2067,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2077,7 +2089,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2088,7 +2100,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -2099,7 +2111,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2121,7 +2133,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2209,7 +2221,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2231,7 +2243,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>218</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
@@ -2299,14 +2311,14 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2350,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2418,7 +2430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2440,7 +2452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2451,7 +2463,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -2533,29 +2545,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:J34"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="4"/>
-    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="4"/>
-    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2596,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2651,7 +2663,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2723,7 +2735,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2769,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>230</v>
       </c>
@@ -2841,7 +2853,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>234</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>191</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>232</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>184</v>
       </c>
@@ -2973,7 +2985,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2984,7 +2996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2995,7 +3007,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -3006,7 +3018,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -3017,8 +3029,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B22" t="s">
@@ -3028,7 +3040,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -3039,7 +3051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3072,91 +3084,102 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>146</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
         <v>150</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
         <v>156</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>162</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>164</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>197</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>199</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>252</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D35" s="5">
         <v>201.73</v>
       </c>
     </row>
@@ -3170,7 +3193,7 @@
     <hyperlink ref="B16" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
     <hyperlink ref="B13" r:id="rId7" xr:uid="{1C284ED8-057E-42EA-A5BB-FD8D43F13B80}"/>
     <hyperlink ref="B14" r:id="rId8" xr:uid="{5707036D-1FF0-49A9-9821-5088FE622C37}"/>
-    <hyperlink ref="B34" r:id="rId9" xr:uid="{C191C04B-CCC4-48CD-9394-3327B6BAFDD1}"/>
+    <hyperlink ref="B35" r:id="rId9" xr:uid="{C191C04B-CCC4-48CD-9394-3327B6BAFDD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3187,16 +3210,16 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +3305,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3318,7 +3341,7 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3329,7 +3352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -3340,7 +3363,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3351,7 +3374,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3362,7 +3385,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3395,7 +3418,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>237</v>
       </c>
@@ -3406,7 +3429,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>238</v>
       </c>
@@ -3417,7 +3440,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>240</v>
       </c>
@@ -3425,7 +3448,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>241</v>
       </c>
@@ -3433,12 +3456,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -3446,7 +3469,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>248</v>
       </c>
@@ -3454,7 +3477,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>250</v>
       </c>
@@ -3477,27 +3500,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B3AE1-93C7-4A6B-A7E2-F7A2ABF7DB44}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3511,7 +3534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3522,36 +3545,47 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
         <v>170</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3564,23 +3598,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +3700,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3680,7 +3714,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3716,7 +3750,7 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -3730,7 +3764,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3741,7 +3775,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3752,7 +3786,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3766,7 +3800,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -3780,7 +3814,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -3794,7 +3828,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3805,7 +3839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -3816,7 +3850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -3827,7 +3861,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3838,7 +3872,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -3849,7 +3883,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3863,7 +3897,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D59E349-5CAE-4411-89C4-5AD56E9E090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E515A765-5F8B-4CA4-9B3F-87E1E736A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="261">
   <si>
     <t>Name</t>
   </si>
@@ -834,6 +834,12 @@
   </si>
   <si>
     <t>CPRT</t>
+  </si>
+  <si>
+    <t>Kenvue</t>
+  </si>
+  <si>
+    <t>KVUE</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1183,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1752,13 +1758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:J42"/>
+  <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1900,7 +1906,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
@@ -2289,6 +2295,17 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2547,11 +2564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3063,7 +3080,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B25" t="s">
@@ -3074,7 +3091,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
@@ -3598,11 +3615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3764,6 +3781,17 @@
         <v>119.72</v>
       </c>
     </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
@@ -3828,17 +3856,6 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
@@ -3908,11 +3925,11 @@
         <v>220</v>
       </c>
       <c r="D18" s="4">
-        <v>109.43</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="E18" s="6">
         <f>+D18*I18</f>
-        <v>6407.2359300000007</v>
+        <v>3952.7780100000004</v>
       </c>
       <c r="F18" s="11">
         <f>+[15]Main!$K$5-[15]Main!$K$6</f>
@@ -3920,7 +3937,7 @@
       </c>
       <c r="G18" s="11">
         <f>+E18-F18</f>
-        <v>6560.3739300000007</v>
+        <v>4105.9160100000008</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>213</v>
@@ -3930,7 +3947,7 @@
         <v>58.551000000000002</v>
       </c>
       <c r="J18" s="7">
-        <v>45576</v>
+        <v>45719</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E515A765-5F8B-4CA4-9B3F-87E1E736A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C413529-1CE3-45E9-B58A-2F7536E57466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -599,12 +599,6 @@
     <t>LISN SW</t>
   </si>
   <si>
-    <t>Rockwell Automation</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
     <t>Restaurant Brands</t>
   </si>
   <si>
@@ -840,6 +834,18 @@
   </si>
   <si>
     <t>KVUE</t>
+  </si>
+  <si>
+    <t>Carnival Corp</t>
+  </si>
+  <si>
+    <t>Carnival plc</t>
+  </si>
+  <si>
+    <t>CCL LN</t>
+  </si>
+  <si>
+    <t>CCL US</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1189,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1758,13 +1764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:J43"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1791,19 +1797,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1880,7 +1886,7 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1979,7 +1985,7 @@
         <v>983</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J16" s="7">
         <v>45698</v>
@@ -2019,7 +2025,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B20" t="s">
@@ -2030,7 +2036,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
@@ -2041,7 +2047,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B22" t="s">
@@ -2129,7 +2135,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B30" t="s">
@@ -2199,10 +2205,10 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2210,14 +2216,14 @@
         <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B38" t="s">
@@ -2232,88 +2238,78 @@
         <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s">
-        <v>207</v>
+      <c r="B40" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="D40" s="5">
+        <v>22.56</v>
+      </c>
+      <c r="E40" s="6">
+        <f>+D40*H40</f>
+        <v>5302.3095571200001</v>
+      </c>
+      <c r="F40" s="6">
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>904</v>
+      </c>
+      <c r="G40" s="6">
+        <f>+E40-F40</f>
+        <v>4398.3095571200001</v>
+      </c>
+      <c r="H40" s="6">
+        <f>+[2]Main!$K$3</f>
+        <v>235.031452</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" s="7">
+        <v>45332</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D41" s="5">
-        <v>22.56</v>
-      </c>
-      <c r="E41" s="6">
-        <f>+D41*H41</f>
-        <v>5302.3095571200001</v>
-      </c>
-      <c r="F41" s="6">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
-        <v>904</v>
-      </c>
-      <c r="G41" s="6">
-        <f>+E41-F41</f>
-        <v>4398.3095571200001</v>
-      </c>
-      <c r="H41" s="6">
-        <f>+[2]Main!$K$3</f>
-        <v>235.031452</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J41" s="7">
-        <v>45332</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>215</v>
+      <c r="A42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" xr:uid="{9FC43ADA-8F9A-4466-B4D9-4A3810ADE6EF}"/>
-    <hyperlink ref="B41" r:id="rId2" xr:uid="{290D9583-44B1-409A-BB10-37786A14D5D8}"/>
+    <hyperlink ref="B41" r:id="rId1" xr:uid="{9FC43ADA-8F9A-4466-B4D9-4A3810ADE6EF}"/>
+    <hyperlink ref="B40" r:id="rId2" xr:uid="{290D9583-44B1-409A-BB10-37786A14D5D8}"/>
     <hyperlink ref="B16" r:id="rId3" xr:uid="{6C7452E6-6CF0-4BC9-B0B6-5AB70E0EB896}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2349,22 +2345,22 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2408,7 +2404,7 @@
         <v>1529.9716080000001</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J4" s="7">
         <v>45698</v>
@@ -2535,18 +2531,18 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D16" s="3">
         <v>22</v>
@@ -2564,11 +2560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2598,19 +2594,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2643,7 +2639,7 @@
         <v>10515.011007999999</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2710,7 +2706,7 @@
         <v>991.61418600000002</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J6" s="7">
         <v>45560</v>
@@ -2746,7 +2742,7 @@
         <v>2449.375</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J7" s="7">
         <v>45559</v>
@@ -2839,10 +2835,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" s="5">
         <v>378.9</v>
@@ -2864,7 +2860,7 @@
         <v>47.114727000000002</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J13" s="7">
         <v>45579</v>
@@ -2872,10 +2868,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D14" s="4">
         <v>16.829999999999998</v>
@@ -2897,7 +2893,7 @@
         <v>277.37341600000002</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J14" s="7">
         <v>45635</v>
@@ -2905,10 +2901,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D15" s="5">
         <v>4.18</v>
@@ -2930,7 +2926,7 @@
         <v>153</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J15" s="7">
         <v>45576</v>
@@ -2938,10 +2934,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D16" s="5">
         <v>34</v>
@@ -2963,7 +2959,7 @@
         <v>118.961421</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J16" s="7">
         <v>45579</v>
@@ -2971,10 +2967,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="5">
         <v>16.600000000000001</v>
@@ -2996,7 +2992,7 @@
         <v>426.509592</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J17" s="7">
         <v>45004</v>
@@ -3106,10 +3102,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3135,7 +3131,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B30" t="s">
@@ -3146,7 +3142,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B31" t="s">
@@ -3168,14 +3164,14 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3183,18 +3179,18 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D35" s="5">
         <v>201.73</v>
@@ -3250,34 +3246,34 @@
         <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="P2" s="10">
         <v>2022</v>
@@ -3316,10 +3312,10 @@
         <v>2027</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -3348,7 +3344,7 @@
         <v>245754.91461800001</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I3" s="6">
         <f>+[12]Main!$M$3</f>
@@ -3396,18 +3392,18 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="4">
         <v>145.24</v>
@@ -3425,7 +3421,7 @@
         <v>16260.173184440002</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I8" s="6">
         <f>+[13]Main!$K$3</f>
@@ -3437,10 +3433,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
         <v>237</v>
-      </c>
-      <c r="C9" t="s">
-        <v>239</v>
       </c>
       <c r="D9" s="5">
         <v>31.98</v>
@@ -3448,10 +3444,10 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="5">
         <v>54.16</v>
@@ -3459,47 +3455,47 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" s="5">
         <v>9</v>
@@ -3517,13 +3513,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B3AE1-93C7-4A6B-A7E2-F7A2ABF7DB44}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3567,10 +3563,10 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3604,6 +3600,28 @@
       </c>
       <c r="C7" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3615,7 +3633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3645,34 +3663,34 @@
         <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="P2" s="10">
         <v>2022</v>
@@ -3711,10 +3729,10 @@
         <v>2027</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -3757,7 +3775,7 @@
         <v>224037.14598830999</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4" s="11">
         <f>+[14]Main!$K$3</f>
@@ -3786,10 +3804,10 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -3894,10 +3912,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3905,10 +3923,10 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="4">
         <v>102.04</v>
@@ -3919,10 +3937,10 @@
         <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D18" s="4">
         <v>67.510000000000005</v>
@@ -3940,7 +3958,7 @@
         <v>4105.9160100000008</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I18" s="6">
         <f>+[15]Main!$K$3</f>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C413529-1CE3-45E9-B58A-2F7536E57466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FDBFF-D19D-4D28-99E2-5FDC715F8CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-22995" yWindow="2955" windowWidth="21720" windowHeight="17280" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="264">
   <si>
     <t>Name</t>
   </si>
@@ -846,6 +847,9 @@
   </si>
   <si>
     <t>CCL US</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -1195,6 +1199,40 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>213.16635099999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>607</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>5703</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1291,7 +1329,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="BO33">
+            <v>0.51665847665847664</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2560,11 +2604,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2577,7 +2621,7 @@
     <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="4"/>
     <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2817,196 +2861,218 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="5">
+        <v>201.73</v>
+      </c>
+      <c r="E12" s="6">
+        <f>+D12*H12</f>
+        <v>43002.047987229998</v>
+      </c>
+      <c r="F12" s="6">
+        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
+        <v>-5096</v>
+      </c>
+      <c r="G12" s="6">
+        <f>+E12-F12</f>
+        <v>48098.047987229998</v>
+      </c>
+      <c r="H12" s="6">
+        <f>+[16]Main!$M$3</f>
+        <v>213.16635099999999</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="7">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>81.36</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>17900</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="5">
         <v>378.9</v>
       </c>
-      <c r="E13" s="6">
-        <f>+D13*H13</f>
+      <c r="E14" s="6">
+        <f>+D14*H14</f>
         <v>17851.770060300001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <f>+[7]Main!$L$5-[7]Main!$L$6</f>
         <v>414</v>
       </c>
-      <c r="G13" s="11">
-        <f>+E13-F13</f>
+      <c r="G14" s="11">
+        <f>+E14-F14</f>
         <v>17437.770060300001</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <f>+[7]Main!$L$3</f>
         <v>47.114727000000002</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="7">
         <v>45579</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>16.829999999999998</v>
       </c>
-      <c r="E14" s="6">
-        <f>+D14*H14</f>
+      <c r="E15" s="6">
+        <f>+D15*H15</f>
         <v>4668.1945912800002</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>-1091</v>
       </c>
-      <c r="G14" s="6">
-        <f>+E14-F14</f>
+      <c r="G15" s="6">
+        <f>+E15-F15</f>
         <v>5759.1945912800002</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="6">
         <f>+[8]Main!$K$3</f>
         <v>277.37341600000002</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="7">
         <v>45635</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>4.18</v>
       </c>
-      <c r="E15" s="6">
-        <f>+D15*H15</f>
+      <c r="E16" s="6">
+        <f>+D16*H16</f>
         <v>639.54</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <f>+[9]Main!$N$5-[9]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
-      <c r="G15" s="6">
-        <f>+E15-F15</f>
+      <c r="G16" s="6">
+        <f>+E16-F16</f>
         <v>5259.04</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <f>+[9]Main!$N$3</f>
         <v>153</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J16" s="7">
         <v>45576</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>34</v>
       </c>
-      <c r="E16" s="6">
-        <f>+D16*H16</f>
+      <c r="E17" s="6">
+        <f>+D17*H17</f>
         <v>4044.688314</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <f>+[10]Main!$J$5-[10]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
-      <c r="G16" s="6">
-        <f>+E16-F16</f>
+      <c r="G17" s="6">
+        <f>+E17-F17</f>
         <v>4012.7323139999999</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="6">
         <f>+[10]Main!$J$3</f>
         <v>118.961421</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J17" s="7">
         <v>45579</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="E17" s="6">
-        <f>+D17*H17</f>
+      <c r="E18" s="6">
+        <f>+D18*H18</f>
         <v>7080.0592272000004</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <f>+[11]Main!$M$5-[11]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
-      <c r="G17" s="6">
-        <f>+E17-F17</f>
+      <c r="G18" s="6">
+        <f>+E18-F18</f>
         <v>2910.3592271999996</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <f>+[11]Main!$M$3</f>
         <v>426.509592</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J18" s="7">
         <v>45004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3014,21 +3080,21 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -3036,10 +3102,10 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -3047,10 +3113,10 @@
         <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -3058,32 +3124,32 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>120</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
         <v>129</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -3091,10 +3157,10 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3102,21 +3168,21 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>255</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3124,21 +3190,21 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
         <v>150</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3146,10 +3212,10 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3157,56 +3223,56 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>164</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>195</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>197</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="5">
-        <v>201.73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{8E29E408-92B7-4E37-9198-53481B7F83BA}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{C3C36A7D-B1E9-4732-A549-BF366000E9C6}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{70796680-7A60-48C5-8294-D4A38C34154F}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{4FBC40F9-AC62-4AE5-B25A-9685F7345B9F}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{C30A6629-83A9-4919-885A-7B35F39EA1FA}"/>
-    <hyperlink ref="B16" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{1C284ED8-057E-42EA-A5BB-FD8D43F13B80}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{5707036D-1FF0-49A9-9821-5088FE622C37}"/>
-    <hyperlink ref="B35" r:id="rId9" xr:uid="{C191C04B-CCC4-48CD-9394-3327B6BAFDD1}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{185AEA83-7459-4D4B-A10C-48FF5DB3D4DD}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{1C284ED8-057E-42EA-A5BB-FD8D43F13B80}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{5707036D-1FF0-49A9-9821-5088FE622C37}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{C191C04B-CCC4-48CD-9394-3327B6BAFDD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FDBFF-D19D-4D28-99E2-5FDC715F8CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AB4FF3-5F7D-4E1C-8B40-92F16F0906E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="2955" windowWidth="21720" windowHeight="17280" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="43200" yWindow="2350" windowWidth="20160" windowHeight="12460" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -1006,18 +1006,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
+          <cell r="N3">
+            <v>153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
+          <cell r="N5">
+            <v>705.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
+          <cell r="N6">
+            <v>5325.3</v>
           </cell>
         </row>
       </sheetData>
@@ -1036,28 +1036,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>426.509592</v>
+          <cell r="J3">
+            <v>118.961421</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>4193.1000000000004</v>
+          <cell r="J5">
+            <v>260.92200000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>23.4</v>
+          <cell r="J6">
+            <v>228.96600000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1072,26 +1070,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>717.34324700000002</v>
+            <v>426.509592</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3668</v>
+            <v>4193.1000000000004</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38524</v>
+            <v>23.4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1110,18 +1110,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>114.320581</v>
+          <cell r="M3">
+            <v>717.34324700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>343.74799999999999</v>
+          <cell r="M5">
+            <v>3668</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>38524</v>
           </cell>
         </row>
       </sheetData>
@@ -1145,17 +1145,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>537.02103899999997</v>
+            <v>114.320581</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>15946.7</v>
+            <v>343.74799999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1179,17 +1179,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>58.551000000000002</v>
+            <v>537.02103899999997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>109.03400000000001</v>
+            <v>15946.7</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>262.17200000000003</v>
+            <v>7298</v>
           </cell>
         </row>
       </sheetData>
@@ -1212,18 +1212,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>213.16635099999999</v>
+          <cell r="K3">
+            <v>58.551000000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>607</v>
+          <cell r="K5">
+            <v>109.03400000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>5703</v>
+          <cell r="K6">
+            <v>262.17200000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -1422,18 +1422,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>47.114727000000002</v>
+          <cell r="M3">
+            <v>213.16635099999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>414</v>
+          <cell r="M5">
+            <v>607</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="M6">
+            <v>5703</v>
           </cell>
         </row>
       </sheetData>
@@ -1456,18 +1456,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.37341600000002</v>
+          <cell r="L3">
+            <v>47.114727000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1908</v>
+          <cell r="L5">
+            <v>414</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>2999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1490,18 +1490,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>153</v>
+          <cell r="K3">
+            <v>277.37341600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>705.8</v>
+          <cell r="K5">
+            <v>1908</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>5325.3</v>
+          <cell r="K6">
+            <v>2999</v>
           </cell>
         </row>
       </sheetData>
@@ -1810,11 +1810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2035,7 +2035,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2057,18 +2057,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="5">
+        <v>179.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2351,9 +2354,10 @@
     <hyperlink ref="B41" r:id="rId1" xr:uid="{9FC43ADA-8F9A-4466-B4D9-4A3810ADE6EF}"/>
     <hyperlink ref="B40" r:id="rId2" xr:uid="{290D9583-44B1-409A-BB10-37786A14D5D8}"/>
     <hyperlink ref="B16" r:id="rId3" xr:uid="{6C7452E6-6CF0-4BC9-B0B6-5AB70E0EB896}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{AE9013DC-5F1B-4220-9A0E-6DBD3CC0DC2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2365,7 +2369,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2560,7 +2564,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B14" t="s">
@@ -2604,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2875,7 +2879,7 @@
         <v>43002.047987229998</v>
       </c>
       <c r="F12" s="6">
-        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
+        <f>+[7]Main!$M$5-[7]Main!$M$6</f>
         <v>-5096</v>
       </c>
       <c r="G12" s="6">
@@ -2883,7 +2887,7 @@
         <v>48098.047987229998</v>
       </c>
       <c r="H12" s="6">
-        <f>+[16]Main!$M$3</f>
+        <f>+[7]Main!$M$3</f>
         <v>213.16635099999999</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -2925,7 +2929,7 @@
         <v>17851.770060300001</v>
       </c>
       <c r="F14" s="11">
-        <f>+[7]Main!$L$5-[7]Main!$L$6</f>
+        <f>+[8]Main!$L$5-[8]Main!$L$6</f>
         <v>414</v>
       </c>
       <c r="G14" s="11">
@@ -2933,7 +2937,7 @@
         <v>17437.770060300001</v>
       </c>
       <c r="H14" s="11">
-        <f>+[7]Main!$L$3</f>
+        <f>+[8]Main!$L$3</f>
         <v>47.114727000000002</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2958,7 +2962,7 @@
         <v>4668.1945912800002</v>
       </c>
       <c r="F15" s="6">
-        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
+        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>-1091</v>
       </c>
       <c r="G15" s="6">
@@ -2966,7 +2970,7 @@
         <v>5759.1945912800002</v>
       </c>
       <c r="H15" s="6">
-        <f>+[8]Main!$K$3</f>
+        <f>+[9]Main!$K$3</f>
         <v>277.37341600000002</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2991,7 +2995,7 @@
         <v>639.54</v>
       </c>
       <c r="F16" s="6">
-        <f>+[9]Main!$N$5-[9]Main!$N$6</f>
+        <f>+[10]Main!$N$5-[10]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G16" s="6">
@@ -2999,7 +3003,7 @@
         <v>5259.04</v>
       </c>
       <c r="H16" s="6">
-        <f>+[9]Main!$N$3</f>
+        <f>+[10]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -3024,7 +3028,7 @@
         <v>4044.688314</v>
       </c>
       <c r="F17" s="6">
-        <f>+[10]Main!$J$5-[10]Main!$J$6</f>
+        <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
       <c r="G17" s="6">
@@ -3032,7 +3036,7 @@
         <v>4012.7323139999999</v>
       </c>
       <c r="H17" s="6">
-        <f>+[10]Main!$J$3</f>
+        <f>+[11]Main!$J$3</f>
         <v>118.961421</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -3057,7 +3061,7 @@
         <v>7080.0592272000004</v>
       </c>
       <c r="F18" s="6">
-        <f>+[11]Main!$M$5-[11]Main!$M$6</f>
+        <f>+[12]Main!$M$5-[12]Main!$M$6</f>
         <v>4169.7000000000007</v>
       </c>
       <c r="G18" s="6">
@@ -3065,7 +3069,7 @@
         <v>2910.3592271999996</v>
       </c>
       <c r="H18" s="6">
-        <f>+[11]Main!$M$3</f>
+        <f>+[12]Main!$M$3</f>
         <v>426.509592</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -3402,7 +3406,7 @@
         <v>210898.91461800001</v>
       </c>
       <c r="F3" s="6">
-        <f>+[12]Main!$M$5-[12]Main!$M$6</f>
+        <f>+[13]Main!$M$5-[13]Main!$M$6</f>
         <v>-34856</v>
       </c>
       <c r="G3" s="6">
@@ -3413,7 +3417,7 @@
         <v>211</v>
       </c>
       <c r="I3" s="6">
-        <f>+[12]Main!$M$3</f>
+        <f>+[13]Main!$M$3</f>
         <v>717.34324700000002</v>
       </c>
       <c r="J3" s="7">
@@ -3479,7 +3483,7 @@
         <v>16603.921184440002</v>
       </c>
       <c r="F8" s="6">
-        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
+        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3490,7 +3494,7 @@
         <v>211</v>
       </c>
       <c r="I8" s="6">
-        <f>+[13]Main!$K$3</f>
+        <f>+[14]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
@@ -3833,7 +3837,7 @@
         <v>232685.84598831</v>
       </c>
       <c r="F4" s="11">
-        <f>[14]Main!$K$5-[14]Main!$K$6</f>
+        <f>[15]Main!$K$5-[15]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
       <c r="G4" s="11">
@@ -3844,7 +3848,7 @@
         <v>211</v>
       </c>
       <c r="I4" s="11">
-        <f>+[14]Main!$K$3</f>
+        <f>+[15]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
       <c r="J4" s="13">
@@ -4016,7 +4020,7 @@
         <v>3952.7780100000004</v>
       </c>
       <c r="F18" s="11">
-        <f>+[15]Main!$K$5-[15]Main!$K$6</f>
+        <f>+[16]Main!$K$5-[16]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
       <c r="G18" s="11">
@@ -4027,7 +4031,7 @@
         <v>211</v>
       </c>
       <c r="I18" s="6">
-        <f>+[15]Main!$K$3</f>
+        <f>+[16]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
       <c r="J18" s="7">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AB4FF3-5F7D-4E1C-8B40-92F16F0906E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B13ACB-765F-4CB9-8DD4-5FFEE3A1A4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="2350" windowWidth="20160" windowHeight="12460" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-48030" yWindow="2250" windowWidth="26460" windowHeight="15360" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -1329,13 +1329,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="BO33">
-            <v>0.51665847665847664</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1810,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3703,11 +3697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3967,7 +3961,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B13ACB-765F-4CB9-8DD4-5FFEE3A1A4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3968CE6A-C56A-4EB5-A2C1-56C30504D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48030" yWindow="2250" windowWidth="26460" windowHeight="15360" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-27840" yWindow="765" windowWidth="27150" windowHeight="18675" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,8 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="266">
   <si>
     <t>Name</t>
   </si>
@@ -850,6 +852,12 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Abercrombie</t>
+  </si>
+  <si>
+    <t>ANF</t>
   </si>
 </sst>
 </file>
@@ -1006,18 +1014,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>153</v>
+          <cell r="K3">
+            <v>277.37341600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>705.8</v>
+          <cell r="K5">
+            <v>1908</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>5325.3</v>
+          <cell r="K6">
+            <v>2999</v>
           </cell>
         </row>
       </sheetData>
@@ -1040,18 +1048,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
+          <cell r="N3">
+            <v>153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
+          <cell r="N5">
+            <v>705.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
+          <cell r="N6">
+            <v>5325.3</v>
           </cell>
         </row>
       </sheetData>
@@ -1070,28 +1078,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>426.509592</v>
+          <cell r="J3">
+            <v>118.961421</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>4193.1000000000004</v>
+          <cell r="J5">
+            <v>260.92200000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>23.4</v>
+          <cell r="J6">
+            <v>228.96600000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1106,26 +1112,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>717.34324700000002</v>
+            <v>447.08398099999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3668</v>
+            <v>4774.8999999999996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38524</v>
+            <v>61.9</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1144,18 +1152,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>114.320581</v>
+          <cell r="M3">
+            <v>717.34324700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>343.74799999999999</v>
+          <cell r="M5">
+            <v>3668</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>38524</v>
           </cell>
         </row>
       </sheetData>
@@ -1179,17 +1187,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>537.02103899999997</v>
+            <v>114.320581</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>15946.7</v>
+            <v>343.74799999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1213,6 +1221,40 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
+            <v>537.02103899999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>15946.7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>7298</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
             <v>58.551000000000002</v>
           </cell>
         </row>
@@ -1224,6 +1266,40 @@
         <row r="6">
           <cell r="K6">
             <v>262.17200000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>1371.499838</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>9266</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>44306</v>
           </cell>
         </row>
       </sheetData>
@@ -1315,17 +1391,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10515.011007999999</v>
+            <v>50.372689000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>88051</v>
+            <v>738.87900000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>54890</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1348,18 +1424,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>991.61418600000002</v>
+          <cell r="K3">
+            <v>10515.011007999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4264</v>
+          <cell r="K5">
+            <v>88051</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>42831</v>
+          <cell r="K6">
+            <v>54890</v>
           </cell>
         </row>
       </sheetData>
@@ -1383,17 +1459,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2449.375</v>
+            <v>991.61418600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>1029873</v>
+          <cell r="L5">
+            <v>4264</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>207937</v>
+          <cell r="L6">
+            <v>42831</v>
           </cell>
         </row>
       </sheetData>
@@ -1416,18 +1492,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>213.16635099999999</v>
+          <cell r="L3">
+            <v>2449.375</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>607</v>
+          <cell r="O5">
+            <v>1029873</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>5703</v>
+          <cell r="O6">
+            <v>207937</v>
           </cell>
         </row>
       </sheetData>
@@ -1450,18 +1526,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>47.114727000000002</v>
+          <cell r="M3">
+            <v>213.16635099999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>414</v>
+          <cell r="M5">
+            <v>607</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="M6">
+            <v>5703</v>
           </cell>
         </row>
       </sheetData>
@@ -1484,18 +1560,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.37341600000002</v>
+          <cell r="L3">
+            <v>47.114727000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1908</v>
+          <cell r="L5">
+            <v>414</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>2999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1804,11 +1880,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1865,7 +1941,7 @@
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
@@ -1876,7 +1952,7 @@
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
@@ -1887,11 +1963,36 @@
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>148.46</v>
+      </c>
+      <c r="E6" s="6">
+        <f>+D6*H6</f>
+        <v>203612.86594948001</v>
+      </c>
+      <c r="F6" s="6">
+        <f>+[18]Main!$J$5-[18]Main!$J$6</f>
+        <v>-35040</v>
+      </c>
+      <c r="G6" s="6">
+        <f>+E6-F6</f>
+        <v>238652.86594948001</v>
+      </c>
+      <c r="H6" s="6">
+        <f>+[18]Main!$J$3</f>
+        <v>1371.499838</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="7">
+        <v>45742</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2349,28 +2450,31 @@
     <hyperlink ref="B40" r:id="rId2" xr:uid="{290D9583-44B1-409A-BB10-37786A14D5D8}"/>
     <hyperlink ref="B16" r:id="rId3" xr:uid="{6C7452E6-6CF0-4BC9-B0B6-5AB70E0EB896}"/>
     <hyperlink ref="B19" r:id="rId4" xr:uid="{AE9013DC-5F1B-4220-9A0E-6DBD3CC0DC2C}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{31AA4F3E-3313-4416-A2C8-94B6618C6E0D}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{06C1798F-64F6-416A-A4B6-E9DB78B5A038}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{0F4F31D6-A8F4-41E4-A738-DA0358F626D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:K16"/>
+  <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2590,9 +2694,43 @@
         <v>22</v>
       </c>
     </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17">
+        <v>75.459999999999994</v>
+      </c>
+      <c r="E17" s="11">
+        <f>+D17*H17</f>
+        <v>3801.1231119399999</v>
+      </c>
+      <c r="F17" s="11">
+        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <v>738.87900000000002</v>
+      </c>
+      <c r="G17" s="11">
+        <f>+E17-F17</f>
+        <v>3062.24411194</v>
+      </c>
+      <c r="H17" s="11">
+        <f>+[4]Main!$K$3</f>
+        <v>50.372689000000001</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17" s="13">
+        <v>45742</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{33F17381-BAA7-4FF0-80BE-F4E8EBB9EC8D}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2669,7 +2807,7 @@
         <v>1765470.3482432</v>
       </c>
       <c r="F3" s="6">
-        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
         <v>33161</v>
       </c>
       <c r="G3" s="6">
@@ -2677,7 +2815,7 @@
         <v>1732309.3482432</v>
       </c>
       <c r="H3" s="6">
-        <f>+[4]Main!$K$3</f>
+        <f>+[5]Main!$K$3</f>
         <v>10515.011007999999</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2736,7 +2874,7 @@
         <v>394166.638935</v>
       </c>
       <c r="F6" s="6">
-        <f>+[5]Main!$L$5-[5]Main!$L$6</f>
+        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
         <v>-38567</v>
       </c>
       <c r="G6" s="6">
@@ -2744,7 +2882,7 @@
         <v>432733.638935</v>
       </c>
       <c r="H6" s="6">
-        <f>+[5]Main!$L$3</f>
+        <f>+[6]Main!$L$3</f>
         <v>991.61418600000002</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2772,7 +2910,7 @@
         <v>234233.73124999998</v>
       </c>
       <c r="F7" s="6">
-        <f>([6]Main!$O$5-[6]Main!$O$6)/7</f>
+        <f>([7]Main!$O$5-[7]Main!$O$6)/7</f>
         <v>117419.42857142857</v>
       </c>
       <c r="G7" s="6">
@@ -2780,7 +2918,7 @@
         <v>116814.30267857142</v>
       </c>
       <c r="H7" s="6">
-        <f>+[6]Main!$L$3</f>
+        <f>+[7]Main!$L$3</f>
         <v>2449.375</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2873,7 +3011,7 @@
         <v>43002.047987229998</v>
       </c>
       <c r="F12" s="6">
-        <f>+[7]Main!$M$5-[7]Main!$M$6</f>
+        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
         <v>-5096</v>
       </c>
       <c r="G12" s="6">
@@ -2881,7 +3019,7 @@
         <v>48098.047987229998</v>
       </c>
       <c r="H12" s="6">
-        <f>+[7]Main!$M$3</f>
+        <f>+[8]Main!$M$3</f>
         <v>213.16635099999999</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -2923,7 +3061,7 @@
         <v>17851.770060300001</v>
       </c>
       <c r="F14" s="11">
-        <f>+[8]Main!$L$5-[8]Main!$L$6</f>
+        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
         <v>414</v>
       </c>
       <c r="G14" s="11">
@@ -2931,7 +3069,7 @@
         <v>17437.770060300001</v>
       </c>
       <c r="H14" s="11">
-        <f>+[8]Main!$L$3</f>
+        <f>+[9]Main!$L$3</f>
         <v>47.114727000000002</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2956,7 +3094,7 @@
         <v>4668.1945912800002</v>
       </c>
       <c r="F15" s="6">
-        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>-1091</v>
       </c>
       <c r="G15" s="6">
@@ -2964,7 +3102,7 @@
         <v>5759.1945912800002</v>
       </c>
       <c r="H15" s="6">
-        <f>+[9]Main!$K$3</f>
+        <f>+[10]Main!$K$3</f>
         <v>277.37341600000002</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2989,7 +3127,7 @@
         <v>639.54</v>
       </c>
       <c r="F16" s="6">
-        <f>+[10]Main!$N$5-[10]Main!$N$6</f>
+        <f>+[11]Main!$N$5-[11]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G16" s="6">
@@ -2997,7 +3135,7 @@
         <v>5259.04</v>
       </c>
       <c r="H16" s="6">
-        <f>+[10]Main!$N$3</f>
+        <f>+[11]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -3022,7 +3160,7 @@
         <v>4044.688314</v>
       </c>
       <c r="F17" s="6">
-        <f>+[11]Main!$J$5-[11]Main!$J$6</f>
+        <f>+[12]Main!$J$5-[12]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
       <c r="G17" s="6">
@@ -3030,7 +3168,7 @@
         <v>4012.7323139999999</v>
       </c>
       <c r="H17" s="6">
-        <f>+[11]Main!$J$3</f>
+        <f>+[12]Main!$J$3</f>
         <v>118.961421</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -3052,19 +3190,19 @@
       </c>
       <c r="E18" s="6">
         <f>+D18*H18</f>
-        <v>7080.0592272000004</v>
+        <v>7421.5940846000003</v>
       </c>
       <c r="F18" s="6">
-        <f>+[12]Main!$M$5-[12]Main!$M$6</f>
-        <v>4169.7000000000007</v>
+        <f>+[13]Main!$M$5-[13]Main!$M$6</f>
+        <v>4713</v>
       </c>
       <c r="G18" s="6">
         <f>+E18-F18</f>
-        <v>2910.3592271999996</v>
+        <v>2708.5940846000003</v>
       </c>
       <c r="H18" s="6">
-        <f>+[12]Main!$M$3</f>
-        <v>426.509592</v>
+        <f>+[13]Main!$M$3</f>
+        <v>447.08398099999999</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>190</v>
@@ -3400,7 +3538,7 @@
         <v>210898.91461800001</v>
       </c>
       <c r="F3" s="6">
-        <f>+[13]Main!$M$5-[13]Main!$M$6</f>
+        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
         <v>-34856</v>
       </c>
       <c r="G3" s="6">
@@ -3411,7 +3549,7 @@
         <v>211</v>
       </c>
       <c r="I3" s="6">
-        <f>+[13]Main!$M$3</f>
+        <f>+[14]Main!$M$3</f>
         <v>717.34324700000002</v>
       </c>
       <c r="J3" s="7">
@@ -3477,7 +3615,7 @@
         <v>16603.921184440002</v>
       </c>
       <c r="F8" s="6">
-        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
+        <f>+[15]Main!$K$5-[15]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3488,7 +3626,7 @@
         <v>211</v>
       </c>
       <c r="I8" s="6">
-        <f>+[14]Main!$K$3</f>
+        <f>+[15]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
@@ -3697,11 +3835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3831,7 +3969,7 @@
         <v>232685.84598831</v>
       </c>
       <c r="F4" s="11">
-        <f>[15]Main!$K$5-[15]Main!$K$6</f>
+        <f>[16]Main!$K$5-[16]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
       <c r="G4" s="11">
@@ -3842,7 +3980,7 @@
         <v>211</v>
       </c>
       <c r="I4" s="11">
-        <f>+[15]Main!$K$3</f>
+        <f>+[16]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
       <c r="J4" s="13">
@@ -4014,7 +4152,7 @@
         <v>3952.7780100000004</v>
       </c>
       <c r="F18" s="11">
-        <f>+[16]Main!$K$5-[16]Main!$K$6</f>
+        <f>+[17]Main!$K$5-[17]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
       <c r="G18" s="11">
@@ -4025,7 +4163,7 @@
         <v>211</v>
       </c>
       <c r="I18" s="6">
-        <f>+[16]Main!$K$3</f>
+        <f>+[17]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
       <c r="J18" s="7">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3968CE6A-C56A-4EB5-A2C1-56C30504D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898B531-82AD-4688-BFD0-0696BD09F658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="765" windowWidth="27150" windowHeight="18675" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="46500" yWindow="5660" windowWidth="21420" windowHeight="16260" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -980,18 +980,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>983</v>
+          <cell r="J3">
+            <v>1371.499838</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>2632.127</v>
+          <cell r="J5">
+            <v>9266</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>748.84199999999998</v>
+          <cell r="J6">
+            <v>44306</v>
           </cell>
         </row>
       </sheetData>
@@ -1014,18 +1014,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.37341600000002</v>
+          <cell r="L3">
+            <v>47.114727000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1908</v>
+          <cell r="L5">
+            <v>414</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>2999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1048,18 +1048,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>153</v>
+          <cell r="K3">
+            <v>277.37341600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>705.8</v>
+          <cell r="K5">
+            <v>1908</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>5325.3</v>
+          <cell r="K6">
+            <v>2999</v>
           </cell>
         </row>
       </sheetData>
@@ -1082,18 +1082,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
+          <cell r="N3">
+            <v>153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
+          <cell r="N5">
+            <v>705.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
+          <cell r="N6">
+            <v>5325.3</v>
           </cell>
         </row>
       </sheetData>
@@ -1112,28 +1112,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>447.08398099999999</v>
+          <cell r="J3">
+            <v>118.961421</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>4774.8999999999996</v>
+          <cell r="J5">
+            <v>260.92200000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>61.9</v>
+          <cell r="J6">
+            <v>228.96600000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1148,26 +1146,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>717.34324700000002</v>
+            <v>447.08398099999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3668</v>
+            <v>4774.8999999999996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38524</v>
+            <v>61.9</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1186,18 +1186,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>114.320581</v>
+          <cell r="M3">
+            <v>717.34324700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>343.74799999999999</v>
+          <cell r="M5">
+            <v>3668</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>38524</v>
           </cell>
         </row>
       </sheetData>
@@ -1221,17 +1221,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>537.02103899999997</v>
+            <v>114.320581</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>15946.7</v>
+            <v>343.74799999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1255,17 +1255,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>58.551000000000002</v>
+            <v>537.02103899999997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>109.03400000000001</v>
+            <v>15946.7</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>262.17200000000003</v>
+            <v>7298</v>
           </cell>
         </row>
       </sheetData>
@@ -1288,18 +1288,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>1371.499838</v>
+          <cell r="K3">
+            <v>58.551000000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>9266</v>
+          <cell r="K5">
+            <v>109.03400000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>44306</v>
+          <cell r="K6">
+            <v>262.17200000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -1322,18 +1322,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>235.031452</v>
+          <cell r="M3">
+            <v>983</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>904</v>
+          <cell r="M5">
+            <v>2632.127</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>748.84199999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -1356,18 +1356,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>1529.9716080000001</v>
+          <cell r="K3">
+            <v>235.031452</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>10675</v>
+          <cell r="K5">
+            <v>904</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>8933</v>
+          <cell r="K6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1390,18 +1390,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>50.372689000000001</v>
+          <cell r="L3">
+            <v>1529.9716080000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>738.87900000000002</v>
+          <cell r="L5">
+            <v>10675</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="L6">
+            <v>8933</v>
           </cell>
         </row>
       </sheetData>
@@ -1425,17 +1425,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10515.011007999999</v>
+            <v>50.372689000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>88051</v>
+            <v>738.87900000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>54890</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1458,18 +1458,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>991.61418600000002</v>
+          <cell r="K3">
+            <v>10515.011007999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4264</v>
+          <cell r="K5">
+            <v>88051</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>42831</v>
+          <cell r="K6">
+            <v>54890</v>
           </cell>
         </row>
       </sheetData>
@@ -1493,17 +1493,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2449.375</v>
+            <v>991.61418600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>1029873</v>
+          <cell r="L5">
+            <v>4264</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>207937</v>
+          <cell r="L6">
+            <v>42831</v>
           </cell>
         </row>
       </sheetData>
@@ -1526,18 +1526,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>213.16635099999999</v>
+          <cell r="L3">
+            <v>2449.375</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>607</v>
+          <cell r="O5">
+            <v>1029873</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>5703</v>
+          <cell r="O6">
+            <v>207937</v>
           </cell>
         </row>
       </sheetData>
@@ -1560,18 +1560,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>47.114727000000002</v>
+          <cell r="M3">
+            <v>213.16635099999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>414</v>
+          <cell r="M5">
+            <v>607</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="M6">
+            <v>5703</v>
           </cell>
         </row>
       </sheetData>
@@ -1884,20 +1884,20 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>203612.86594948001</v>
       </c>
       <c r="F6" s="6">
-        <f>+[18]Main!$J$5-[18]Main!$J$6</f>
+        <f>+[1]Main!$J$5-[1]Main!$J$6</f>
         <v>-35040</v>
       </c>
       <c r="G6" s="6">
@@ -1985,7 +1985,7 @@
         <v>238652.86594948001</v>
       </c>
       <c r="H6" s="6">
-        <f>+[18]Main!$J$3</f>
+        <f>+[1]Main!$J$3</f>
         <v>1371.499838</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1995,7 +1995,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2039,8 +2039,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
@@ -2050,7 +2050,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2061,8 +2061,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
@@ -2072,7 +2072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>45915.93</v>
       </c>
       <c r="F16" s="6">
-        <f>[1]Main!$M$5-[1]Main!$M$6</f>
+        <f>[2]Main!$M$5-[2]Main!$M$6</f>
         <v>1883.2849999999999</v>
       </c>
       <c r="G16" s="6">
@@ -2120,7 +2120,7 @@
         <v>44032.645000000004</v>
       </c>
       <c r="H16" s="4">
-        <f>[1]Main!$M$3</f>
+        <f>[2]Main!$M$3</f>
         <v>983</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -2130,7 +2130,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>179.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>65</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>216</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>5302.3095571200001</v>
       </c>
       <c r="F40" s="6">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <f>+[3]Main!$K$5-[3]Main!$K$6</f>
         <v>904</v>
       </c>
       <c r="G40" s="6">
@@ -2409,7 +2409,7 @@
         <v>4398.3095571200001</v>
       </c>
       <c r="H40" s="6">
-        <f>+[2]Main!$K$3</f>
+        <f>+[3]Main!$K$3</f>
         <v>235.031452</v>
       </c>
       <c r="I40" s="7" t="s">
@@ -2419,7 +2419,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>213</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>65</v>
       </c>
@@ -2470,14 +2470,14 @@
       <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>108199.59211776</v>
       </c>
       <c r="F4" s="11">
-        <f>+[3]Main!$L$5-[3]Main!$L$6</f>
+        <f>+[4]Main!$L$5-[4]Main!$L$6</f>
         <v>1742</v>
       </c>
       <c r="G4" s="11">
@@ -2546,7 +2546,7 @@
         <v>106457.59211776</v>
       </c>
       <c r="H4" s="11">
-        <f>+[3]Main!$L$3</f>
+        <f>+[4]Main!$L$3</f>
         <v>1529.9716080000001</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -2556,7 +2556,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>208</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>264</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>3801.1231119399999</v>
       </c>
       <c r="F17" s="11">
-        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
         <v>738.87900000000002</v>
       </c>
       <c r="G17" s="11">
@@ -2717,7 +2717,7 @@
         <v>3062.24411194</v>
       </c>
       <c r="H17" s="11">
-        <f>+[4]Main!$K$3</f>
+        <f>+[5]Main!$K$3</f>
         <v>50.372689000000001</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -2747,20 +2747,20 @@
       <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="4"/>
+    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="4"/>
+    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="11.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>1765470.3482432</v>
       </c>
       <c r="F3" s="6">
-        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
+        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
         <v>33161</v>
       </c>
       <c r="G3" s="6">
@@ -2815,14 +2815,14 @@
         <v>1732309.3482432</v>
       </c>
       <c r="H3" s="6">
-        <f>+[5]Main!$K$3</f>
+        <f>+[6]Main!$K$3</f>
         <v>10515.011007999999</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>394166.638935</v>
       </c>
       <c r="F6" s="6">
-        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
+        <f>+[7]Main!$L$5-[7]Main!$L$6</f>
         <v>-38567</v>
       </c>
       <c r="G6" s="6">
@@ -2882,7 +2882,7 @@
         <v>432733.638935</v>
       </c>
       <c r="H6" s="6">
-        <f>+[6]Main!$L$3</f>
+        <f>+[7]Main!$L$3</f>
         <v>991.61418600000002</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2892,7 +2892,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>234233.73124999998</v>
       </c>
       <c r="F7" s="6">
-        <f>([7]Main!$O$5-[7]Main!$O$6)/7</f>
+        <f>([8]Main!$O$5-[8]Main!$O$6)/7</f>
         <v>117419.42857142857</v>
       </c>
       <c r="G7" s="6">
@@ -2918,7 +2918,7 @@
         <v>116814.30267857142</v>
       </c>
       <c r="H7" s="6">
-        <f>+[7]Main!$L$3</f>
+        <f>+[8]Main!$L$3</f>
         <v>2449.375</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2928,7 +2928,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>43002.047987229998</v>
       </c>
       <c r="F12" s="6">
-        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
+        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
         <v>-5096</v>
       </c>
       <c r="G12" s="6">
@@ -3019,7 +3019,7 @@
         <v>48098.047987229998</v>
       </c>
       <c r="H12" s="6">
-        <f>+[8]Main!$M$3</f>
+        <f>+[9]Main!$M$3</f>
         <v>213.16635099999999</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -3029,7 +3029,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>228</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>17851.770060300001</v>
       </c>
       <c r="F14" s="11">
-        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>414</v>
       </c>
       <c r="G14" s="11">
@@ -3069,7 +3069,7 @@
         <v>17437.770060300001</v>
       </c>
       <c r="H14" s="11">
-        <f>+[9]Main!$L$3</f>
+        <f>+[10]Main!$L$3</f>
         <v>47.114727000000002</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -3079,7 +3079,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>232</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>4668.1945912800002</v>
       </c>
       <c r="F15" s="6">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>-1091</v>
       </c>
       <c r="G15" s="6">
@@ -3102,7 +3102,7 @@
         <v>5759.1945912800002</v>
       </c>
       <c r="H15" s="6">
-        <f>+[10]Main!$K$3</f>
+        <f>+[11]Main!$K$3</f>
         <v>277.37341600000002</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -3112,7 +3112,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>189</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>639.54</v>
       </c>
       <c r="F16" s="6">
-        <f>+[11]Main!$N$5-[11]Main!$N$6</f>
+        <f>+[12]Main!$N$5-[12]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G16" s="6">
@@ -3135,7 +3135,7 @@
         <v>5259.04</v>
       </c>
       <c r="H16" s="6">
-        <f>+[11]Main!$N$3</f>
+        <f>+[12]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -3145,7 +3145,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>230</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>4044.688314</v>
       </c>
       <c r="F17" s="6">
-        <f>+[12]Main!$J$5-[12]Main!$J$6</f>
+        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
       <c r="G17" s="6">
@@ -3168,7 +3168,7 @@
         <v>4012.7323139999999</v>
       </c>
       <c r="H17" s="6">
-        <f>+[12]Main!$J$3</f>
+        <f>+[13]Main!$J$3</f>
         <v>118.961421</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -3178,7 +3178,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>182</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>7421.5940846000003</v>
       </c>
       <c r="F18" s="6">
-        <f>+[13]Main!$M$5-[13]Main!$M$6</f>
+        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
         <v>4713</v>
       </c>
       <c r="G18" s="6">
@@ -3201,7 +3201,7 @@
         <v>2708.5940846000003</v>
       </c>
       <c r="H18" s="6">
-        <f>+[13]Main!$M$3</f>
+        <f>+[14]Main!$M$3</f>
         <v>447.08398099999999</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -3211,7 +3211,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>65</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>65</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>65</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3425,16 +3425,16 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>210898.91461800001</v>
       </c>
       <c r="F3" s="6">
-        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
+        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
         <v>-34856</v>
       </c>
       <c r="G3" s="6">
@@ -3549,14 +3549,14 @@
         <v>211</v>
       </c>
       <c r="I3" s="6">
-        <f>+[14]Main!$M$3</f>
+        <f>+[15]Main!$M$3</f>
         <v>717.34324700000002</v>
       </c>
       <c r="J3" s="7">
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>226</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>16603.921184440002</v>
       </c>
       <c r="F8" s="6">
-        <f>+[15]Main!$K$5-[15]Main!$K$6</f>
+        <f>+[16]Main!$K$5-[16]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3626,14 +3626,14 @@
         <v>211</v>
       </c>
       <c r="I8" s="6">
-        <f>+[15]Main!$K$3</f>
+        <f>+[16]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>236</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>238</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>239</v>
       </c>
@@ -3671,12 +3671,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>243</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>246</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>248</v>
       </c>
@@ -3724,18 +3724,18 @@
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3842,16 +3842,16 @@
       <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>232685.84598831</v>
       </c>
       <c r="F4" s="11">
-        <f>[16]Main!$K$5-[16]Main!$K$6</f>
+        <f>[17]Main!$K$5-[17]Main!$K$6</f>
         <v>8648.7000000000007</v>
       </c>
       <c r="G4" s="11">
@@ -3980,14 +3980,14 @@
         <v>211</v>
       </c>
       <c r="I4" s="11">
-        <f>+[16]Main!$K$3</f>
+        <f>+[17]Main!$K$3</f>
         <v>537.02103899999997</v>
       </c>
       <c r="J4" s="13">
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>3952.7780100000004</v>
       </c>
       <c r="F18" s="11">
-        <f>+[17]Main!$K$5-[17]Main!$K$6</f>
+        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
       <c r="G18" s="11">
@@ -4163,7 +4163,7 @@
         <v>211</v>
       </c>
       <c r="I18" s="6">
-        <f>+[17]Main!$K$3</f>
+        <f>+[18]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
       <c r="J18" s="7">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898B531-82AD-4688-BFD0-0696BD09F658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90CFB78-C665-4E63-A803-4511AC660696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46500" yWindow="5660" windowWidth="21420" windowHeight="16260" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-27960" yWindow="1065" windowWidth="27045" windowHeight="15480" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="267">
   <si>
     <t>Name</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>ANF</t>
+  </si>
+  <si>
+    <t>Anta Sports</t>
   </si>
 </sst>
 </file>
@@ -1255,17 +1258,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>537.02103899999997</v>
+            <v>536.07843100000002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>15946.7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>-4442.7</v>
           </cell>
         </row>
       </sheetData>
@@ -1880,24 +1883,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2050,7 +2053,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>179.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>65</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>216</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>213</v>
       </c>
@@ -2433,7 +2436,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>65</v>
       </c>
@@ -2461,23 +2464,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2672,65 +2675,77 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
         <v>203</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>208</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>265</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>75.459999999999994</v>
       </c>
-      <c r="E17" s="11">
-        <f>+D17*H17</f>
+      <c r="E18" s="11">
+        <f>+D18*H18</f>
         <v>3801.1231119399999</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <f>+[5]Main!$K$5-[5]Main!$K$6</f>
         <v>738.87900000000002</v>
       </c>
-      <c r="G17" s="11">
-        <f>+E17-F17</f>
+      <c r="G18" s="11">
+        <f>+E18-F18</f>
         <v>3062.24411194</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="11">
         <f>+[5]Main!$K$3</f>
         <v>50.372689000000001</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>45742</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{33F17381-BAA7-4FF0-80BE-F4E8EBB9EC8D}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2747,20 +2762,20 @@
       <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="4"/>
-    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="4"/>
-    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="11.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2804,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2822,7 +2837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2856,7 +2871,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2892,7 +2907,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2928,7 +2943,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2945,7 +2960,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2962,7 +2977,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2979,7 +2994,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2996,7 +3011,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -3029,7 +3044,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3046,7 +3061,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>228</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>232</v>
       </c>
@@ -3112,7 +3127,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>189</v>
       </c>
@@ -3145,7 +3160,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>230</v>
       </c>
@@ -3178,7 +3193,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>182</v>
       </c>
@@ -3211,7 +3226,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -3222,7 +3237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3233,7 +3248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -3244,7 +3259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -3266,7 +3281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>65</v>
       </c>
@@ -3277,7 +3292,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3288,7 +3303,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>65</v>
       </c>
@@ -3299,7 +3314,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -3310,7 +3325,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -3321,7 +3336,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3332,7 +3347,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3343,7 +3358,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
@@ -3354,7 +3369,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
@@ -3365,7 +3380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>65</v>
       </c>
@@ -3376,7 +3391,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
@@ -3387,7 +3402,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3425,16 +3440,16 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3535,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3556,7 +3571,7 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3567,7 +3582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -3578,7 +3593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3589,7 +3604,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3600,7 +3615,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>226</v>
       </c>
@@ -3633,7 +3648,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -3644,7 +3659,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>236</v>
       </c>
@@ -3655,7 +3670,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>238</v>
       </c>
@@ -3663,7 +3678,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>239</v>
       </c>
@@ -3671,12 +3686,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>243</v>
       </c>
@@ -3684,7 +3699,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>246</v>
       </c>
@@ -3692,7 +3707,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>248</v>
       </c>
@@ -3724,18 +3739,18 @@
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3760,7 +3775,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3771,7 +3786,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3782,7 +3797,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3793,7 +3808,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3804,7 +3819,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3815,7 +3830,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3842,16 +3857,16 @@
       <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3952,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3951,7 +3966,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3966,28 +3981,28 @@
       </c>
       <c r="E4" s="6">
         <f>+D4*I4*1.1</f>
-        <v>232685.84598831</v>
+        <v>232277.42336799004</v>
       </c>
       <c r="F4" s="11">
         <f>[17]Main!$K$5-[17]Main!$K$6</f>
-        <v>8648.7000000000007</v>
+        <v>4442.7</v>
       </c>
       <c r="G4" s="11">
         <f>+E4-F4</f>
-        <v>224037.14598830999</v>
+        <v>227834.72336799002</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="11">
         <f>+[17]Main!$K$3</f>
-        <v>537.02103899999997</v>
+        <v>536.07843100000002</v>
       </c>
       <c r="J4" s="13">
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -4001,7 +4016,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -4012,7 +4027,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -4023,7 +4038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -4034,7 +4049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -4048,7 +4063,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -4062,7 +4077,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -4076,7 +4091,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -4087,7 +4102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -4098,7 +4113,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -4109,7 +4124,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -4120,7 +4135,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -4134,7 +4149,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90CFB78-C665-4E63-A803-4511AC660696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF04B6-F414-46B9-90AE-2C7E76BC8555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="1065" windowWidth="27045" windowHeight="15480" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="7020" yWindow="1140" windowWidth="21345" windowHeight="14220" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="277">
   <si>
     <t>Name</t>
   </si>
@@ -584,9 +585,6 @@
     <t>BEI GR</t>
   </si>
   <si>
-    <t>Kellogg</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -861,6 +859,39 @@
   </si>
   <si>
     <t>Anta Sports</t>
+  </si>
+  <si>
+    <t>Aristocrat</t>
+  </si>
+  <si>
+    <t>ALL AU</t>
+  </si>
+  <si>
+    <t>Imperial Brands</t>
+  </si>
+  <si>
+    <t>IMB LN</t>
+  </si>
+  <si>
+    <t>DSM-Firmenich</t>
+  </si>
+  <si>
+    <t>DSFIR NA</t>
+  </si>
+  <si>
+    <t>Fomento Economico Mexica</t>
+  </si>
+  <si>
+    <t>FEMSAUBD MM Equity</t>
+  </si>
+  <si>
+    <t>Kellanova</t>
+  </si>
+  <si>
+    <t>Crox</t>
+  </si>
+  <si>
+    <t>CROX</t>
   </si>
 </sst>
 </file>
@@ -1307,6 +1338,40 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>56.056159000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>180.48500000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>1349.3389999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1881,13 +1946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
-  <dimension ref="A2:J42"/>
+  <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1914,19 +1979,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1992,7 +2057,7 @@
         <v>1371.499838</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J6" s="7">
         <v>45742</v>
@@ -2028,7 +2093,7 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2127,14 +2192,14 @@
         <v>983</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J16" s="7">
         <v>45698</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B17" t="s">
@@ -2156,7 +2221,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2203,7 +2268,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B23" t="s">
@@ -2324,25 +2389,25 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" t="s">
         <v>174</v>
       </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2350,10 +2415,10 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2361,96 +2426,107 @@
         <v>65</v>
       </c>
       <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
         <v>199</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C39" t="s">
         <v>201</v>
       </c>
-      <c r="C38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
         <v>205</v>
       </c>
-      <c r="C39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
         <v>216</v>
       </c>
-      <c r="C40" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="D41" s="5">
         <v>22.56</v>
       </c>
-      <c r="E40" s="6">
-        <f>+D40*H40</f>
+      <c r="E41" s="6">
+        <f>+D41*H41</f>
         <v>5302.3095571200001</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <f>+[3]Main!$K$5-[3]Main!$K$6</f>
         <v>904</v>
       </c>
-      <c r="G40" s="6">
-        <f>+E40-F40</f>
+      <c r="G41" s="6">
+        <f>+E41-F41</f>
         <v>4398.3095571200001</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H41" s="6">
         <f>+[3]Main!$K$3</f>
         <v>235.031452</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J40" s="7">
+      <c r="I41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="7">
         <v>45332</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="s">
         <v>213</v>
       </c>
-      <c r="C41" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>0.85</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" xr:uid="{9FC43ADA-8F9A-4466-B4D9-4A3810ADE6EF}"/>
-    <hyperlink ref="B40" r:id="rId2" xr:uid="{290D9583-44B1-409A-BB10-37786A14D5D8}"/>
+    <hyperlink ref="B42" r:id="rId1" xr:uid="{9FC43ADA-8F9A-4466-B4D9-4A3810ADE6EF}"/>
+    <hyperlink ref="B41" r:id="rId2" xr:uid="{290D9583-44B1-409A-BB10-37786A14D5D8}"/>
     <hyperlink ref="B16" r:id="rId3" xr:uid="{6C7452E6-6CF0-4BC9-B0B6-5AB70E0EB896}"/>
     <hyperlink ref="B19" r:id="rId4" xr:uid="{AE9013DC-5F1B-4220-9A0E-6DBD3CC0DC2C}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{31AA4F3E-3313-4416-A2C8-94B6618C6E0D}"/>
@@ -2464,13 +2540,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2494,22 +2570,22 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2553,7 +2629,7 @@
         <v>1529.9716080000001</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J4" s="7">
         <v>45698</v>
@@ -2669,10 +2745,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2680,7 +2756,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
         <v>149</v>
@@ -2692,60 +2768,94 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
         <v>203</v>
       </c>
-      <c r="C16" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17">
+        <v>90.73</v>
+      </c>
+      <c r="E17" s="11">
+        <f>+D17*H17</f>
+        <v>5085.9753060700004</v>
+      </c>
+      <c r="F17" s="11">
+        <f>+[19]Main!$J$5-[19]Main!$J$6</f>
+        <v>-1168.8539999999998</v>
+      </c>
+      <c r="G17" s="11">
+        <f>+E17-F17</f>
+        <v>6254.8293060699998</v>
+      </c>
+      <c r="H17" s="11">
+        <f>+[19]Main!$J$3</f>
+        <v>56.056159000000001</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" s="13">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
         <v>208</v>
       </c>
-      <c r="C17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" t="s">
         <v>264</v>
       </c>
-      <c r="C18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18">
+      <c r="D19">
         <v>75.459999999999994</v>
       </c>
-      <c r="E18" s="11">
-        <f>+D18*H18</f>
+      <c r="E19" s="11">
+        <f>+D19*H19</f>
         <v>3801.1231119399999</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <f>+[5]Main!$K$5-[5]Main!$K$6</f>
         <v>738.87900000000002</v>
       </c>
-      <c r="G18" s="11">
-        <f>+E18-F18</f>
+      <c r="G19" s="11">
+        <f>+E19-F19</f>
         <v>3062.24411194</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <f>+[5]Main!$K$3</f>
         <v>50.372689000000001</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="I19" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" s="13">
         <v>45742</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{33F17381-BAA7-4FF0-80BE-F4E8EBB9EC8D}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{5226F439-7652-42C9-BB1E-9C5F947616D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2755,11 +2865,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2789,19 +2899,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2834,7 +2944,7 @@
         <v>10515.011007999999</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2901,7 +3011,7 @@
         <v>991.61418600000002</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J6" s="7">
         <v>45560</v>
@@ -2937,7 +3047,7 @@
         <v>2449.375</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J7" s="7">
         <v>45559</v>
@@ -3013,10 +3123,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
         <v>249</v>
-      </c>
-      <c r="C12" t="s">
-        <v>250</v>
       </c>
       <c r="D12" s="5">
         <v>201.73</v>
@@ -3038,7 +3148,7 @@
         <v>213.16635099999999</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J12" s="7">
         <v>45734</v>
@@ -3063,10 +3173,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" t="s">
         <v>228</v>
-      </c>
-      <c r="C14" t="s">
-        <v>229</v>
       </c>
       <c r="D14" s="5">
         <v>378.9</v>
@@ -3088,7 +3198,7 @@
         <v>47.114727000000002</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J14" s="7">
         <v>45579</v>
@@ -3096,10 +3206,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="s">
         <v>232</v>
-      </c>
-      <c r="C15" t="s">
-        <v>233</v>
       </c>
       <c r="D15" s="4">
         <v>16.829999999999998</v>
@@ -3121,7 +3231,7 @@
         <v>277.37341600000002</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J15" s="7">
         <v>45635</v>
@@ -3129,10 +3239,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="5">
         <v>4.18</v>
@@ -3154,7 +3264,7 @@
         <v>153</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J16" s="7">
         <v>45576</v>
@@ -3162,10 +3272,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
         <v>230</v>
-      </c>
-      <c r="C17" t="s">
-        <v>231</v>
       </c>
       <c r="D17" s="5">
         <v>34</v>
@@ -3187,7 +3297,7 @@
         <v>118.961421</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J17" s="7">
         <v>45579</v>
@@ -3195,10 +3305,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
         <v>182</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
       </c>
       <c r="D18" s="5">
         <v>16.600000000000001</v>
@@ -3220,7 +3330,7 @@
         <v>447.08398099999999</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J18" s="7">
         <v>45004</v>
@@ -3330,14 +3440,14 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" t="s">
         <v>255</v>
       </c>
-      <c r="C28" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B29" t="s">
@@ -3396,21 +3506,21 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
         <v>195</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>197</v>
-      </c>
-      <c r="C35" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3437,7 +3547,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3463,34 +3573,34 @@
         <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="P2" s="10">
         <v>2022</v>
@@ -3529,10 +3639,10 @@
         <v>2027</v>
       </c>
       <c r="AB2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -3561,7 +3671,7 @@
         <v>245754.91461800001</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I3" s="6">
         <f>+[15]Main!$M$3</f>
@@ -3605,22 +3715,22 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
         <v>180</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s">
         <v>226</v>
-      </c>
-      <c r="C8" t="s">
-        <v>227</v>
       </c>
       <c r="D8" s="4">
         <v>145.24</v>
@@ -3638,7 +3748,7 @@
         <v>16260.173184440002</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I8" s="6">
         <f>+[16]Main!$K$3</f>
@@ -3650,10 +3760,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="5">
         <v>31.98</v>
@@ -3661,10 +3771,10 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="5">
         <v>54.16</v>
@@ -3672,47 +3782,47 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" t="s">
         <v>239</v>
-      </c>
-      <c r="C12" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
         <v>243</v>
-      </c>
-      <c r="C14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" s="5">
         <v>9</v>
@@ -3730,13 +3840,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B3AE1-93C7-4A6B-A7E2-F7A2ABF7DB44}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3780,10 +3890,10 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
         <v>253</v>
-      </c>
-      <c r="C4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3798,7 +3908,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
@@ -3824,10 +3934,10 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3835,10 +3945,21 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
         <v>260</v>
       </c>
-      <c r="C9" t="s">
-        <v>261</v>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3848,13 +3969,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="A2:AC18"/>
+  <dimension ref="A2:AC19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3880,34 +4001,34 @@
         <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="P2" s="10">
         <v>2022</v>
@@ -3946,10 +4067,10 @@
         <v>2027</v>
       </c>
       <c r="AB2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -3992,7 +4113,7 @@
         <v>227834.72336799002</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I4" s="11">
         <f>+[17]Main!$K$3</f>
@@ -4021,10 +4142,10 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
         <v>257</v>
-      </c>
-      <c r="C6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -4091,6 +4212,17 @@
         <v>102.37</v>
       </c>
     </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+    </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
@@ -4129,65 +4261,76 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" t="s">
         <v>251</v>
       </c>
-      <c r="C16" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="4">
-        <v>102.04</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>219</v>
+      <c r="B18" t="s">
+        <v>190</v>
       </c>
       <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="4">
+        <v>102.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="4">
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="4">
         <v>67.510000000000005</v>
       </c>
-      <c r="E18" s="6">
-        <f>+D18*I18</f>
+      <c r="E19" s="6">
+        <f>+D19*I19</f>
         <v>3952.7780100000004</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <f>+[18]Main!$K$5-[18]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
-      <c r="G18" s="11">
-        <f>+E18-F18</f>
+      <c r="G19" s="11">
+        <f>+E19-F19</f>
         <v>4105.9160100000008</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="H19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="6">
         <f>+[18]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="7">
         <v>45719</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{489ED1A3-D908-4C0E-AB16-E996DF3BF813}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF04B6-F414-46B9-90AE-2C7E76BC8555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DAED6F-5D0B-4828-A402-8AF02D257BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1140" windowWidth="21345" windowHeight="14220" activeTab="1" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="279">
   <si>
     <t>Name</t>
   </si>
@@ -892,6 +892,12 @@
   </si>
   <si>
     <t>CROX</t>
+  </si>
+  <si>
+    <t>Dollarama</t>
+  </si>
+  <si>
+    <t>DOL CN</t>
   </si>
 </sst>
 </file>
@@ -1048,18 +1054,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>47.114727000000002</v>
+          <cell r="M3">
+            <v>213.16635099999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>414</v>
+          <cell r="M5">
+            <v>607</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="M6">
+            <v>5703</v>
           </cell>
         </row>
       </sheetData>
@@ -1082,18 +1088,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>277.37341600000002</v>
+          <cell r="L3">
+            <v>47.114727000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1908</v>
+          <cell r="L5">
+            <v>414</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>2999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1116,18 +1122,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>153</v>
+          <cell r="K3">
+            <v>277.37341600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>705.8</v>
+          <cell r="K5">
+            <v>1908</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>5325.3</v>
+          <cell r="K6">
+            <v>2999</v>
           </cell>
         </row>
       </sheetData>
@@ -1150,18 +1156,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>118.961421</v>
+          <cell r="N3">
+            <v>153</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>260.92200000000003</v>
+          <cell r="N5">
+            <v>705.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>228.96600000000001</v>
+          <cell r="N6">
+            <v>5325.3</v>
           </cell>
         </row>
       </sheetData>
@@ -1180,28 +1186,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>447.08398099999999</v>
+          <cell r="J3">
+            <v>118.961421</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>4774.8999999999996</v>
+          <cell r="J5">
+            <v>260.92200000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>61.9</v>
+          <cell r="J6">
+            <v>228.96600000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1216,26 +1220,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>717.34324700000002</v>
+            <v>447.08398099999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>3668</v>
+            <v>4774.8999999999996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38524</v>
+            <v>61.9</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1254,18 +1260,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>114.320581</v>
+          <cell r="M3">
+            <v>717.34324700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>343.74799999999999</v>
+          <cell r="M5">
+            <v>3668</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="M6">
+            <v>38524</v>
           </cell>
         </row>
       </sheetData>
@@ -1289,17 +1295,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>536.07843100000002</v>
+            <v>114.320581</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>0</v>
+            <v>343.74799999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>-4442.7</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1323,17 +1329,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>58.551000000000002</v>
+            <v>536.07843100000002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>109.03400000000001</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>262.17200000000003</v>
+            <v>-4442.7</v>
           </cell>
         </row>
       </sheetData>
@@ -1356,22 +1362,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>56.056159000000001</v>
+          <cell r="K3">
+            <v>58.551000000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>180.48500000000001</v>
+          <cell r="K5">
+            <v>109.03400000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>1349.3389999999999</v>
+          <cell r="K6">
+            <v>262.17200000000003</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1492,22 +1498,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>50.372689000000001</v>
+          <cell r="J3">
+            <v>56.056159000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>738.87900000000002</v>
+          <cell r="J5">
+            <v>180.48500000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="J6">
+            <v>1349.3389999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1527,17 +1533,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10515.011007999999</v>
+            <v>50.372689000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>88051</v>
+            <v>738.87900000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>54890</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1560,18 +1566,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>991.61418600000002</v>
+          <cell r="K3">
+            <v>10515.011007999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4264</v>
+          <cell r="K5">
+            <v>88051</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>42831</v>
+          <cell r="K6">
+            <v>54890</v>
           </cell>
         </row>
       </sheetData>
@@ -1595,17 +1601,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2449.375</v>
+            <v>991.61418600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>1029873</v>
+          <cell r="L5">
+            <v>4264</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>207937</v>
+          <cell r="L6">
+            <v>42831</v>
           </cell>
         </row>
       </sheetData>
@@ -1628,18 +1634,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>213.16635099999999</v>
+          <cell r="L3">
+            <v>2449.375</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>607</v>
+          <cell r="O5">
+            <v>1029873</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>5703</v>
+          <cell r="O6">
+            <v>207937</v>
           </cell>
         </row>
       </sheetData>
@@ -1948,24 +1954,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:J43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>179.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2377,7 +2383,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -2410,8 +2416,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B36" t="s">
@@ -2421,7 +2427,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>65</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>215</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>212</v>
       </c>
@@ -2512,7 +2518,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>65</v>
       </c>
@@ -2542,21 +2548,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -2763,7 +2769,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>275</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>5085.9753060700004</v>
       </c>
       <c r="F17" s="11">
-        <f>+[19]Main!$J$5-[19]Main!$J$6</f>
+        <f>+[5]Main!$J$5-[5]Main!$J$6</f>
         <v>-1168.8539999999998</v>
       </c>
       <c r="G17" s="11">
@@ -2797,7 +2803,7 @@
         <v>6254.8293060699998</v>
       </c>
       <c r="H17" s="11">
-        <f>+[19]Main!$J$3</f>
+        <f>+[5]Main!$J$3</f>
         <v>56.056159000000001</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -2807,7 +2813,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>207</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>263</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>3801.1231119399999</v>
       </c>
       <c r="F19" s="11">
-        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
+        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
         <v>738.87900000000002</v>
       </c>
       <c r="G19" s="11">
@@ -2841,7 +2847,7 @@
         <v>3062.24411194</v>
       </c>
       <c r="H19" s="11">
-        <f>+[5]Main!$K$3</f>
+        <f>+[6]Main!$K$3</f>
         <v>50.372689000000001</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -2863,29 +2869,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="4"/>
+    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="4"/>
+    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="11.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>1765470.3482432</v>
       </c>
       <c r="F3" s="6">
-        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
+        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
         <v>33161</v>
       </c>
       <c r="G3" s="6">
@@ -2940,14 +2946,14 @@
         <v>1732309.3482432</v>
       </c>
       <c r="H3" s="6">
-        <f>+[6]Main!$K$3</f>
+        <f>+[7]Main!$K$3</f>
         <v>10515.011007999999</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>394166.638935</v>
       </c>
       <c r="F6" s="6">
-        <f>+[7]Main!$L$5-[7]Main!$L$6</f>
+        <f>+[8]Main!$L$5-[8]Main!$L$6</f>
         <v>-38567</v>
       </c>
       <c r="G6" s="6">
@@ -3007,7 +3013,7 @@
         <v>432733.638935</v>
       </c>
       <c r="H6" s="6">
-        <f>+[7]Main!$L$3</f>
+        <f>+[8]Main!$L$3</f>
         <v>991.61418600000002</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -3017,7 +3023,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>234233.73124999998</v>
       </c>
       <c r="F7" s="6">
-        <f>([8]Main!$O$5-[8]Main!$O$6)/7</f>
+        <f>([9]Main!$O$5-[9]Main!$O$6)/7</f>
         <v>117419.42857142857</v>
       </c>
       <c r="G7" s="6">
@@ -3043,7 +3049,7 @@
         <v>116814.30267857142</v>
       </c>
       <c r="H7" s="6">
-        <f>+[8]Main!$L$3</f>
+        <f>+[9]Main!$L$3</f>
         <v>2449.375</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -3053,7 +3059,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>248</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>43002.047987229998</v>
       </c>
       <c r="F12" s="6">
-        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
+        <f>+[10]Main!$M$5-[10]Main!$M$6</f>
         <v>-5096</v>
       </c>
       <c r="G12" s="6">
@@ -3144,7 +3150,7 @@
         <v>48098.047987229998</v>
       </c>
       <c r="H12" s="6">
-        <f>+[9]Main!$M$3</f>
+        <f>+[10]Main!$M$3</f>
         <v>213.16635099999999</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -3154,7 +3160,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>227</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>17851.770060300001</v>
       </c>
       <c r="F14" s="11">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>+[11]Main!$L$5-[11]Main!$L$6</f>
         <v>414</v>
       </c>
       <c r="G14" s="11">
@@ -3194,7 +3200,7 @@
         <v>17437.770060300001</v>
       </c>
       <c r="H14" s="11">
-        <f>+[10]Main!$L$3</f>
+        <f>+[11]Main!$L$3</f>
         <v>47.114727000000002</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -3204,7 +3210,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>231</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>4668.1945912800002</v>
       </c>
       <c r="F15" s="6">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>-1091</v>
       </c>
       <c r="G15" s="6">
@@ -3227,7 +3233,7 @@
         <v>5759.1945912800002</v>
       </c>
       <c r="H15" s="6">
-        <f>+[11]Main!$K$3</f>
+        <f>+[12]Main!$K$3</f>
         <v>277.37341600000002</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -3237,7 +3243,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>188</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>639.54</v>
       </c>
       <c r="F16" s="6">
-        <f>+[12]Main!$N$5-[12]Main!$N$6</f>
+        <f>+[13]Main!$N$5-[13]Main!$N$6</f>
         <v>-4619.5</v>
       </c>
       <c r="G16" s="6">
@@ -3260,7 +3266,7 @@
         <v>5259.04</v>
       </c>
       <c r="H16" s="6">
-        <f>+[12]Main!$N$3</f>
+        <f>+[13]Main!$N$3</f>
         <v>153</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -3270,7 +3276,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>229</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>4044.688314</v>
       </c>
       <c r="F17" s="6">
-        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
         <v>31.956000000000017</v>
       </c>
       <c r="G17" s="6">
@@ -3293,7 +3299,7 @@
         <v>4012.7323139999999</v>
       </c>
       <c r="H17" s="6">
-        <f>+[13]Main!$J$3</f>
+        <f>+[14]Main!$J$3</f>
         <v>118.961421</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -3303,7 +3309,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>181</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>7421.5940846000003</v>
       </c>
       <c r="F18" s="6">
-        <f>+[14]Main!$M$5-[14]Main!$M$6</f>
+        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
         <v>4713</v>
       </c>
       <c r="G18" s="6">
@@ -3326,7 +3332,7 @@
         <v>2708.5940846000003</v>
       </c>
       <c r="H18" s="6">
-        <f>+[14]Main!$M$3</f>
+        <f>+[15]Main!$M$3</f>
         <v>447.08398099999999</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -3336,7 +3342,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>65</v>
       </c>
@@ -3402,7 +3408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>65</v>
       </c>
@@ -3424,7 +3430,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>65</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>65</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -3521,6 +3527,17 @@
       </c>
       <c r="C35" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3550,16 +3567,16 @@
       <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3645,7 +3662,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3663,7 +3680,7 @@
         <v>210898.91461800001</v>
       </c>
       <c r="F3" s="6">
-        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
+        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
         <v>-34856</v>
       </c>
       <c r="G3" s="6">
@@ -3674,14 +3691,14 @@
         <v>210</v>
       </c>
       <c r="I3" s="6">
-        <f>+[15]Main!$M$3</f>
+        <f>+[16]Main!$M$3</f>
         <v>717.34324700000002</v>
       </c>
       <c r="J3" s="7">
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3692,7 +3709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3714,7 +3731,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3725,7 +3742,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>225</v>
       </c>
@@ -3740,7 +3757,7 @@
         <v>16603.921184440002</v>
       </c>
       <c r="F8" s="6">
-        <f>+[16]Main!$K$5-[16]Main!$K$6</f>
+        <f>+[17]Main!$K$5-[17]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
       <c r="G8" s="6">
@@ -3751,14 +3768,14 @@
         <v>210</v>
       </c>
       <c r="I8" s="6">
-        <f>+[16]Main!$K$3</f>
+        <f>+[17]Main!$K$3</f>
         <v>114.320581</v>
       </c>
       <c r="J8" s="7">
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>234</v>
       </c>
@@ -3769,7 +3786,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>235</v>
       </c>
@@ -3780,7 +3797,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>237</v>
       </c>
@@ -3788,7 +3805,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>238</v>
       </c>
@@ -3796,12 +3813,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>242</v>
       </c>
@@ -3809,7 +3826,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>245</v>
       </c>
@@ -3817,7 +3834,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>247</v>
       </c>
@@ -3849,18 +3866,18 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3885,7 +3902,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3896,7 +3913,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3907,7 +3924,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3918,7 +3935,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3929,7 +3946,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3940,7 +3957,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3951,7 +3968,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -3978,16 +3995,16 @@
       <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4073,7 +4090,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -4087,7 +4104,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -4105,7 +4122,7 @@
         <v>232277.42336799004</v>
       </c>
       <c r="F4" s="11">
-        <f>[17]Main!$K$5-[17]Main!$K$6</f>
+        <f>[18]Main!$K$5-[18]Main!$K$6</f>
         <v>4442.7</v>
       </c>
       <c r="G4" s="11">
@@ -4116,14 +4133,14 @@
         <v>210</v>
       </c>
       <c r="I4" s="11">
-        <f>+[17]Main!$K$3</f>
+        <f>+[18]Main!$K$3</f>
         <v>536.07843100000002</v>
       </c>
       <c r="J4" s="13">
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -4137,7 +4154,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -4148,7 +4165,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -4159,7 +4176,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -4170,7 +4187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -4184,7 +4201,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -4198,7 +4215,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -4212,7 +4229,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -4223,7 +4240,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -4234,7 +4251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -4245,7 +4262,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -4256,7 +4273,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -4267,7 +4284,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -4278,7 +4295,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -4292,7 +4309,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -4310,7 +4327,7 @@
         <v>3952.7780100000004</v>
       </c>
       <c r="F19" s="11">
-        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
+        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
       <c r="G19" s="11">
@@ -4321,7 +4338,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="6">
-        <f>+[18]Main!$K$3</f>
+        <f>+[19]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
       <c r="J19" s="7">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DAED6F-5D0B-4828-A402-8AF02D257BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19D814-9701-49EA-B4FC-AC529EB7413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="288">
   <si>
     <t>Name</t>
   </si>
@@ -898,6 +898,33 @@
   </si>
   <si>
     <t>DOL CN</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
+    <t>Williams-Sonoma</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>Asian Paints</t>
+  </si>
+  <si>
+    <t>APNT IN</t>
+  </si>
+  <si>
+    <t>DECK</t>
+  </si>
+  <si>
+    <t>Deckers</t>
+  </si>
+  <si>
+    <t>Woolworth's</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1540,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1567,17 +1594,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>10515.011007999999</v>
+            <v>10771</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>88051</v>
+            <v>101202</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>54890</v>
+            <v>52623</v>
           </cell>
         </row>
       </sheetData>
@@ -1954,24 +1981,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951981A-ACC1-4F3E-8160-6176D88869E4}">
   <dimension ref="A2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2027,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2011,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2022,7 +2049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2033,7 +2060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2069,7 +2096,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2080,7 +2107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2091,7 +2118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2102,7 +2129,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2113,7 +2140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2124,7 +2151,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2135,7 +2162,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2146,7 +2173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2157,8 +2184,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
@@ -2168,7 +2195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -2204,7 +2231,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -2215,8 +2242,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
@@ -2226,7 +2253,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
@@ -2240,7 +2267,7 @@
         <v>179.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -2251,7 +2278,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -2262,7 +2289,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -2273,7 +2300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -2284,7 +2311,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2295,8 +2322,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B25" t="s">
@@ -2306,7 +2333,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2317,7 +2344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2328,7 +2355,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -2339,7 +2366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2350,7 +2377,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
@@ -2361,7 +2388,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2372,7 +2399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2383,7 +2410,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2394,7 +2421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
@@ -2405,7 +2432,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -2416,7 +2443,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>65</v>
       </c>
@@ -2427,7 +2454,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2438,7 +2465,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2449,7 +2476,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>65</v>
       </c>
@@ -2460,7 +2487,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2471,7 +2498,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>215</v>
       </c>
@@ -2504,7 +2531,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>212</v>
       </c>
@@ -2518,7 +2545,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>65</v>
       </c>
@@ -2546,23 +2573,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:K19"/>
+  <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2621,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2605,7 +2632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2641,7 +2668,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2652,7 +2679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2663,7 +2690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2674,7 +2701,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2685,7 +2712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2696,7 +2723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2707,7 +2734,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2718,7 +2745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2735,7 +2762,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2746,7 +2773,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2784,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -2769,99 +2796,111 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
         <v>202</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>276</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>90.73</v>
       </c>
-      <c r="E17" s="11">
-        <f>+D17*H17</f>
+      <c r="E18" s="11">
+        <f>+D18*H18</f>
         <v>5085.9753060700004</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <f>+[5]Main!$J$5-[5]Main!$J$6</f>
         <v>-1168.8539999999998</v>
       </c>
-      <c r="G17" s="11">
-        <f>+E17-F17</f>
+      <c r="G18" s="11">
+        <f>+E18-F18</f>
         <v>6254.8293060699998</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="11">
         <f>+[5]Main!$J$3</f>
         <v>56.056159000000001</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>45761</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>207</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>264</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>75.459999999999994</v>
       </c>
-      <c r="E19" s="11">
-        <f>+D19*H19</f>
+      <c r="E20" s="11">
+        <f>+D20*H20</f>
         <v>3801.1231119399999</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <f>+[6]Main!$K$5-[6]Main!$K$6</f>
         <v>738.87900000000002</v>
       </c>
-      <c r="G19" s="11">
-        <f>+E19-F19</f>
+      <c r="G20" s="11">
+        <f>+E20-F20</f>
         <v>3062.24411194</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="11">
         <f>+[6]Main!$K$3</f>
         <v>50.372689000000001</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J20" s="13">
         <v>45742</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{33F17381-BAA7-4FF0-80BE-F4E8EBB9EC8D}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{5226F439-7652-42C9-BB1E-9C5F947616D0}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{5226F439-7652-42C9-BB1E-9C5F947616D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2869,29 +2908,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
-  <dimension ref="A2:J36"/>
+  <dimension ref="A2:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="4"/>
-    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="4"/>
-    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="11.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2959,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2935,25 +2974,25 @@
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>1765470.3482432</v>
+        <v>1808450.9000000001</v>
       </c>
       <c r="F3" s="6">
         <f>+[7]Main!$K$5-[7]Main!$K$6</f>
-        <v>33161</v>
+        <v>48579</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>1732309.3482432</v>
+        <v>1759871.9000000001</v>
       </c>
       <c r="H3" s="6">
         <f>+[7]Main!$K$3</f>
-        <v>10515.011007999999</v>
+        <v>10771</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2970,7 +3009,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2987,7 +3026,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3023,7 +3062,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3059,7 +3098,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3076,7 +3115,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3093,7 +3132,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -3110,7 +3149,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -3127,7 +3166,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>248</v>
       </c>
@@ -3160,7 +3199,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3177,7 +3216,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>227</v>
       </c>
@@ -3210,7 +3249,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>231</v>
       </c>
@@ -3243,7 +3282,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>188</v>
       </c>
@@ -3276,7 +3315,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>229</v>
       </c>
@@ -3309,7 +3348,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>181</v>
       </c>
@@ -3342,7 +3381,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -3353,7 +3392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3364,180 +3403,217 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
         <v>120</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>129</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
         <v>133</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>135</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
         <v>254</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
         <v>146</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>150</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>156</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>162</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>164</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>194</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
         <v>196</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
         <v>277</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3564,19 +3640,19 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3662,7 +3738,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3698,7 +3774,7 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3709,7 +3785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -3720,7 +3796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3731,7 +3807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3742,7 +3818,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>225</v>
       </c>
@@ -3775,7 +3851,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>234</v>
       </c>
@@ -3786,7 +3862,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>235</v>
       </c>
@@ -3797,7 +3873,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>237</v>
       </c>
@@ -3805,7 +3881,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>238</v>
       </c>
@@ -3813,12 +3889,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>242</v>
       </c>
@@ -3826,7 +3902,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>245</v>
       </c>
@@ -3834,7 +3910,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>247</v>
       </c>
@@ -3866,18 +3942,18 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +3967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3902,7 +3978,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3913,7 +3989,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3924,7 +4000,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3935,7 +4011,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3946,7 +4022,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3957,7 +4033,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3968,7 +4044,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -3986,25 +4062,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
-  <dimension ref="A2:AC19"/>
+  <dimension ref="A2:AC20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" style="4"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4166,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -4104,7 +4180,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -4140,7 +4216,7 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -4154,7 +4230,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -4165,7 +4241,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -4176,7 +4252,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -4187,8 +4263,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
@@ -4201,7 +4277,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -4215,7 +4291,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -4229,7 +4305,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -4240,7 +4316,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -4251,7 +4327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -4262,7 +4338,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -4273,7 +4349,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -4284,7 +4360,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -4295,8 +4371,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
@@ -4309,45 +4385,56 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>67.510000000000005</v>
       </c>
-      <c r="E19" s="6">
-        <f>+D19*I19</f>
+      <c r="E20" s="6">
+        <f>+D20*I20</f>
         <v>3952.7780100000004</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
-      <c r="G19" s="11">
-        <f>+E19-F19</f>
+      <c r="G20" s="11">
+        <f>+E20-F20</f>
         <v>4105.9160100000008</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="6">
         <f>+[19]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J20" s="7">
         <v>45719</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{489ED1A3-D908-4C0E-AB16-E996DF3BF813}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19D814-9701-49EA-B4FC-AC529EB7413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7370BB25-DCEE-41C2-9278-F06EAC895690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-24060" yWindow="4860" windowWidth="24105" windowHeight="15510" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -925,6 +925,18 @@
   </si>
   <si>
     <t>Woolworth's</t>
+  </si>
+  <si>
+    <t>H&amp;M</t>
+  </si>
+  <si>
+    <t>HMB SS</t>
+  </si>
+  <si>
+    <t>Darden</t>
+  </si>
+  <si>
+    <t>DRI</t>
   </si>
 </sst>
 </file>
@@ -2573,13 +2585,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE01DB9-D57B-41E3-ABA1-0272A552DE0C}">
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2809,98 +2821,110 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>202</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>276</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>90.73</v>
       </c>
-      <c r="E18" s="11">
-        <f>+D18*H18</f>
+      <c r="E19" s="11">
+        <f>+D19*H19</f>
         <v>5085.9753060700004</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <f>+[5]Main!$J$5-[5]Main!$J$6</f>
         <v>-1168.8539999999998</v>
       </c>
-      <c r="G18" s="11">
-        <f>+E18-F18</f>
+      <c r="G19" s="11">
+        <f>+E19-F19</f>
         <v>6254.8293060699998</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <f>+[5]Main!$J$3</f>
         <v>56.056159000000001</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="13">
         <v>45761</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>207</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>264</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>75.459999999999994</v>
       </c>
-      <c r="E20" s="11">
-        <f>+D20*H20</f>
+      <c r="E21" s="11">
+        <f>+D21*H21</f>
         <v>3801.1231119399999</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <f>+[6]Main!$K$5-[6]Main!$K$6</f>
         <v>738.87900000000002</v>
       </c>
-      <c r="G20" s="11">
-        <f>+E20-F20</f>
+      <c r="G21" s="11">
+        <f>+E21-F21</f>
         <v>3062.24411194</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <f>+[6]Main!$K$3</f>
         <v>50.372689000000001</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="13">
         <v>45742</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{33F17381-BAA7-4FF0-80BE-F4E8EBB9EC8D}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
-    <hyperlink ref="B18" r:id="rId3" xr:uid="{5226F439-7652-42C9-BB1E-9C5F947616D0}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{BED89110-8783-4C16-8025-2BA57DDB6683}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{5226F439-7652-42C9-BB1E-9C5F947616D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2910,11 +2934,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3518,7 +3542,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B31" t="s">
@@ -3634,13 +3658,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="A2:AC16"/>
+  <dimension ref="A2:AC17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3819,113 +3843,124 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>145.24</v>
       </c>
-      <c r="E8" s="6">
-        <f>+D8*I8</f>
+      <c r="E9" s="6">
+        <f>+D9*I9</f>
         <v>16603.921184440002</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <f>+[17]Main!$K$5-[17]Main!$K$6</f>
         <v>343.74799999999999</v>
       </c>
-      <c r="G8" s="6">
-        <f>+E8-F8</f>
+      <c r="G9" s="6">
+        <f>+E9-F9</f>
         <v>16260.173184440002</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I9" s="6">
         <f>+[17]Main!$K$3</f>
         <v>114.320581</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>45608</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>234</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>31.98</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>54.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>247</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{709F67B1-5ADF-4777-9C20-22D9DE4FA40A}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{709F67B1-5ADF-4777-9C20-22D9DE4FA40A}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9F85A96E-0777-4A43-AD47-4380F63681E5}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{0814656D-DE6E-4336-87E3-4D76921C4419}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{0814656D-DE6E-4336-87E3-4D76921C4419}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7370BB25-DCEE-41C2-9278-F06EAC895690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E33603E-9E4B-4AB8-BA9A-E3CF7A413663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24060" yWindow="4860" windowWidth="24105" windowHeight="15510" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-30045" yWindow="4560" windowWidth="29715" windowHeight="15315" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -937,6 +938,9 @@
   </si>
   <si>
     <t>DRI</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -1451,6 +1455,40 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>359.75198</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>2631</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>7298</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1994,10 +2032,10 @@
   <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3660,7 +3698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4099,11 +4137,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4302,14 +4340,36 @@
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="5">
-        <v>85.5</v>
+        <v>58.07</v>
+      </c>
+      <c r="E9" s="6">
+        <f>+D9*I9</f>
+        <v>20890.797478600001</v>
+      </c>
+      <c r="F9" s="11">
+        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
+        <v>-4667</v>
+      </c>
+      <c r="G9" s="11">
+        <f>+E9-F9</f>
+        <v>25557.797478600001</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I9" s="11">
+        <f>+[20]Main!$K$3</f>
+        <v>359.75198</v>
+      </c>
+      <c r="J9" s="13">
+        <v>45783</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -4471,6 +4531,7 @@
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{EC517544-300E-4D35-9D0D-A68691FB54FF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{489ED1A3-D908-4C0E-AB16-E996DF3BF813}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{1C27A4A1-778A-4224-AC2F-1B6DAB96DDB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E33603E-9E4B-4AB8-BA9A-E3CF7A413663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D09A39-7DAF-408A-96FE-F5A94B537FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30045" yWindow="4560" windowWidth="29715" windowHeight="15315" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="57490" yWindow="7300" windowWidth="18720" windowHeight="11420" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1406,21 +1406,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>58.551000000000002</v>
+            <v>359.75198</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>109.03400000000001</v>
+            <v>2631</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>262.17200000000003</v>
+            <v>7298</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1474,21 +1474,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>359.75198</v>
+            <v>58.551000000000002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>2631</v>
+            <v>109.03400000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>262.17200000000003</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2038,17 +2038,17 @@
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>179.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>65</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>65</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>65</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>215</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>212</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>65</v>
       </c>
@@ -2632,14 +2632,14 @@
       <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>275</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>207</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>263</v>
       </c>
@@ -2972,27 +2972,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="4"/>
+    <col min="5" max="5" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="4"/>
+    <col min="7" max="7" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="11.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>656100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>397000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>132400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>74300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>248</v>
       </c>
@@ -3236,11 +3236,11 @@
         <v>249</v>
       </c>
       <c r="D12" s="5">
-        <v>201.73</v>
+        <v>270.49</v>
       </c>
       <c r="E12" s="6">
         <f>+D12*H12</f>
-        <v>43002.047987229998</v>
+        <v>57659.366281989998</v>
       </c>
       <c r="F12" s="6">
         <f>+[10]Main!$M$5-[10]Main!$M$6</f>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="G12" s="6">
         <f>+E12-F12</f>
-        <v>48098.047987229998</v>
+        <v>62755.366281989998</v>
       </c>
       <c r="H12" s="6">
         <f>+[10]Main!$M$3</f>
@@ -3261,7 +3261,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>227</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>231</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>188</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>229</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>181</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>65</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>65</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>65</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>65</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>65</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>65</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>65</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>65</v>
       </c>
@@ -3705,16 +3705,16 @@
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>225</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>234</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>235</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>237</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>238</v>
       </c>
@@ -3962,12 +3962,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>242</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>245</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>247</v>
       </c>
@@ -4015,18 +4015,18 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -4137,23 +4137,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="4"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>172.31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>119.72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>20890.797478600001</v>
       </c>
       <c r="F9" s="11">
-        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
+        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>-4667</v>
       </c>
       <c r="G9" s="11">
@@ -4365,14 +4365,14 @@
         <v>292</v>
       </c>
       <c r="I9" s="11">
-        <f>+[20]Main!$K$3</f>
+        <f>+[19]Main!$K$3</f>
         <v>359.75198</v>
       </c>
       <c r="J9" s="13">
         <v>45783</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>102.37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>3952.7780100000004</v>
       </c>
       <c r="F20" s="11">
-        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
+        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
         <v>-153.13800000000003</v>
       </c>
       <c r="G20" s="11">
@@ -4520,7 +4520,7 @@
         <v>210</v>
       </c>
       <c r="I20" s="6">
-        <f>+[19]Main!$K$3</f>
+        <f>+[20]Main!$K$3</f>
         <v>58.551000000000002</v>
       </c>
       <c r="J20" s="7">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D09A39-7DAF-408A-96FE-F5A94B537FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF822F-D38C-41B9-9DE8-6A293B8FA7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57490" yWindow="7300" windowWidth="18720" windowHeight="11420" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="110" yWindow="1960" windowWidth="19750" windowHeight="16700" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="295">
   <si>
     <t>Name</t>
   </si>
@@ -941,6 +942,12 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>Wendy's</t>
+  </si>
+  <si>
+    <t>WEN</t>
   </si>
 </sst>
 </file>
@@ -1485,6 +1492,40 @@
         <row r="6">
           <cell r="K6">
             <v>262.17200000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>192</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>396.673</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>2734.8529999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -2972,7 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3696,13 +3737,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
-  <dimension ref="A2:AC17"/>
+  <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3983,7 +4024,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>247</v>
       </c>
@@ -3992,6 +4033,39 @@
       </c>
       <c r="D17" s="5">
         <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="5">
+        <v>12.29</v>
+      </c>
+      <c r="E18" s="6">
+        <f>+D18*I18</f>
+        <v>2359.6799999999998</v>
+      </c>
+      <c r="F18" s="6">
+        <f>+[21]Main!$N$5-[21]Main!$N$6</f>
+        <v>-2338.1799999999994</v>
+      </c>
+      <c r="G18" s="6">
+        <f>+E18-F18</f>
+        <v>4697.8599999999988</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I18" s="4">
+        <f>+[21]Main!$N$3</f>
+        <v>192</v>
+      </c>
+      <c r="J18" s="7">
+        <v>45796</v>
       </c>
     </row>
   </sheetData>
@@ -3999,6 +4073,7 @@
     <hyperlink ref="B9" r:id="rId1" xr:uid="{709F67B1-5ADF-4777-9C20-22D9DE4FA40A}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9F85A96E-0777-4A43-AD47-4380F63681E5}"/>
     <hyperlink ref="B11" r:id="rId3" xr:uid="{0814656D-DE6E-4336-87E3-4D76921C4419}"/>
+    <hyperlink ref="B18" r:id="rId4" xr:uid="{260E21BE-B7FA-4320-823C-9CBE13D26961}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF822F-D38C-41B9-9DE8-6A293B8FA7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB4B476-7B10-4A90-8A03-C611D2E933DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="110" yWindow="1960" windowWidth="19750" windowHeight="16700" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="56470" yWindow="4650" windowWidth="18350" windowHeight="15420" activeTab="5" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="297">
   <si>
     <t>Name</t>
   </si>
@@ -948,6 +948,12 @@
   </si>
   <si>
     <t>WEN</t>
+  </si>
+  <si>
+    <t>Viking</t>
+  </si>
+  <si>
+    <t>VIK</t>
   </si>
 </sst>
 </file>
@@ -1378,18 +1384,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>536.07843100000002</v>
+          <cell r="N3">
+            <v>192</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>0</v>
+          <cell r="N5">
+            <v>396.673</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>-4442.7</v>
+          <cell r="N6">
+            <v>2734.8529999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -1413,21 +1419,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>359.75198</v>
+            <v>536.07843100000002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>2631</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7298</v>
+            <v>-4442.7</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1481,21 +1487,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>58.551000000000002</v>
+            <v>359.75198</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>109.03400000000001</v>
+            <v>2631</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>262.17200000000003</v>
+            <v>7298</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1514,22 +1520,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>192</v>
+          <cell r="K3">
+            <v>57.980746000000003</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>396.673</v>
+          <cell r="K5">
+            <v>148.69999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>2734.8529999999996</v>
+          <cell r="K6">
+            <v>256.7</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3739,7 +3745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4050,7 +4056,7 @@
         <v>2359.6799999999998</v>
       </c>
       <c r="F18" s="6">
-        <f>+[21]Main!$N$5-[21]Main!$N$6</f>
+        <f>+[18]Main!$N$5-[18]Main!$N$6</f>
         <v>-2338.1799999999994</v>
       </c>
       <c r="G18" s="6">
@@ -4061,7 +4067,7 @@
         <v>292</v>
       </c>
       <c r="I18" s="4">
-        <f>+[21]Main!$N$3</f>
+        <f>+[18]Main!$N$3</f>
         <v>192</v>
       </c>
       <c r="J18" s="7">
@@ -4081,13 +4087,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B3AE1-93C7-4A6B-A7E2-F7A2ABF7DB44}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4203,6 +4209,17 @@
         <v>267</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4212,11 +4229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224C3C0A-132C-4465-8254-918E550875E1}">
   <dimension ref="A2:AC20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4346,7 +4363,7 @@
         <v>232277.42336799004</v>
       </c>
       <c r="F4" s="11">
-        <f>[18]Main!$K$5-[18]Main!$K$6</f>
+        <f>[19]Main!$K$5-[19]Main!$K$6</f>
         <v>4442.7</v>
       </c>
       <c r="G4" s="11">
@@ -4357,7 +4374,7 @@
         <v>210</v>
       </c>
       <c r="I4" s="11">
-        <f>+[18]Main!$K$3</f>
+        <f>+[19]Main!$K$3</f>
         <v>536.07843100000002</v>
       </c>
       <c r="J4" s="13">
@@ -4429,7 +4446,7 @@
         <v>20890.797478600001</v>
       </c>
       <c r="F9" s="11">
-        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
+        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
         <v>-4667</v>
       </c>
       <c r="G9" s="11">
@@ -4440,7 +4457,7 @@
         <v>292</v>
       </c>
       <c r="I9" s="11">
-        <f>+[19]Main!$K$3</f>
+        <f>+[20]Main!$K$3</f>
         <v>359.75198</v>
       </c>
       <c r="J9" s="13">
@@ -4576,30 +4593,30 @@
       <c r="C20" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="4">
-        <v>67.510000000000005</v>
+      <c r="D20" s="5">
+        <v>113</v>
       </c>
       <c r="E20" s="6">
         <f>+D20*I20</f>
-        <v>3952.7780100000004</v>
+        <v>6551.8242980000005</v>
       </c>
       <c r="F20" s="11">
-        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
-        <v>-153.13800000000003</v>
+        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
+        <v>-108</v>
       </c>
       <c r="G20" s="11">
         <f>+E20-F20</f>
-        <v>4105.9160100000008</v>
+        <v>6659.8242980000005</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="I20" s="6">
-        <f>+[20]Main!$K$3</f>
-        <v>58.551000000000002</v>
+        <f>+[21]Main!$K$3</f>
+        <v>57.980746000000003</v>
       </c>
       <c r="J20" s="7">
-        <v>45719</v>
+        <v>45810</v>
       </c>
     </row>
   </sheetData>
